--- a/fuentes/contenidos/grado09/guion01/EsqueletoGuion_LE_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/EsqueletoGuion_LE_09_01_CO.xlsx
@@ -242,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1543,7 +1543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1557,13 +1557,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="104.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -1630,7 +1630,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
@@ -1642,7 +1642,7 @@
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="4" customFormat="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1676,7 +1676,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1684,7 +1684,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1692,7 +1692,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1700,16 +1700,16 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="G12" s="7"/>
     </row>
   </sheetData>
@@ -1731,13 +1731,13 @@
       <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66.140625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="4" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="4" customFormat="1">
       <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="4" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="15" t="s">
         <v>42</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="15" t="s">
         <v>46</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="13" t="s">
         <v>47</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="15" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
         <v>49</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="15" t="s">
         <v>21</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
@@ -1957,62 +1957,62 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2042,14 +2042,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="92.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2269,82 +2269,82 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36"/>
@@ -2372,7 +2372,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.140625" style="2" customWidth="1"/>
@@ -2385,7 +2385,7 @@
     <col min="9" max="9" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="23" t="s">
         <v>29</v>
       </c>
@@ -2431,7 +2431,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" s="23" t="s">
         <v>29</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="23" t="s">
         <v>29</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="23" t="s">
         <v>29</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="23" t="s">
         <v>29</v>
       </c>
@@ -2543,7 +2543,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="23" t="s">
         <v>29</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="23" t="s">
         <v>29</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30">
       <c r="A11" s="23" t="s">
         <v>29</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="23" t="s">
         <v>29</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="23" t="s">
         <v>29</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30">
       <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30">
       <c r="A16" s="23" t="s">
         <v>29</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30">
       <c r="A17" s="23" t="s">
         <v>29</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="23" t="s">
         <v>29</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="23" t="s">
         <v>29</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30">
       <c r="A21" s="18" t="s">
         <v>29</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30">
       <c r="A22" s="18" t="s">
         <v>29</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30">
       <c r="A23" s="18" t="s">
         <v>29</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30">
       <c r="A24" s="18" t="s">
         <v>29</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30">
       <c r="A25" s="18" t="s">
         <v>29</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30">
       <c r="A26" s="18" t="s">
         <v>29</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30">
       <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30">
       <c r="A28" s="18" t="s">
         <v>29</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30">
       <c r="A29" s="18" t="s">
         <v>29</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30">
       <c r="A30" s="18" t="s">
         <v>29</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30">
       <c r="A31" s="18" t="s">
         <v>29</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30">
       <c r="A32" s="18" t="s">
         <v>29</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="23" t="s">
         <v>29</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" s="23" t="s">
         <v>29</v>
       </c>
@@ -3061,7 +3061,7 @@
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="23" t="s">
         <v>29</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="23" t="s">
         <v>29</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="H36" s="29"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="23" t="s">
         <v>29</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="23" t="s">
         <v>29</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="23" t="s">
         <v>29</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="23" t="s">
         <v>29</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" s="23" t="s">
         <v>29</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="23" t="s">
         <v>29</v>
       </c>
@@ -3211,7 +3211,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30">
       <c r="A43" s="23" t="s">
         <v>29</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="23" t="s">
         <v>29</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="23" t="s">
         <v>29</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="30">
       <c r="A46" s="23" t="s">
         <v>29</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="18" t="s">
         <v>29</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="18" t="s">
         <v>29</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="18" t="s">
         <v>29</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="18" t="s">
         <v>29</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="18" t="s">
         <v>29</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="18" t="s">
         <v>29</v>
       </c>
@@ -3411,7 +3411,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="18" t="s">
         <v>29</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="18" t="s">
         <v>29</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="18" t="s">
         <v>29</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="18" t="s">
         <v>29</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="23" t="s">
         <v>29</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="H57" s="31"/>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="23" t="s">
         <v>29</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="23" t="s">
         <v>29</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="23" t="s">
         <v>29</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="23" t="s">
         <v>29</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="23" t="s">
         <v>29</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="23" t="s">
         <v>29</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="18" t="s">
         <v>29</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64">
       <c r="A65" s="18" t="s">
         <v>29</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:64">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
       <c r="C66" s="5"/>
@@ -3741,7 +3741,7 @@
       <c r="BK66" s="17"/>
       <c r="BL66" s="17"/>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:64">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
       <c r="C67" s="5"/>
@@ -3806,7 +3806,7 @@
       <c r="BK67" s="17"/>
       <c r="BL67" s="17"/>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64">
       <c r="A68" s="5"/>
       <c r="B68" s="34"/>
       <c r="C68" s="5"/>
@@ -3871,7 +3871,7 @@
       <c r="BK68" s="17"/>
       <c r="BL68" s="17"/>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64">
       <c r="A69" s="5"/>
       <c r="B69" s="34"/>
       <c r="C69" s="5"/>
@@ -3936,7 +3936,7 @@
       <c r="BK69" s="17"/>
       <c r="BL69" s="17"/>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64">
       <c r="A70" s="33"/>
       <c r="B70" s="35"/>
       <c r="C70" s="33"/>
@@ -4002,7 +4002,7 @@
       <c r="BK70" s="17"/>
       <c r="BL70" s="17"/>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64">
       <c r="A71" s="33"/>
       <c r="B71" s="35"/>
       <c r="C71" s="33"/>
@@ -4068,7 +4068,7 @@
       <c r="BK71" s="17"/>
       <c r="BL71" s="17"/>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:64">
       <c r="A72" s="33"/>
       <c r="B72" s="35"/>
       <c r="C72" s="33"/>
@@ -4134,7 +4134,7 @@
       <c r="BK72" s="17"/>
       <c r="BL72" s="17"/>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:64">
       <c r="A73" s="33"/>
       <c r="B73" s="35"/>
       <c r="C73" s="33"/>
@@ -4200,7 +4200,7 @@
       <c r="BK73" s="17"/>
       <c r="BL73" s="17"/>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:64">
       <c r="A74" s="33"/>
       <c r="B74" s="35"/>
       <c r="C74" s="33"/>
@@ -4266,7 +4266,7 @@
       <c r="BK74" s="17"/>
       <c r="BL74" s="17"/>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:64">
       <c r="A75" s="33"/>
       <c r="B75" s="35"/>
       <c r="C75" s="33"/>
@@ -4332,7 +4332,7 @@
       <c r="BK75" s="17"/>
       <c r="BL75" s="17"/>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:64">
       <c r="A76" s="33"/>
       <c r="B76" s="35"/>
       <c r="C76" s="33"/>
@@ -4398,7 +4398,7 @@
       <c r="BK76" s="17"/>
       <c r="BL76" s="17"/>
     </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:64">
       <c r="A77" s="33"/>
       <c r="B77" s="35"/>
       <c r="C77" s="33"/>
@@ -4464,7 +4464,7 @@
       <c r="BK77" s="17"/>
       <c r="BL77" s="17"/>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:64">
       <c r="A78" s="33"/>
       <c r="B78" s="35"/>
       <c r="C78" s="33"/>
@@ -4530,7 +4530,7 @@
       <c r="BK78" s="17"/>
       <c r="BL78" s="17"/>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:64">
       <c r="A79" s="33"/>
       <c r="B79" s="35"/>
       <c r="C79" s="33"/>
@@ -4596,7 +4596,7 @@
       <c r="BK79" s="17"/>
       <c r="BL79" s="17"/>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:64">
       <c r="A80" s="33"/>
       <c r="B80" s="35"/>
       <c r="C80" s="33"/>
@@ -4662,7 +4662,7 @@
       <c r="BK80" s="17"/>
       <c r="BL80" s="17"/>
     </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:64">
       <c r="A81" s="33"/>
       <c r="B81" s="35"/>
       <c r="C81" s="33"/>
@@ -4728,7 +4728,7 @@
       <c r="BK81" s="17"/>
       <c r="BL81" s="17"/>
     </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:64">
       <c r="A82" s="33"/>
       <c r="B82" s="35"/>
       <c r="C82" s="33"/>
@@ -4794,7 +4794,7 @@
       <c r="BK82" s="17"/>
       <c r="BL82" s="17"/>
     </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:64">
       <c r="A83" s="33"/>
       <c r="B83" s="35"/>
       <c r="C83" s="33"/>
@@ -4860,7 +4860,7 @@
       <c r="BK83" s="17"/>
       <c r="BL83" s="17"/>
     </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:64">
       <c r="A84" s="33"/>
       <c r="B84" s="35"/>
       <c r="C84" s="33"/>
@@ -4926,7 +4926,7 @@
       <c r="BK84" s="17"/>
       <c r="BL84" s="17"/>
     </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:64">
       <c r="A85" s="33"/>
       <c r="B85" s="35"/>
       <c r="C85" s="33"/>
@@ -4992,7 +4992,7 @@
       <c r="BK85" s="17"/>
       <c r="BL85" s="17"/>
     </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:64">
       <c r="A86" s="33"/>
       <c r="B86" s="35"/>
       <c r="C86" s="33"/>
@@ -5058,7 +5058,7 @@
       <c r="BK86" s="17"/>
       <c r="BL86" s="17"/>
     </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:64">
       <c r="A87" s="33"/>
       <c r="B87" s="35"/>
       <c r="C87" s="33"/>
@@ -5124,7 +5124,7 @@
       <c r="BK87" s="17"/>
       <c r="BL87" s="17"/>
     </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:64">
       <c r="A88" s="33"/>
       <c r="B88" s="35"/>
       <c r="C88" s="33"/>
@@ -5190,7 +5190,7 @@
       <c r="BK88" s="17"/>
       <c r="BL88" s="17"/>
     </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:64">
       <c r="A89" s="33"/>
       <c r="B89" s="35"/>
       <c r="C89" s="33"/>
@@ -5256,7 +5256,7 @@
       <c r="BK89" s="17"/>
       <c r="BL89" s="17"/>
     </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:64">
       <c r="A90" s="33"/>
       <c r="B90" s="35"/>
       <c r="C90" s="33"/>
@@ -5322,7 +5322,7 @@
       <c r="BK90" s="17"/>
       <c r="BL90" s="17"/>
     </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:64">
       <c r="A91" s="33"/>
       <c r="B91" s="35"/>
       <c r="C91" s="33"/>
@@ -5388,7 +5388,7 @@
       <c r="BK91" s="17"/>
       <c r="BL91" s="17"/>
     </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:64">
       <c r="A92" s="33"/>
       <c r="B92" s="35"/>
       <c r="C92" s="33"/>
@@ -5454,7 +5454,7 @@
       <c r="BK92" s="17"/>
       <c r="BL92" s="17"/>
     </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:64">
       <c r="A93" s="33"/>
       <c r="B93" s="35"/>
       <c r="C93" s="33"/>
@@ -5520,7 +5520,7 @@
       <c r="BK93" s="17"/>
       <c r="BL93" s="17"/>
     </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:64">
       <c r="A94" s="33"/>
       <c r="B94" s="35"/>
       <c r="C94" s="33"/>
@@ -5586,7 +5586,7 @@
       <c r="BK94" s="17"/>
       <c r="BL94" s="17"/>
     </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:64">
       <c r="A95" s="33"/>
       <c r="B95" s="35"/>
       <c r="C95" s="33"/>
@@ -5652,7 +5652,7 @@
       <c r="BK95" s="17"/>
       <c r="BL95" s="17"/>
     </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:64">
       <c r="A96" s="33"/>
       <c r="B96" s="35"/>
       <c r="C96" s="33"/>
@@ -5718,7 +5718,7 @@
       <c r="BK96" s="17"/>
       <c r="BL96" s="17"/>
     </row>
-    <row r="97" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:64">
       <c r="A97" s="33"/>
       <c r="B97" s="35"/>
       <c r="C97" s="33"/>
@@ -5784,7 +5784,7 @@
       <c r="BK97" s="17"/>
       <c r="BL97" s="17"/>
     </row>
-    <row r="98" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:64">
       <c r="A98" s="33"/>
       <c r="B98" s="35"/>
       <c r="C98" s="33"/>
@@ -5850,7 +5850,7 @@
       <c r="BK98" s="17"/>
       <c r="BL98" s="17"/>
     </row>
-    <row r="99" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:64">
       <c r="A99" s="33"/>
       <c r="B99" s="35"/>
       <c r="C99" s="33"/>
@@ -5916,7 +5916,7 @@
       <c r="BK99" s="17"/>
       <c r="BL99" s="17"/>
     </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:64">
       <c r="A100" s="33"/>
       <c r="B100" s="35"/>
       <c r="C100" s="33"/>
@@ -5982,7 +5982,7 @@
       <c r="BK100" s="17"/>
       <c r="BL100" s="17"/>
     </row>
-    <row r="101" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:64">
       <c r="A101" s="33"/>
       <c r="B101" s="35"/>
       <c r="C101" s="33"/>
@@ -6048,7 +6048,7 @@
       <c r="BK101" s="17"/>
       <c r="BL101" s="17"/>
     </row>
-    <row r="102" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:64">
       <c r="A102" s="33"/>
       <c r="B102" s="35"/>
       <c r="C102" s="33"/>
@@ -6114,7 +6114,7 @@
       <c r="BK102" s="17"/>
       <c r="BL102" s="17"/>
     </row>
-    <row r="103" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:64">
       <c r="A103" s="33"/>
       <c r="B103" s="35"/>
       <c r="C103" s="33"/>
@@ -6180,7 +6180,7 @@
       <c r="BK103" s="17"/>
       <c r="BL103" s="17"/>
     </row>
-    <row r="104" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:64">
       <c r="A104" s="33"/>
       <c r="B104" s="35"/>
       <c r="C104" s="33"/>
@@ -6246,7 +6246,7 @@
       <c r="BK104" s="17"/>
       <c r="BL104" s="17"/>
     </row>
-    <row r="105" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:64">
       <c r="A105" s="33"/>
       <c r="B105" s="35"/>
       <c r="C105" s="33"/>
@@ -6312,7 +6312,7 @@
       <c r="BK105" s="17"/>
       <c r="BL105" s="17"/>
     </row>
-    <row r="106" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:64">
       <c r="A106" s="33"/>
       <c r="B106" s="35"/>
       <c r="C106" s="33"/>
@@ -6378,7 +6378,7 @@
       <c r="BK106" s="17"/>
       <c r="BL106" s="17"/>
     </row>
-    <row r="107" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:64">
       <c r="A107" s="33"/>
       <c r="B107" s="35"/>
       <c r="C107" s="33"/>
@@ -6444,7 +6444,7 @@
       <c r="BK107" s="17"/>
       <c r="BL107" s="17"/>
     </row>
-    <row r="108" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:64">
       <c r="A108" s="33"/>
       <c r="B108" s="35"/>
       <c r="C108" s="33"/>
@@ -6510,7 +6510,7 @@
       <c r="BK108" s="17"/>
       <c r="BL108" s="17"/>
     </row>
-    <row r="109" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:64">
       <c r="A109" s="33"/>
       <c r="B109" s="35"/>
       <c r="C109" s="33"/>
@@ -6576,7 +6576,7 @@
       <c r="BK109" s="17"/>
       <c r="BL109" s="17"/>
     </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:64">
       <c r="A110" s="33"/>
       <c r="B110" s="35"/>
       <c r="C110" s="33"/>
@@ -6642,7 +6642,7 @@
       <c r="BK110" s="17"/>
       <c r="BL110" s="17"/>
     </row>
-    <row r="111" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:64">
       <c r="A111" s="14"/>
       <c r="B111" s="36"/>
       <c r="C111" s="14"/>
@@ -6708,7 +6708,7 @@
       <c r="BK111" s="17"/>
       <c r="BL111" s="17"/>
     </row>
-    <row r="112" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:64">
       <c r="A112" s="14"/>
       <c r="B112" s="36"/>
       <c r="C112" s="14"/>
@@ -6774,7 +6774,7 @@
       <c r="BK112" s="17"/>
       <c r="BL112" s="17"/>
     </row>
-    <row r="113" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:64">
       <c r="A113" s="5"/>
       <c r="B113" s="36"/>
       <c r="C113" s="14"/>
@@ -6839,7 +6839,7 @@
       <c r="BK113" s="17"/>
       <c r="BL113" s="17"/>
     </row>
-    <row r="114" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:64">
       <c r="A114" s="5"/>
       <c r="B114" s="36"/>
       <c r="C114" s="14"/>
@@ -6904,7 +6904,7 @@
       <c r="BK114" s="17"/>
       <c r="BL114" s="17"/>
     </row>
-    <row r="115" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:64">
       <c r="A115" s="5"/>
       <c r="B115" s="36"/>
       <c r="C115" s="14"/>
@@ -6969,7 +6969,7 @@
       <c r="BK115" s="17"/>
       <c r="BL115" s="17"/>
     </row>
-    <row r="116" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:64">
       <c r="A116" s="5"/>
       <c r="B116" s="36"/>
       <c r="C116" s="14"/>
@@ -7034,7 +7034,7 @@
       <c r="BK116" s="17"/>
       <c r="BL116" s="17"/>
     </row>
-    <row r="117" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:64">
       <c r="A117" s="5"/>
       <c r="B117" s="36"/>
       <c r="C117" s="14"/>
@@ -7099,7 +7099,7 @@
       <c r="BK117" s="17"/>
       <c r="BL117" s="17"/>
     </row>
-    <row r="118" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:64">
       <c r="A118" s="5"/>
       <c r="B118" s="36"/>
       <c r="C118" s="14"/>
@@ -7164,7 +7164,7 @@
       <c r="BK118" s="17"/>
       <c r="BL118" s="17"/>
     </row>
-    <row r="119" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:64">
       <c r="A119" s="5"/>
       <c r="B119" s="36"/>
       <c r="C119" s="14"/>
@@ -7229,7 +7229,7 @@
       <c r="BK119" s="17"/>
       <c r="BL119" s="17"/>
     </row>
-    <row r="120" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:64">
       <c r="A120" s="5"/>
       <c r="B120" s="36"/>
       <c r="C120" s="14"/>
@@ -7294,7 +7294,7 @@
       <c r="BK120" s="17"/>
       <c r="BL120" s="17"/>
     </row>
-    <row r="121" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:64">
       <c r="A121" s="5"/>
       <c r="B121" s="36"/>
       <c r="C121" s="14"/>
@@ -7359,7 +7359,7 @@
       <c r="BK121" s="17"/>
       <c r="BL121" s="17"/>
     </row>
-    <row r="122" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:64">
       <c r="A122" s="5"/>
       <c r="B122" s="36"/>
       <c r="C122" s="14"/>
@@ -7424,7 +7424,7 @@
       <c r="BK122" s="17"/>
       <c r="BL122" s="17"/>
     </row>
-    <row r="123" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:64">
       <c r="A123" s="5"/>
       <c r="B123" s="36"/>
       <c r="C123" s="14"/>
@@ -7489,7 +7489,7 @@
       <c r="BK123" s="17"/>
       <c r="BL123" s="17"/>
     </row>
-    <row r="124" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:64">
       <c r="A124" s="5"/>
       <c r="B124" s="36"/>
       <c r="C124" s="14"/>
@@ -7554,7 +7554,7 @@
       <c r="BK124" s="17"/>
       <c r="BL124" s="17"/>
     </row>
-    <row r="125" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:64">
       <c r="A125" s="5"/>
       <c r="B125" s="36"/>
       <c r="C125" s="14"/>
@@ -7619,7 +7619,7 @@
       <c r="BK125" s="17"/>
       <c r="BL125" s="17"/>
     </row>
-    <row r="126" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:64">
       <c r="A126" s="5"/>
       <c r="B126" s="36"/>
       <c r="C126" s="14"/>
@@ -7684,7 +7684,7 @@
       <c r="BK126" s="17"/>
       <c r="BL126" s="17"/>
     </row>
-    <row r="127" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:64">
       <c r="A127" s="5"/>
       <c r="B127" s="36"/>
       <c r="C127" s="14"/>
@@ -7749,7 +7749,7 @@
       <c r="BK127" s="17"/>
       <c r="BL127" s="17"/>
     </row>
-    <row r="128" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:64">
       <c r="A128" s="5"/>
       <c r="B128" s="36"/>
       <c r="C128" s="14"/>
@@ -7814,7 +7814,7 @@
       <c r="BK128" s="17"/>
       <c r="BL128" s="17"/>
     </row>
-    <row r="129" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:64">
       <c r="A129" s="5"/>
       <c r="B129" s="36"/>
       <c r="C129" s="14"/>
@@ -7879,7 +7879,7 @@
       <c r="BK129" s="17"/>
       <c r="BL129" s="17"/>
     </row>
-    <row r="130" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:64">
       <c r="A130" s="5"/>
       <c r="B130" s="36"/>
       <c r="C130" s="14"/>
@@ -7944,7 +7944,7 @@
       <c r="BK130" s="17"/>
       <c r="BL130" s="17"/>
     </row>
-    <row r="131" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:64">
       <c r="A131" s="5"/>
       <c r="B131" s="36"/>
       <c r="C131" s="14"/>
@@ -8009,7 +8009,7 @@
       <c r="BK131" s="17"/>
       <c r="BL131" s="17"/>
     </row>
-    <row r="132" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:64">
       <c r="A132" s="5"/>
       <c r="B132" s="36"/>
       <c r="C132" s="14"/>
@@ -8074,7 +8074,7 @@
       <c r="BK132" s="17"/>
       <c r="BL132" s="17"/>
     </row>
-    <row r="133" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:64">
       <c r="A133" s="5"/>
       <c r="B133" s="36"/>
       <c r="C133" s="14"/>
@@ -8139,7 +8139,7 @@
       <c r="BK133" s="17"/>
       <c r="BL133" s="17"/>
     </row>
-    <row r="134" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:64">
       <c r="A134" s="5"/>
       <c r="B134" s="36"/>
       <c r="C134" s="14"/>
@@ -8204,7 +8204,7 @@
       <c r="BK134" s="17"/>
       <c r="BL134" s="17"/>
     </row>
-    <row r="135" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:64">
       <c r="A135" s="5"/>
       <c r="B135" s="36"/>
       <c r="C135" s="14"/>
@@ -8269,7 +8269,7 @@
       <c r="BK135" s="17"/>
       <c r="BL135" s="17"/>
     </row>
-    <row r="136" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:64">
       <c r="A136" s="5"/>
       <c r="B136" s="36"/>
       <c r="C136" s="14"/>
@@ -8334,7 +8334,7 @@
       <c r="BK136" s="17"/>
       <c r="BL136" s="17"/>
     </row>
-    <row r="137" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:64">
       <c r="A137" s="5"/>
       <c r="B137" s="36"/>
       <c r="C137" s="14"/>
@@ -8399,7 +8399,7 @@
       <c r="BK137" s="17"/>
       <c r="BL137" s="17"/>
     </row>
-    <row r="138" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:64">
       <c r="A138" s="5"/>
       <c r="B138" s="36"/>
       <c r="C138" s="14"/>
@@ -8464,7 +8464,7 @@
       <c r="BK138" s="17"/>
       <c r="BL138" s="17"/>
     </row>
-    <row r="139" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:64">
       <c r="A139" s="5"/>
       <c r="B139" s="36"/>
       <c r="C139" s="14"/>
@@ -8529,7 +8529,7 @@
       <c r="BK139" s="17"/>
       <c r="BL139" s="17"/>
     </row>
-    <row r="140" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:64">
       <c r="A140" s="5"/>
       <c r="B140" s="36"/>
       <c r="C140" s="14"/>
@@ -8594,7 +8594,7 @@
       <c r="BK140" s="17"/>
       <c r="BL140" s="17"/>
     </row>
-    <row r="141" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:64">
       <c r="A141" s="5"/>
       <c r="B141" s="36"/>
       <c r="C141" s="14"/>
@@ -8659,7 +8659,7 @@
       <c r="BK141" s="17"/>
       <c r="BL141" s="17"/>
     </row>
-    <row r="142" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:64">
       <c r="A142" s="5"/>
       <c r="B142" s="36"/>
       <c r="C142" s="14"/>
@@ -8724,7 +8724,7 @@
       <c r="BK142" s="17"/>
       <c r="BL142" s="17"/>
     </row>
-    <row r="143" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:64">
       <c r="A143" s="5"/>
       <c r="B143" s="36"/>
       <c r="C143" s="14"/>
@@ -8789,7 +8789,7 @@
       <c r="BK143" s="17"/>
       <c r="BL143" s="17"/>
     </row>
-    <row r="144" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:64">
       <c r="A144" s="5"/>
       <c r="B144" s="36"/>
       <c r="C144" s="14"/>
@@ -8854,7 +8854,7 @@
       <c r="BK144" s="17"/>
       <c r="BL144" s="17"/>
     </row>
-    <row r="145" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:64">
       <c r="A145" s="5"/>
       <c r="B145" s="36"/>
       <c r="C145" s="14"/>
@@ -8919,7 +8919,7 @@
       <c r="BK145" s="17"/>
       <c r="BL145" s="17"/>
     </row>
-    <row r="146" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:64">
       <c r="A146" s="5"/>
       <c r="B146" s="36"/>
       <c r="C146" s="14"/>
@@ -8984,7 +8984,7 @@
       <c r="BK146" s="17"/>
       <c r="BL146" s="17"/>
     </row>
-    <row r="147" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:64">
       <c r="A147" s="5"/>
       <c r="B147" s="36"/>
       <c r="C147" s="14"/>
@@ -9049,7 +9049,7 @@
       <c r="BK147" s="17"/>
       <c r="BL147" s="17"/>
     </row>
-    <row r="148" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:64">
       <c r="A148" s="5"/>
       <c r="B148" s="36"/>
       <c r="C148" s="14"/>
@@ -9114,7 +9114,7 @@
       <c r="BK148" s="17"/>
       <c r="BL148" s="17"/>
     </row>
-    <row r="149" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:64">
       <c r="A149" s="5"/>
       <c r="B149" s="36"/>
       <c r="C149" s="14"/>
@@ -9179,7 +9179,7 @@
       <c r="BK149" s="17"/>
       <c r="BL149" s="17"/>
     </row>
-    <row r="150" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:64">
       <c r="A150" s="5"/>
       <c r="B150" s="36"/>
       <c r="C150" s="14"/>
@@ -9244,7 +9244,7 @@
       <c r="BK150" s="17"/>
       <c r="BL150" s="17"/>
     </row>
-    <row r="151" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:64">
       <c r="A151" s="5"/>
       <c r="B151" s="36"/>
       <c r="C151" s="14"/>
@@ -9309,7 +9309,7 @@
       <c r="BK151" s="17"/>
       <c r="BL151" s="17"/>
     </row>
-    <row r="152" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:64">
       <c r="A152" s="5"/>
       <c r="B152" s="36"/>
       <c r="C152" s="14"/>
@@ -9374,7 +9374,7 @@
       <c r="BK152" s="17"/>
       <c r="BL152" s="17"/>
     </row>
-    <row r="153" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:64">
       <c r="A153" s="5"/>
       <c r="B153" s="36"/>
       <c r="C153" s="14"/>
@@ -9439,7 +9439,7 @@
       <c r="BK153" s="17"/>
       <c r="BL153" s="17"/>
     </row>
-    <row r="154" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:64">
       <c r="A154" s="5"/>
       <c r="B154" s="36"/>
       <c r="C154" s="14"/>
@@ -9504,7 +9504,7 @@
       <c r="BK154" s="17"/>
       <c r="BL154" s="17"/>
     </row>
-    <row r="155" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:64">
       <c r="A155" s="5"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -9569,7 +9569,7 @@
       <c r="BK155" s="17"/>
       <c r="BL155" s="17"/>
     </row>
-    <row r="156" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:64">
       <c r="A156" s="5"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -9634,7 +9634,7 @@
       <c r="BK156" s="17"/>
       <c r="BL156" s="17"/>
     </row>
-    <row r="157" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:64">
       <c r="A157" s="5"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -9699,7 +9699,7 @@
       <c r="BK157" s="17"/>
       <c r="BL157" s="17"/>
     </row>
-    <row r="158" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:64">
       <c r="A158" s="5"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -9764,7 +9764,7 @@
       <c r="BK158" s="17"/>
       <c r="BL158" s="17"/>
     </row>
-    <row r="159" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:64">
       <c r="A159" s="5"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -9829,7 +9829,7 @@
       <c r="BK159" s="17"/>
       <c r="BL159" s="17"/>
     </row>
-    <row r="160" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:64">
       <c r="A160" s="5"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -9894,7 +9894,7 @@
       <c r="BK160" s="17"/>
       <c r="BL160" s="17"/>
     </row>
-    <row r="161" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:64">
       <c r="A161" s="17"/>
       <c r="B161" s="37"/>
       <c r="C161" s="37"/>
@@ -9959,7 +9959,7 @@
       <c r="BK161" s="17"/>
       <c r="BL161" s="17"/>
     </row>
-    <row r="162" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:64">
       <c r="A162" s="17"/>
       <c r="B162" s="37"/>
       <c r="C162" s="37"/>
@@ -10024,7 +10024,7 @@
       <c r="BK162" s="17"/>
       <c r="BL162" s="17"/>
     </row>
-    <row r="163" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:64">
       <c r="A163" s="17"/>
       <c r="B163" s="37"/>
       <c r="C163" s="37"/>
@@ -10089,7 +10089,7 @@
       <c r="BK163" s="17"/>
       <c r="BL163" s="17"/>
     </row>
-    <row r="164" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:64">
       <c r="A164" s="17"/>
       <c r="B164" s="37"/>
       <c r="C164" s="37"/>
@@ -10154,7 +10154,7 @@
       <c r="BK164" s="17"/>
       <c r="BL164" s="17"/>
     </row>
-    <row r="165" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:64">
       <c r="A165" s="17"/>
       <c r="B165" s="37"/>
       <c r="C165" s="37"/>
@@ -10219,7 +10219,7 @@
       <c r="BK165" s="17"/>
       <c r="BL165" s="17"/>
     </row>
-    <row r="166" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:64">
       <c r="A166" s="17"/>
       <c r="B166" s="37"/>
       <c r="C166" s="37"/>
@@ -10284,7 +10284,7 @@
       <c r="BK166" s="17"/>
       <c r="BL166" s="17"/>
     </row>
-    <row r="167" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:64">
       <c r="A167" s="17"/>
       <c r="B167" s="37"/>
       <c r="C167" s="37"/>
@@ -10349,7 +10349,7 @@
       <c r="BK167" s="17"/>
       <c r="BL167" s="17"/>
     </row>
-    <row r="168" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:64">
       <c r="A168" s="17"/>
       <c r="B168" s="37"/>
       <c r="C168" s="37"/>
@@ -10414,7 +10414,7 @@
       <c r="BK168" s="17"/>
       <c r="BL168" s="17"/>
     </row>
-    <row r="169" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:64">
       <c r="A169" s="17"/>
       <c r="B169" s="37"/>
       <c r="C169" s="37"/>
@@ -10479,7 +10479,7 @@
       <c r="BK169" s="17"/>
       <c r="BL169" s="17"/>
     </row>
-    <row r="170" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:64">
       <c r="A170" s="17"/>
       <c r="B170" s="37"/>
       <c r="C170" s="37"/>
@@ -10544,7 +10544,7 @@
       <c r="BK170" s="17"/>
       <c r="BL170" s="17"/>
     </row>
-    <row r="171" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:64">
       <c r="A171" s="17"/>
       <c r="B171" s="37"/>
       <c r="C171" s="37"/>
@@ -10609,7 +10609,7 @@
       <c r="BK171" s="17"/>
       <c r="BL171" s="17"/>
     </row>
-    <row r="172" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:64">
       <c r="A172" s="17"/>
       <c r="B172" s="37"/>
       <c r="C172" s="37"/>
@@ -10674,7 +10674,7 @@
       <c r="BK172" s="17"/>
       <c r="BL172" s="17"/>
     </row>
-    <row r="173" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:64">
       <c r="A173" s="17"/>
       <c r="B173" s="37"/>
       <c r="C173" s="37"/>
@@ -10739,7 +10739,7 @@
       <c r="BK173" s="17"/>
       <c r="BL173" s="17"/>
     </row>
-    <row r="174" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:64">
       <c r="A174" s="17"/>
       <c r="B174" s="37"/>
       <c r="C174" s="37"/>
@@ -10804,7 +10804,7 @@
       <c r="BK174" s="17"/>
       <c r="BL174" s="17"/>
     </row>
-    <row r="175" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:64">
       <c r="A175" s="17"/>
       <c r="B175" s="37"/>
       <c r="C175" s="37"/>
@@ -10869,7 +10869,7 @@
       <c r="BK175" s="17"/>
       <c r="BL175" s="17"/>
     </row>
-    <row r="176" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:64">
       <c r="A176" s="17"/>
       <c r="B176" s="37"/>
       <c r="C176" s="37"/>
@@ -10934,7 +10934,7 @@
       <c r="BK176" s="17"/>
       <c r="BL176" s="17"/>
     </row>
-    <row r="177" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:64">
       <c r="A177" s="17"/>
       <c r="B177" s="37"/>
       <c r="C177" s="37"/>
@@ -10999,7 +10999,7 @@
       <c r="BK177" s="17"/>
       <c r="BL177" s="17"/>
     </row>
-    <row r="178" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:64">
       <c r="A178" s="17"/>
       <c r="B178" s="37"/>
       <c r="C178" s="37"/>
@@ -11064,7 +11064,7 @@
       <c r="BK178" s="17"/>
       <c r="BL178" s="17"/>
     </row>
-    <row r="179" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:64">
       <c r="A179" s="17"/>
       <c r="B179" s="37"/>
       <c r="C179" s="37"/>
@@ -11129,7 +11129,7 @@
       <c r="BK179" s="17"/>
       <c r="BL179" s="17"/>
     </row>
-    <row r="180" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:64">
       <c r="A180" s="17"/>
       <c r="B180" s="37"/>
       <c r="C180" s="37"/>
@@ -11194,7 +11194,7 @@
       <c r="BK180" s="17"/>
       <c r="BL180" s="17"/>
     </row>
-    <row r="181" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:64">
       <c r="A181" s="17"/>
       <c r="B181" s="37"/>
       <c r="C181" s="37"/>
@@ -11259,7 +11259,7 @@
       <c r="BK181" s="17"/>
       <c r="BL181" s="17"/>
     </row>
-    <row r="182" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:64">
       <c r="A182" s="17"/>
       <c r="B182" s="37"/>
       <c r="C182" s="37"/>
@@ -11324,7 +11324,7 @@
       <c r="BK182" s="17"/>
       <c r="BL182" s="17"/>
     </row>
-    <row r="183" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:64">
       <c r="A183" s="17"/>
       <c r="B183" s="37"/>
       <c r="C183" s="37"/>
@@ -11389,7 +11389,7 @@
       <c r="BK183" s="17"/>
       <c r="BL183" s="17"/>
     </row>
-    <row r="184" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:64">
       <c r="A184" s="17"/>
       <c r="B184" s="37"/>
       <c r="C184" s="37"/>
@@ -11454,7 +11454,7 @@
       <c r="BK184" s="17"/>
       <c r="BL184" s="17"/>
     </row>
-    <row r="185" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:64">
       <c r="A185" s="17"/>
       <c r="B185" s="37"/>
       <c r="C185" s="37"/>
@@ -11519,7 +11519,7 @@
       <c r="BK185" s="17"/>
       <c r="BL185" s="17"/>
     </row>
-    <row r="186" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:64">
       <c r="A186" s="17"/>
       <c r="B186" s="37"/>
       <c r="C186" s="37"/>
@@ -11584,7 +11584,7 @@
       <c r="BK186" s="17"/>
       <c r="BL186" s="17"/>
     </row>
-    <row r="187" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:64">
       <c r="A187" s="17"/>
       <c r="B187" s="37"/>
       <c r="C187" s="37"/>
@@ -11649,7 +11649,7 @@
       <c r="BK187" s="17"/>
       <c r="BL187" s="17"/>
     </row>
-    <row r="188" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:64">
       <c r="A188" s="17"/>
       <c r="B188" s="37"/>
       <c r="C188" s="37"/>
@@ -11714,7 +11714,7 @@
       <c r="BK188" s="17"/>
       <c r="BL188" s="17"/>
     </row>
-    <row r="189" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:64">
       <c r="A189" s="17"/>
       <c r="B189" s="37"/>
       <c r="C189" s="37"/>
@@ -11779,7 +11779,7 @@
       <c r="BK189" s="17"/>
       <c r="BL189" s="17"/>
     </row>
-    <row r="190" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:64">
       <c r="A190" s="17"/>
       <c r="B190" s="37"/>
       <c r="C190" s="37"/>
@@ -11844,7 +11844,7 @@
       <c r="BK190" s="17"/>
       <c r="BL190" s="17"/>
     </row>
-    <row r="191" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:64">
       <c r="A191" s="17"/>
       <c r="B191" s="37"/>
       <c r="C191" s="37"/>
@@ -11909,7 +11909,7 @@
       <c r="BK191" s="17"/>
       <c r="BL191" s="17"/>
     </row>
-    <row r="192" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:64">
       <c r="A192" s="17"/>
       <c r="B192" s="37"/>
       <c r="C192" s="37"/>
@@ -11974,7 +11974,7 @@
       <c r="BK192" s="17"/>
       <c r="BL192" s="17"/>
     </row>
-    <row r="193" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:64">
       <c r="A193" s="17"/>
       <c r="B193" s="37"/>
       <c r="C193" s="37"/>
@@ -12039,7 +12039,7 @@
       <c r="BK193" s="17"/>
       <c r="BL193" s="17"/>
     </row>
-    <row r="194" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:64">
       <c r="A194" s="17"/>
       <c r="B194" s="37"/>
       <c r="C194" s="37"/>
@@ -12104,7 +12104,7 @@
       <c r="BK194" s="17"/>
       <c r="BL194" s="17"/>
     </row>
-    <row r="195" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:64">
       <c r="A195" s="17"/>
       <c r="B195" s="37"/>
       <c r="C195" s="37"/>
@@ -12169,7 +12169,7 @@
       <c r="BK195" s="17"/>
       <c r="BL195" s="17"/>
     </row>
-    <row r="196" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:64">
       <c r="A196" s="17"/>
       <c r="B196" s="37"/>
       <c r="C196" s="37"/>
@@ -12234,7 +12234,7 @@
       <c r="BK196" s="17"/>
       <c r="BL196" s="17"/>
     </row>
-    <row r="197" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:64">
       <c r="A197" s="17"/>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
@@ -12299,7 +12299,7 @@
       <c r="BK197" s="17"/>
       <c r="BL197" s="17"/>
     </row>
-    <row r="198" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:64">
       <c r="A198" s="17"/>
       <c r="B198" s="37"/>
       <c r="C198" s="37"/>
@@ -12364,7 +12364,7 @@
       <c r="BK198" s="17"/>
       <c r="BL198" s="17"/>
     </row>
-    <row r="199" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:64">
       <c r="A199" s="17"/>
       <c r="B199" s="37"/>
       <c r="C199" s="37"/>
@@ -12429,7 +12429,7 @@
       <c r="BK199" s="17"/>
       <c r="BL199" s="17"/>
     </row>
-    <row r="200" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:64">
       <c r="A200" s="17"/>
       <c r="B200" s="37"/>
       <c r="C200" s="37"/>
@@ -12494,7 +12494,7 @@
       <c r="BK200" s="17"/>
       <c r="BL200" s="17"/>
     </row>
-    <row r="201" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:64">
       <c r="A201" s="17"/>
       <c r="B201" s="37"/>
       <c r="C201" s="37"/>
@@ -12559,7 +12559,7 @@
       <c r="BK201" s="17"/>
       <c r="BL201" s="17"/>
     </row>
-    <row r="202" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:64">
       <c r="A202" s="17"/>
       <c r="B202" s="37"/>
       <c r="C202" s="37"/>
@@ -12624,7 +12624,7 @@
       <c r="BK202" s="17"/>
       <c r="BL202" s="17"/>
     </row>
-    <row r="203" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:64">
       <c r="A203" s="17"/>
       <c r="B203" s="37"/>
       <c r="C203" s="37"/>
@@ -12689,7 +12689,7 @@
       <c r="BK203" s="17"/>
       <c r="BL203" s="17"/>
     </row>
-    <row r="204" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:64">
       <c r="A204" s="17"/>
       <c r="B204" s="37"/>
       <c r="C204" s="37"/>
@@ -12754,7 +12754,7 @@
       <c r="BK204" s="17"/>
       <c r="BL204" s="17"/>
     </row>
-    <row r="205" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:64">
       <c r="A205" s="17"/>
       <c r="B205" s="37"/>
       <c r="C205" s="37"/>
@@ -12819,7 +12819,7 @@
       <c r="BK205" s="17"/>
       <c r="BL205" s="17"/>
     </row>
-    <row r="206" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:64">
       <c r="A206" s="17"/>
       <c r="B206" s="37"/>
       <c r="C206" s="37"/>
@@ -12884,7 +12884,7 @@
       <c r="BK206" s="17"/>
       <c r="BL206" s="17"/>
     </row>
-    <row r="207" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:64">
       <c r="A207" s="17"/>
       <c r="B207" s="37"/>
       <c r="C207" s="37"/>
@@ -12949,7 +12949,7 @@
       <c r="BK207" s="17"/>
       <c r="BL207" s="17"/>
     </row>
-    <row r="208" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:64">
       <c r="A208" s="17"/>
       <c r="B208" s="37"/>
       <c r="C208" s="37"/>
@@ -13014,7 +13014,7 @@
       <c r="BK208" s="17"/>
       <c r="BL208" s="17"/>
     </row>
-    <row r="209" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:64">
       <c r="A209" s="17"/>
       <c r="B209" s="37"/>
       <c r="C209" s="37"/>
@@ -13079,7 +13079,7 @@
       <c r="BK209" s="17"/>
       <c r="BL209" s="17"/>
     </row>
-    <row r="210" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:64">
       <c r="A210" s="17"/>
       <c r="B210" s="37"/>
       <c r="C210" s="37"/>
@@ -13144,7 +13144,7 @@
       <c r="BK210" s="17"/>
       <c r="BL210" s="17"/>
     </row>
-    <row r="211" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:64">
       <c r="A211" s="17"/>
       <c r="B211" s="37"/>
       <c r="C211" s="37"/>
@@ -13209,7 +13209,7 @@
       <c r="BK211" s="17"/>
       <c r="BL211" s="17"/>
     </row>
-    <row r="212" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:64">
       <c r="A212" s="17"/>
       <c r="B212" s="37"/>
       <c r="C212" s="37"/>
@@ -13274,7 +13274,7 @@
       <c r="BK212" s="17"/>
       <c r="BL212" s="17"/>
     </row>
-    <row r="213" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:64">
       <c r="A213" s="17"/>
       <c r="B213" s="37"/>
       <c r="C213" s="37"/>
@@ -13339,7 +13339,7 @@
       <c r="BK213" s="17"/>
       <c r="BL213" s="17"/>
     </row>
-    <row r="214" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:64">
       <c r="A214" s="17"/>
       <c r="B214" s="37"/>
       <c r="C214" s="37"/>
@@ -13404,7 +13404,7 @@
       <c r="BK214" s="17"/>
       <c r="BL214" s="17"/>
     </row>
-    <row r="215" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:64">
       <c r="A215" s="17"/>
       <c r="B215" s="37"/>
       <c r="C215" s="37"/>
@@ -13469,7 +13469,7 @@
       <c r="BK215" s="17"/>
       <c r="BL215" s="17"/>
     </row>
-    <row r="216" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:64">
       <c r="A216" s="17"/>
       <c r="B216" s="37"/>
       <c r="C216" s="37"/>
@@ -13534,7 +13534,7 @@
       <c r="BK216" s="17"/>
       <c r="BL216" s="17"/>
     </row>
-    <row r="217" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:64">
       <c r="A217" s="17"/>
       <c r="B217" s="37"/>
       <c r="C217" s="37"/>
@@ -13599,7 +13599,7 @@
       <c r="BK217" s="17"/>
       <c r="BL217" s="17"/>
     </row>
-    <row r="218" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:64">
       <c r="A218" s="17"/>
       <c r="B218" s="37"/>
       <c r="C218" s="37"/>
@@ -13664,7 +13664,7 @@
       <c r="BK218" s="17"/>
       <c r="BL218" s="17"/>
     </row>
-    <row r="219" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:64">
       <c r="A219" s="17"/>
       <c r="B219" s="37"/>
       <c r="C219" s="37"/>
@@ -13729,7 +13729,7 @@
       <c r="BK219" s="17"/>
       <c r="BL219" s="17"/>
     </row>
-    <row r="220" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:64">
       <c r="A220" s="17"/>
       <c r="B220" s="37"/>
       <c r="C220" s="37"/>
@@ -13794,7 +13794,7 @@
       <c r="BK220" s="17"/>
       <c r="BL220" s="17"/>
     </row>
-    <row r="221" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:64">
       <c r="A221" s="17"/>
       <c r="B221" s="37"/>
       <c r="C221" s="37"/>
@@ -13859,7 +13859,7 @@
       <c r="BK221" s="17"/>
       <c r="BL221" s="17"/>
     </row>
-    <row r="222" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:64">
       <c r="A222" s="17"/>
       <c r="B222" s="37"/>
       <c r="C222" s="37"/>
@@ -13924,7 +13924,7 @@
       <c r="BK222" s="17"/>
       <c r="BL222" s="17"/>
     </row>
-    <row r="223" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:64">
       <c r="A223" s="17"/>
       <c r="B223" s="37"/>
       <c r="C223" s="37"/>
@@ -13989,7 +13989,7 @@
       <c r="BK223" s="17"/>
       <c r="BL223" s="17"/>
     </row>
-    <row r="224" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:64">
       <c r="A224" s="17"/>
       <c r="B224" s="37"/>
       <c r="C224" s="37"/>
@@ -14054,7 +14054,7 @@
       <c r="BK224" s="17"/>
       <c r="BL224" s="17"/>
     </row>
-    <row r="225" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:64">
       <c r="A225" s="17"/>
       <c r="B225" s="37"/>
       <c r="C225" s="37"/>
@@ -14119,7 +14119,7 @@
       <c r="BK225" s="17"/>
       <c r="BL225" s="17"/>
     </row>
-    <row r="226" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:64">
       <c r="A226" s="17"/>
       <c r="B226" s="37"/>
       <c r="C226" s="37"/>
@@ -14184,7 +14184,7 @@
       <c r="BK226" s="17"/>
       <c r="BL226" s="17"/>
     </row>
-    <row r="227" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:64">
       <c r="A227" s="17"/>
       <c r="B227" s="37"/>
       <c r="C227" s="37"/>
@@ -14249,7 +14249,7 @@
       <c r="BK227" s="17"/>
       <c r="BL227" s="17"/>
     </row>
-    <row r="228" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:64">
       <c r="A228" s="17"/>
       <c r="B228" s="37"/>
       <c r="C228" s="37"/>
@@ -14314,7 +14314,7 @@
       <c r="BK228" s="17"/>
       <c r="BL228" s="17"/>
     </row>
-    <row r="229" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:64">
       <c r="A229" s="17"/>
       <c r="B229" s="37"/>
       <c r="C229" s="37"/>
@@ -14379,7 +14379,7 @@
       <c r="BK229" s="17"/>
       <c r="BL229" s="17"/>
     </row>
-    <row r="230" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:64">
       <c r="A230" s="17"/>
       <c r="B230" s="37"/>
       <c r="C230" s="37"/>
@@ -14444,7 +14444,7 @@
       <c r="BK230" s="17"/>
       <c r="BL230" s="17"/>
     </row>
-    <row r="231" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:64">
       <c r="A231" s="17"/>
       <c r="B231" s="37"/>
       <c r="C231" s="37"/>
@@ -14509,7 +14509,7 @@
       <c r="BK231" s="17"/>
       <c r="BL231" s="17"/>
     </row>
-    <row r="232" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:64">
       <c r="A232" s="17"/>
       <c r="B232" s="37"/>
       <c r="C232" s="37"/>
@@ -14574,7 +14574,7 @@
       <c r="BK232" s="17"/>
       <c r="BL232" s="17"/>
     </row>
-    <row r="233" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:64">
       <c r="A233" s="17"/>
       <c r="B233" s="37"/>
       <c r="C233" s="37"/>
@@ -14639,7 +14639,7 @@
       <c r="BK233" s="17"/>
       <c r="BL233" s="17"/>
     </row>
-    <row r="234" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:64">
       <c r="A234" s="17"/>
       <c r="B234" s="37"/>
       <c r="C234" s="37"/>
@@ -14704,7 +14704,7 @@
       <c r="BK234" s="17"/>
       <c r="BL234" s="17"/>
     </row>
-    <row r="235" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:64">
       <c r="A235" s="17"/>
       <c r="B235" s="37"/>
       <c r="C235" s="37"/>
@@ -14769,7 +14769,7 @@
       <c r="BK235" s="17"/>
       <c r="BL235" s="17"/>
     </row>
-    <row r="236" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:64">
       <c r="A236" s="17"/>
       <c r="B236" s="37"/>
       <c r="C236" s="37"/>
@@ -14834,7 +14834,7 @@
       <c r="BK236" s="17"/>
       <c r="BL236" s="17"/>
     </row>
-    <row r="237" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:64">
       <c r="A237" s="17"/>
       <c r="B237" s="37"/>
       <c r="C237" s="37"/>
@@ -14899,7 +14899,7 @@
       <c r="BK237" s="17"/>
       <c r="BL237" s="17"/>
     </row>
-    <row r="238" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:64">
       <c r="A238" s="17"/>
       <c r="B238" s="37"/>
       <c r="C238" s="37"/>
@@ -14964,7 +14964,7 @@
       <c r="BK238" s="17"/>
       <c r="BL238" s="17"/>
     </row>
-    <row r="239" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:64">
       <c r="A239" s="17"/>
       <c r="B239" s="37"/>
       <c r="C239" s="37"/>
@@ -15029,7 +15029,7 @@
       <c r="BK239" s="17"/>
       <c r="BL239" s="17"/>
     </row>
-    <row r="240" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:64">
       <c r="A240" s="17"/>
       <c r="B240" s="37"/>
       <c r="C240" s="37"/>
@@ -15094,7 +15094,7 @@
       <c r="BK240" s="17"/>
       <c r="BL240" s="17"/>
     </row>
-    <row r="241" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:64">
       <c r="A241" s="17"/>
       <c r="B241" s="37"/>
       <c r="C241" s="37"/>
@@ -15159,7 +15159,7 @@
       <c r="BK241" s="17"/>
       <c r="BL241" s="17"/>
     </row>
-    <row r="242" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:64">
       <c r="A242" s="17"/>
       <c r="B242" s="37"/>
       <c r="C242" s="37"/>
@@ -15224,7 +15224,7 @@
       <c r="BK242" s="17"/>
       <c r="BL242" s="17"/>
     </row>
-    <row r="243" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:64">
       <c r="A243" s="17"/>
       <c r="B243" s="37"/>
       <c r="C243" s="37"/>
@@ -15289,7 +15289,7 @@
       <c r="BK243" s="17"/>
       <c r="BL243" s="17"/>
     </row>
-    <row r="244" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:64">
       <c r="A244" s="17"/>
       <c r="B244" s="37"/>
       <c r="C244" s="37"/>
@@ -15354,7 +15354,7 @@
       <c r="BK244" s="17"/>
       <c r="BL244" s="17"/>
     </row>
-    <row r="245" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:64">
       <c r="A245" s="17"/>
       <c r="B245" s="37"/>
       <c r="C245" s="37"/>
@@ -15419,7 +15419,7 @@
       <c r="BK245" s="17"/>
       <c r="BL245" s="17"/>
     </row>
-    <row r="246" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:64">
       <c r="A246" s="17"/>
       <c r="B246" s="37"/>
       <c r="C246" s="37"/>
@@ -15484,7 +15484,7 @@
       <c r="BK246" s="17"/>
       <c r="BL246" s="17"/>
     </row>
-    <row r="247" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:64">
       <c r="A247" s="17"/>
       <c r="B247" s="37"/>
       <c r="C247" s="37"/>
@@ -15549,7 +15549,7 @@
       <c r="BK247" s="17"/>
       <c r="BL247" s="17"/>
     </row>
-    <row r="248" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:64">
       <c r="A248" s="17"/>
       <c r="B248" s="37"/>
       <c r="C248" s="37"/>
@@ -15614,7 +15614,7 @@
       <c r="BK248" s="17"/>
       <c r="BL248" s="17"/>
     </row>
-    <row r="249" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:64">
       <c r="A249" s="17"/>
       <c r="B249" s="37"/>
       <c r="C249" s="37"/>
@@ -15679,7 +15679,7 @@
       <c r="BK249" s="17"/>
       <c r="BL249" s="17"/>
     </row>
-    <row r="250" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:64">
       <c r="A250" s="17"/>
       <c r="B250" s="37"/>
       <c r="C250" s="37"/>
@@ -15744,7 +15744,7 @@
       <c r="BK250" s="17"/>
       <c r="BL250" s="17"/>
     </row>
-    <row r="251" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:64">
       <c r="A251" s="17"/>
       <c r="B251" s="37"/>
       <c r="C251" s="37"/>
@@ -15809,7 +15809,7 @@
       <c r="BK251" s="17"/>
       <c r="BL251" s="17"/>
     </row>
-    <row r="252" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:64">
       <c r="A252" s="17"/>
       <c r="B252" s="37"/>
       <c r="C252" s="37"/>
@@ -15874,7 +15874,7 @@
       <c r="BK252" s="17"/>
       <c r="BL252" s="17"/>
     </row>
-    <row r="253" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:64">
       <c r="A253" s="17"/>
       <c r="B253" s="37"/>
       <c r="C253" s="37"/>
@@ -15939,7 +15939,7 @@
       <c r="BK253" s="17"/>
       <c r="BL253" s="17"/>
     </row>
-    <row r="254" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:64">
       <c r="A254" s="17"/>
       <c r="B254" s="37"/>
       <c r="C254" s="37"/>
@@ -16004,7 +16004,7 @@
       <c r="BK254" s="17"/>
       <c r="BL254" s="17"/>
     </row>
-    <row r="255" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:64">
       <c r="A255" s="17"/>
       <c r="B255" s="37"/>
       <c r="C255" s="37"/>
@@ -16069,7 +16069,7 @@
       <c r="BK255" s="17"/>
       <c r="BL255" s="17"/>
     </row>
-    <row r="256" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:64">
       <c r="A256" s="17"/>
       <c r="B256" s="37"/>
       <c r="C256" s="37"/>
@@ -16134,7 +16134,7 @@
       <c r="BK256" s="17"/>
       <c r="BL256" s="17"/>
     </row>
-    <row r="257" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:64">
       <c r="A257" s="17"/>
       <c r="B257" s="37"/>
       <c r="C257" s="37"/>
@@ -16199,7 +16199,7 @@
       <c r="BK257" s="17"/>
       <c r="BL257" s="17"/>
     </row>
-    <row r="258" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:64">
       <c r="A258" s="17"/>
       <c r="B258" s="37"/>
       <c r="C258" s="37"/>
@@ -16264,7 +16264,7 @@
       <c r="BK258" s="17"/>
       <c r="BL258" s="17"/>
     </row>
-    <row r="259" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:64">
       <c r="A259" s="17"/>
       <c r="B259" s="37"/>
       <c r="C259" s="37"/>
@@ -16329,7 +16329,7 @@
       <c r="BK259" s="17"/>
       <c r="BL259" s="17"/>
     </row>
-    <row r="260" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:64">
       <c r="A260" s="17"/>
       <c r="B260" s="37"/>
       <c r="C260" s="37"/>
@@ -16394,7 +16394,7 @@
       <c r="BK260" s="17"/>
       <c r="BL260" s="17"/>
     </row>
-    <row r="261" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:64">
       <c r="A261" s="17"/>
       <c r="B261" s="37"/>
       <c r="C261" s="37"/>
@@ -16459,7 +16459,7 @@
       <c r="BK261" s="17"/>
       <c r="BL261" s="17"/>
     </row>
-    <row r="262" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:64">
       <c r="A262" s="17"/>
       <c r="B262" s="37"/>
       <c r="C262" s="37"/>
@@ -16524,7 +16524,7 @@
       <c r="BK262" s="17"/>
       <c r="BL262" s="17"/>
     </row>
-    <row r="263" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:64">
       <c r="A263" s="17"/>
       <c r="B263" s="37"/>
       <c r="C263" s="37"/>
@@ -16589,7 +16589,7 @@
       <c r="BK263" s="17"/>
       <c r="BL263" s="17"/>
     </row>
-    <row r="264" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:64">
       <c r="A264" s="17"/>
       <c r="B264" s="37"/>
       <c r="C264" s="37"/>
@@ -16654,7 +16654,7 @@
       <c r="BK264" s="17"/>
       <c r="BL264" s="17"/>
     </row>
-    <row r="265" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:64">
       <c r="A265" s="17"/>
       <c r="B265" s="37"/>
       <c r="C265" s="37"/>
@@ -16719,7 +16719,7 @@
       <c r="BK265" s="17"/>
       <c r="BL265" s="17"/>
     </row>
-    <row r="266" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:64">
       <c r="A266" s="17"/>
       <c r="B266" s="37"/>
       <c r="C266" s="37"/>
@@ -16784,7 +16784,7 @@
       <c r="BK266" s="17"/>
       <c r="BL266" s="17"/>
     </row>
-    <row r="267" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:64">
       <c r="A267" s="17"/>
       <c r="B267" s="37"/>
       <c r="C267" s="37"/>
@@ -16849,7 +16849,7 @@
       <c r="BK267" s="17"/>
       <c r="BL267" s="17"/>
     </row>
-    <row r="268" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:64">
       <c r="A268" s="17"/>
       <c r="B268" s="37"/>
       <c r="C268" s="37"/>
@@ -16914,7 +16914,7 @@
       <c r="BK268" s="17"/>
       <c r="BL268" s="17"/>
     </row>
-    <row r="269" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:64">
       <c r="A269" s="17"/>
       <c r="B269" s="37"/>
       <c r="C269" s="37"/>
@@ -16979,7 +16979,7 @@
       <c r="BK269" s="17"/>
       <c r="BL269" s="17"/>
     </row>
-    <row r="270" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:64">
       <c r="A270" s="17"/>
       <c r="B270" s="37"/>
       <c r="C270" s="37"/>

--- a/fuentes/contenidos/grado09/guion01/EsqueletoGuion_LE_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/EsqueletoGuion_LE_09_01_CO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9255" tabRatio="729"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18768" windowHeight="9252" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,11 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="15" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="16" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CUADERNO DE ESTUDIO'!$A$1:$BL$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RECURSOS NUEVOS'!$A$1:$C$20</definedName>
+  </definedNames>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="70">
   <si>
     <t>FICHA</t>
   </si>
@@ -181,9 +185,6 @@
     <t>Consolidación</t>
   </si>
   <si>
-    <t>Los contextos histórico, social y cultural de la época Precolombina</t>
-  </si>
-  <si>
     <t>El contexto histórico</t>
   </si>
   <si>
@@ -232,17 +233,20 @@
     <t>Competencias</t>
   </si>
   <si>
-    <t>Fin de tema</t>
+    <t>En la identidad latinoamericana están presentes la época precolombina y la condición colonial. Descubre en qué consistieron estos procesos a partir de la literatura.</t>
   </si>
   <si>
-    <t>En la identidad latinoamericana están presentes la época precolombina y la condición colonial. Descubre en qué consistieron estos procesos a partir de la literatura.</t>
+    <t>Fin de la unidad</t>
+  </si>
+  <si>
+    <t>Contextos histórico, social y cultural de la época precolombina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +308,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +340,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +844,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -812,43 +877,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -870,6 +898,99 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="401">
@@ -1277,6 +1398,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1543,7 +1669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1554,16 +1680,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="104.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="104.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1579,15 +1705,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -1627,42 +1753,42 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1676,7 +1802,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1684,7 +1810,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1692,7 +1818,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1700,16 +1826,16 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G12" s="7"/>
     </row>
   </sheetData>
@@ -1731,13 +1857,14 @@
       <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1748,7 +1875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -1759,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1">
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
@@ -1770,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1">
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1781,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1">
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
@@ -1792,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -1803,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
@@ -1814,7 +1941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
@@ -1825,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
@@ -1836,7 +1963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
@@ -1847,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>42</v>
       </c>
@@ -1858,7 +1985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
@@ -1869,7 +1996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
@@ -1880,7 +2007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
@@ -1891,7 +2018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>46</v>
       </c>
@@ -1902,7 +2029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>47</v>
       </c>
@@ -1913,7 +2040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +2051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>49</v>
       </c>
@@ -1935,7 +2062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>21</v>
       </c>
@@ -1946,7 +2073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
@@ -1957,62 +2084,62 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2039,17 +2166,18 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="92.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +2188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2071,7 +2199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2082,7 +2210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2093,8 +2221,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -2104,8 +2232,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2115,8 +2243,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -2126,7 +2254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2137,7 +2265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2148,7 +2276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2159,8 +2287,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2170,8 +2298,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="13">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2181,8 +2309,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2192,7 +2320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2203,7 +2331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2214,7 +2342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2225,8 +2353,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2236,8 +2364,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="13">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2247,8 +2375,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2258,7 +2386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2269,82 +2397,82 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36"/>
@@ -2366,26 +2494,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL270"/>
+  <dimension ref="A1:BL245"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="64.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -2414,1271 +2542,1279 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="E4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="30">
-      <c r="A3" s="23" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="E5" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="30">
-      <c r="A4" s="23" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="B11" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="23" t="s">
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+    </row>
+    <row r="12" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="B12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" ht="30">
-      <c r="A6" s="23" t="s">
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="B14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="23" t="s">
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="B15" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E15" s="48"/>
+      <c r="F15" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="23" t="s">
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24" t="s">
+      <c r="B16" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="23" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="26" t="s">
+      <c r="B27" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="23" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="26" t="s">
+      <c r="B28" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" ht="30">
-      <c r="A11" s="23" t="s">
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+    </row>
+    <row r="35" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="26" t="s">
+      <c r="B35" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="23" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+    </row>
+    <row r="36" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="26" t="s">
+      <c r="B36" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="23" t="s">
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="52"/>
+    </row>
+    <row r="37" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="26" t="s">
+      <c r="B37" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="23" t="s">
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="B38" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="23" t="s">
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+    </row>
+    <row r="39" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="B39" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="23" t="s">
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+    </row>
+    <row r="40" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="23" t="s">
+      <c r="B40" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+    </row>
+    <row r="41" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+    </row>
+    <row r="42" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+    </row>
+    <row r="43" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+    </row>
+    <row r="48" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+    </row>
+    <row r="49" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+    </row>
+    <row r="52" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="23" t="s">
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+    </row>
+    <row r="53" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="23" t="s">
+      <c r="B53" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+    </row>
+    <row r="54" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="38"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+    </row>
+    <row r="55" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="23" t="s">
+    <row r="56" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
+      <c r="B56" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E56" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="38"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" ht="30">
-      <c r="A19" s="23" t="s">
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+    </row>
+    <row r="58" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="B58" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="23" t="s">
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="18" t="s">
+    <row r="59" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="18" t="s">
+      <c r="B59" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="18" t="s">
+      <c r="B60" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="18" t="s">
+      <c r="B61" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="18" t="s">
+      <c r="B62" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="18" t="s">
+      <c r="B63" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="18" t="s">
+      <c r="B64" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:64" s="26" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="18" t="s">
+      <c r="B65" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
-      <c r="A30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" ht="30">
-      <c r="A31" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" ht="30">
-      <c r="A39" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" ht="30">
-      <c r="A40" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" ht="30">
-      <c r="A42" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" ht="30">
-      <c r="A43" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="30">
-      <c r="A44" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" ht="30">
-      <c r="A46" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" s="15"/>
-    </row>
-    <row r="47" spans="1:9" ht="30">
-      <c r="A47" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" ht="30">
-      <c r="A48" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" ht="30">
-      <c r="A49" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="30">
-      <c r="A50" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" ht="30">
-      <c r="A51" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" ht="30">
-      <c r="A53" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" spans="1:9" ht="30">
-      <c r="A54" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" ht="30">
-      <c r="A55" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:64">
-      <c r="A65" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:64">
-      <c r="A66" s="33"/>
-      <c r="B66" s="34"/>
+    <row r="66" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3741,9 +3877,9 @@
       <c r="BK66" s="17"/>
       <c r="BL66" s="17"/>
     </row>
-    <row r="67" spans="1:64">
-      <c r="A67" s="33"/>
-      <c r="B67" s="34"/>
+    <row r="67" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3806,15 +3942,16 @@
       <c r="BK67" s="17"/>
       <c r="BL67" s="17"/>
     </row>
-    <row r="68" spans="1:64">
-      <c r="A68" s="5"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+    <row r="68" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
@@ -3871,15 +4008,16 @@
       <c r="BK68" s="17"/>
       <c r="BL68" s="17"/>
     </row>
-    <row r="69" spans="1:64">
-      <c r="A69" s="5"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+    <row r="69" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
@@ -3936,16 +4074,16 @@
       <c r="BK69" s="17"/>
       <c r="BL69" s="17"/>
     </row>
-    <row r="70" spans="1:64">
-      <c r="A70" s="33"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
+    <row r="70" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
@@ -4002,16 +4140,16 @@
       <c r="BK70" s="17"/>
       <c r="BL70" s="17"/>
     </row>
-    <row r="71" spans="1:64">
-      <c r="A71" s="33"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
+    <row r="71" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
@@ -4068,16 +4206,16 @@
       <c r="BK71" s="17"/>
       <c r="BL71" s="17"/>
     </row>
-    <row r="72" spans="1:64">
-      <c r="A72" s="33"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
+    <row r="72" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
@@ -4134,16 +4272,16 @@
       <c r="BK72" s="17"/>
       <c r="BL72" s="17"/>
     </row>
-    <row r="73" spans="1:64">
-      <c r="A73" s="33"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
+    <row r="73" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
@@ -4200,16 +4338,16 @@
       <c r="BK73" s="17"/>
       <c r="BL73" s="17"/>
     </row>
-    <row r="74" spans="1:64">
-      <c r="A74" s="33"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
+    <row r="74" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
@@ -4266,16 +4404,16 @@
       <c r="BK74" s="17"/>
       <c r="BL74" s="17"/>
     </row>
-    <row r="75" spans="1:64">
-      <c r="A75" s="33"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
+    <row r="75" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
@@ -4332,16 +4470,16 @@
       <c r="BK75" s="17"/>
       <c r="BL75" s="17"/>
     </row>
-    <row r="76" spans="1:64">
-      <c r="A76" s="33"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
+    <row r="76" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
@@ -4398,16 +4536,16 @@
       <c r="BK76" s="17"/>
       <c r="BL76" s="17"/>
     </row>
-    <row r="77" spans="1:64">
-      <c r="A77" s="33"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
+    <row r="77" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A77" s="18"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
@@ -4464,16 +4602,16 @@
       <c r="BK77" s="17"/>
       <c r="BL77" s="17"/>
     </row>
-    <row r="78" spans="1:64">
-      <c r="A78" s="33"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
+    <row r="78" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A78" s="18"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
@@ -4530,16 +4668,16 @@
       <c r="BK78" s="17"/>
       <c r="BL78" s="17"/>
     </row>
-    <row r="79" spans="1:64">
-      <c r="A79" s="33"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
+    <row r="79" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A79" s="18"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
@@ -4596,16 +4734,16 @@
       <c r="BK79" s="17"/>
       <c r="BL79" s="17"/>
     </row>
-    <row r="80" spans="1:64">
-      <c r="A80" s="33"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
+    <row r="80" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A80" s="18"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
@@ -4662,16 +4800,16 @@
       <c r="BK80" s="17"/>
       <c r="BL80" s="17"/>
     </row>
-    <row r="81" spans="1:64">
-      <c r="A81" s="33"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
+    <row r="81" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A81" s="18"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
@@ -4728,16 +4866,16 @@
       <c r="BK81" s="17"/>
       <c r="BL81" s="17"/>
     </row>
-    <row r="82" spans="1:64">
-      <c r="A82" s="33"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+    <row r="82" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A82" s="18"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
@@ -4794,16 +4932,16 @@
       <c r="BK82" s="17"/>
       <c r="BL82" s="17"/>
     </row>
-    <row r="83" spans="1:64">
-      <c r="A83" s="33"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
+    <row r="83" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A83" s="18"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
@@ -4860,16 +4998,16 @@
       <c r="BK83" s="17"/>
       <c r="BL83" s="17"/>
     </row>
-    <row r="84" spans="1:64">
-      <c r="A84" s="33"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
+    <row r="84" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A84" s="18"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
       <c r="L84" s="17"/>
@@ -4926,16 +5064,16 @@
       <c r="BK84" s="17"/>
       <c r="BL84" s="17"/>
     </row>
-    <row r="85" spans="1:64">
-      <c r="A85" s="33"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
+    <row r="85" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A85" s="18"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
@@ -4992,16 +5130,16 @@
       <c r="BK85" s="17"/>
       <c r="BL85" s="17"/>
     </row>
-    <row r="86" spans="1:64">
-      <c r="A86" s="33"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
+    <row r="86" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
@@ -5058,16 +5196,16 @@
       <c r="BK86" s="17"/>
       <c r="BL86" s="17"/>
     </row>
-    <row r="87" spans="1:64">
-      <c r="A87" s="33"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
+    <row r="87" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
@@ -5124,16 +5262,15 @@
       <c r="BK87" s="17"/>
       <c r="BL87" s="17"/>
     </row>
-    <row r="88" spans="1:64">
-      <c r="A88" s="33"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
+    <row r="88" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="5"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
@@ -5190,16 +5327,15 @@
       <c r="BK88" s="17"/>
       <c r="BL88" s="17"/>
     </row>
-    <row r="89" spans="1:64">
-      <c r="A89" s="33"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
+    <row r="89" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A89" s="5"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="5"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -5256,16 +5392,15 @@
       <c r="BK89" s="17"/>
       <c r="BL89" s="17"/>
     </row>
-    <row r="90" spans="1:64">
-      <c r="A90" s="33"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
+    <row r="90" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A90" s="5"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="5"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -5322,16 +5457,15 @@
       <c r="BK90" s="17"/>
       <c r="BL90" s="17"/>
     </row>
-    <row r="91" spans="1:64">
-      <c r="A91" s="33"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
+    <row r="91" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A91" s="5"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="5"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
@@ -5388,16 +5522,15 @@
       <c r="BK91" s="17"/>
       <c r="BL91" s="17"/>
     </row>
-    <row r="92" spans="1:64">
-      <c r="A92" s="33"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
+    <row r="92" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A92" s="5"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="5"/>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17"/>
@@ -5454,16 +5587,15 @@
       <c r="BK92" s="17"/>
       <c r="BL92" s="17"/>
     </row>
-    <row r="93" spans="1:64">
-      <c r="A93" s="33"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
+    <row r="93" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A93" s="5"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="5"/>
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
       <c r="L93" s="17"/>
@@ -5520,16 +5652,15 @@
       <c r="BK93" s="17"/>
       <c r="BL93" s="17"/>
     </row>
-    <row r="94" spans="1:64">
-      <c r="A94" s="33"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
+    <row r="94" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A94" s="5"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="5"/>
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
       <c r="L94" s="17"/>
@@ -5586,16 +5717,15 @@
       <c r="BK94" s="17"/>
       <c r="BL94" s="17"/>
     </row>
-    <row r="95" spans="1:64">
-      <c r="A95" s="33"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
+    <row r="95" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A95" s="5"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="5"/>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
       <c r="L95" s="17"/>
@@ -5652,16 +5782,15 @@
       <c r="BK95" s="17"/>
       <c r="BL95" s="17"/>
     </row>
-    <row r="96" spans="1:64">
-      <c r="A96" s="33"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
+    <row r="96" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A96" s="5"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="5"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
       <c r="L96" s="17"/>
@@ -5718,16 +5847,15 @@
       <c r="BK96" s="17"/>
       <c r="BL96" s="17"/>
     </row>
-    <row r="97" spans="1:64">
-      <c r="A97" s="33"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
+    <row r="97" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="5"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
       <c r="L97" s="17"/>
@@ -5784,16 +5912,15 @@
       <c r="BK97" s="17"/>
       <c r="BL97" s="17"/>
     </row>
-    <row r="98" spans="1:64">
-      <c r="A98" s="33"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
+    <row r="98" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A98" s="5"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="5"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
@@ -5850,16 +5977,15 @@
       <c r="BK98" s="17"/>
       <c r="BL98" s="17"/>
     </row>
-    <row r="99" spans="1:64">
-      <c r="A99" s="33"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
+    <row r="99" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A99" s="5"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="5"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
@@ -5916,16 +6042,15 @@
       <c r="BK99" s="17"/>
       <c r="BL99" s="17"/>
     </row>
-    <row r="100" spans="1:64">
-      <c r="A100" s="33"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
+    <row r="100" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A100" s="5"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="5"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
@@ -5982,16 +6107,15 @@
       <c r="BK100" s="17"/>
       <c r="BL100" s="17"/>
     </row>
-    <row r="101" spans="1:64">
-      <c r="A101" s="33"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
+    <row r="101" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="5"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
@@ -6048,16 +6172,15 @@
       <c r="BK101" s="17"/>
       <c r="BL101" s="17"/>
     </row>
-    <row r="102" spans="1:64">
-      <c r="A102" s="33"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
+    <row r="102" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="5"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
       <c r="L102" s="17"/>
@@ -6114,16 +6237,15 @@
       <c r="BK102" s="17"/>
       <c r="BL102" s="17"/>
     </row>
-    <row r="103" spans="1:64">
-      <c r="A103" s="33"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
+    <row r="103" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="5"/>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17"/>
@@ -6180,16 +6302,15 @@
       <c r="BK103" s="17"/>
       <c r="BL103" s="17"/>
     </row>
-    <row r="104" spans="1:64">
-      <c r="A104" s="33"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
+    <row r="104" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="5"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
       <c r="L104" s="17"/>
@@ -6246,16 +6367,15 @@
       <c r="BK104" s="17"/>
       <c r="BL104" s="17"/>
     </row>
-    <row r="105" spans="1:64">
-      <c r="A105" s="33"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
+    <row r="105" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A105" s="5"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="5"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
       <c r="L105" s="17"/>
@@ -6312,16 +6432,15 @@
       <c r="BK105" s="17"/>
       <c r="BL105" s="17"/>
     </row>
-    <row r="106" spans="1:64">
-      <c r="A106" s="33"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
+    <row r="106" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A106" s="5"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="5"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
       <c r="L106" s="17"/>
@@ -6378,16 +6497,15 @@
       <c r="BK106" s="17"/>
       <c r="BL106" s="17"/>
     </row>
-    <row r="107" spans="1:64">
-      <c r="A107" s="33"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
+    <row r="107" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="5"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
       <c r="L107" s="17"/>
@@ -6444,16 +6562,15 @@
       <c r="BK107" s="17"/>
       <c r="BL107" s="17"/>
     </row>
-    <row r="108" spans="1:64">
-      <c r="A108" s="33"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
+    <row r="108" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="5"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
@@ -6510,16 +6627,15 @@
       <c r="BK108" s="17"/>
       <c r="BL108" s="17"/>
     </row>
-    <row r="109" spans="1:64">
-      <c r="A109" s="33"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
+    <row r="109" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="5"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
       <c r="L109" s="17"/>
@@ -6576,16 +6692,15 @@
       <c r="BK109" s="17"/>
       <c r="BL109" s="17"/>
     </row>
-    <row r="110" spans="1:64">
-      <c r="A110" s="33"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
+    <row r="110" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="5"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
       <c r="L110" s="17"/>
@@ -6642,16 +6757,15 @@
       <c r="BK110" s="17"/>
       <c r="BL110" s="17"/>
     </row>
-    <row r="111" spans="1:64">
-      <c r="A111" s="14"/>
-      <c r="B111" s="36"/>
+    <row r="111" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="5"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
@@ -6708,16 +6822,15 @@
       <c r="BK111" s="17"/>
       <c r="BL111" s="17"/>
     </row>
-    <row r="112" spans="1:64">
-      <c r="A112" s="14"/>
-      <c r="B112" s="36"/>
+    <row r="112" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="5"/>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
       <c r="L112" s="17"/>
@@ -6774,14 +6887,14 @@
       <c r="BK112" s="17"/>
       <c r="BL112" s="17"/>
     </row>
-    <row r="113" spans="1:64">
+    <row r="113" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
-      <c r="B113" s="36"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="14"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
       <c r="H113" s="5"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
@@ -6839,14 +6952,14 @@
       <c r="BK113" s="17"/>
       <c r="BL113" s="17"/>
     </row>
-    <row r="114" spans="1:64">
+    <row r="114" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
-      <c r="B114" s="36"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
       <c r="H114" s="5"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
@@ -6904,14 +7017,14 @@
       <c r="BK114" s="17"/>
       <c r="BL114" s="17"/>
     </row>
-    <row r="115" spans="1:64">
+    <row r="115" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
-      <c r="B115" s="36"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="14"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
       <c r="H115" s="5"/>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
@@ -6969,14 +7082,14 @@
       <c r="BK115" s="17"/>
       <c r="BL115" s="17"/>
     </row>
-    <row r="116" spans="1:64">
+    <row r="116" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
-      <c r="B116" s="36"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="14"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
       <c r="H116" s="5"/>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
@@ -7034,14 +7147,14 @@
       <c r="BK116" s="17"/>
       <c r="BL116" s="17"/>
     </row>
-    <row r="117" spans="1:64">
+    <row r="117" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
-      <c r="B117" s="36"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
       <c r="H117" s="5"/>
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
@@ -7099,14 +7212,14 @@
       <c r="BK117" s="17"/>
       <c r="BL117" s="17"/>
     </row>
-    <row r="118" spans="1:64">
+    <row r="118" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
-      <c r="B118" s="36"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="14"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
       <c r="H118" s="5"/>
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
@@ -7164,14 +7277,14 @@
       <c r="BK118" s="17"/>
       <c r="BL118" s="17"/>
     </row>
-    <row r="119" spans="1:64">
+    <row r="119" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
-      <c r="B119" s="36"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="14"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="36"/>
-      <c r="G119" s="36"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
       <c r="H119" s="5"/>
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
@@ -7229,14 +7342,14 @@
       <c r="BK119" s="17"/>
       <c r="BL119" s="17"/>
     </row>
-    <row r="120" spans="1:64">
+    <row r="120" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
-      <c r="B120" s="36"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="14"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
       <c r="H120" s="5"/>
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
@@ -7294,14 +7407,14 @@
       <c r="BK120" s="17"/>
       <c r="BL120" s="17"/>
     </row>
-    <row r="121" spans="1:64">
+    <row r="121" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
-      <c r="B121" s="36"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
       <c r="H121" s="5"/>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
@@ -7359,14 +7472,14 @@
       <c r="BK121" s="17"/>
       <c r="BL121" s="17"/>
     </row>
-    <row r="122" spans="1:64">
+    <row r="122" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
-      <c r="B122" s="36"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="14"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
       <c r="H122" s="5"/>
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
@@ -7424,14 +7537,14 @@
       <c r="BK122" s="17"/>
       <c r="BL122" s="17"/>
     </row>
-    <row r="123" spans="1:64">
+    <row r="123" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
-      <c r="B123" s="36"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="14"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="36"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
       <c r="H123" s="5"/>
       <c r="J123" s="17"/>
       <c r="K123" s="17"/>
@@ -7489,14 +7602,14 @@
       <c r="BK123" s="17"/>
       <c r="BL123" s="17"/>
     </row>
-    <row r="124" spans="1:64">
+    <row r="124" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
-      <c r="B124" s="36"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="14"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
       <c r="H124" s="5"/>
       <c r="J124" s="17"/>
       <c r="K124" s="17"/>
@@ -7554,14 +7667,14 @@
       <c r="BK124" s="17"/>
       <c r="BL124" s="17"/>
     </row>
-    <row r="125" spans="1:64">
+    <row r="125" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
-      <c r="B125" s="36"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="14"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
       <c r="H125" s="5"/>
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
@@ -7619,14 +7732,14 @@
       <c r="BK125" s="17"/>
       <c r="BL125" s="17"/>
     </row>
-    <row r="126" spans="1:64">
+    <row r="126" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
-      <c r="B126" s="36"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="14"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
       <c r="H126" s="5"/>
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
@@ -7684,14 +7797,14 @@
       <c r="BK126" s="17"/>
       <c r="BL126" s="17"/>
     </row>
-    <row r="127" spans="1:64">
+    <row r="127" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
-      <c r="B127" s="36"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="14"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
       <c r="H127" s="5"/>
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
@@ -7749,14 +7862,14 @@
       <c r="BK127" s="17"/>
       <c r="BL127" s="17"/>
     </row>
-    <row r="128" spans="1:64">
+    <row r="128" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
-      <c r="B128" s="36"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="14"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
       <c r="H128" s="5"/>
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
@@ -7814,14 +7927,14 @@
       <c r="BK128" s="17"/>
       <c r="BL128" s="17"/>
     </row>
-    <row r="129" spans="1:64">
+    <row r="129" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
-      <c r="B129" s="36"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="14"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
       <c r="H129" s="5"/>
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
@@ -7879,14 +7992,14 @@
       <c r="BK129" s="17"/>
       <c r="BL129" s="17"/>
     </row>
-    <row r="130" spans="1:64">
+    <row r="130" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
-      <c r="B130" s="36"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="14"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
       <c r="H130" s="5"/>
       <c r="J130" s="17"/>
       <c r="K130" s="17"/>
@@ -7944,14 +8057,14 @@
       <c r="BK130" s="17"/>
       <c r="BL130" s="17"/>
     </row>
-    <row r="131" spans="1:64">
+    <row r="131" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
-      <c r="B131" s="36"/>
+      <c r="B131" s="14"/>
       <c r="C131" s="14"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="36"/>
-      <c r="G131" s="36"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
       <c r="H131" s="5"/>
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
@@ -8009,14 +8122,14 @@
       <c r="BK131" s="17"/>
       <c r="BL131" s="17"/>
     </row>
-    <row r="132" spans="1:64">
+    <row r="132" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
-      <c r="B132" s="36"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="14"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
       <c r="H132" s="5"/>
       <c r="J132" s="17"/>
       <c r="K132" s="17"/>
@@ -8074,14 +8187,14 @@
       <c r="BK132" s="17"/>
       <c r="BL132" s="17"/>
     </row>
-    <row r="133" spans="1:64">
+    <row r="133" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
-      <c r="B133" s="36"/>
+      <c r="B133" s="14"/>
       <c r="C133" s="14"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
       <c r="H133" s="5"/>
       <c r="J133" s="17"/>
       <c r="K133" s="17"/>
@@ -8139,14 +8252,14 @@
       <c r="BK133" s="17"/>
       <c r="BL133" s="17"/>
     </row>
-    <row r="134" spans="1:64">
+    <row r="134" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
-      <c r="B134" s="36"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="14"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
       <c r="H134" s="5"/>
       <c r="J134" s="17"/>
       <c r="K134" s="17"/>
@@ -8204,14 +8317,14 @@
       <c r="BK134" s="17"/>
       <c r="BL134" s="17"/>
     </row>
-    <row r="135" spans="1:64">
+    <row r="135" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
-      <c r="B135" s="36"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="14"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
       <c r="H135" s="5"/>
       <c r="J135" s="17"/>
       <c r="K135" s="17"/>
@@ -8269,15 +8382,15 @@
       <c r="BK135" s="17"/>
       <c r="BL135" s="17"/>
     </row>
-    <row r="136" spans="1:64">
-      <c r="A136" s="5"/>
-      <c r="B136" s="36"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="5"/>
+    <row r="136" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A136" s="17"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="17"/>
       <c r="J136" s="17"/>
       <c r="K136" s="17"/>
       <c r="L136" s="17"/>
@@ -8334,15 +8447,15 @@
       <c r="BK136" s="17"/>
       <c r="BL136" s="17"/>
     </row>
-    <row r="137" spans="1:64">
-      <c r="A137" s="5"/>
-      <c r="B137" s="36"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="5"/>
+    <row r="137" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A137" s="17"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="17"/>
       <c r="J137" s="17"/>
       <c r="K137" s="17"/>
       <c r="L137" s="17"/>
@@ -8399,15 +8512,15 @@
       <c r="BK137" s="17"/>
       <c r="BL137" s="17"/>
     </row>
-    <row r="138" spans="1:64">
-      <c r="A138" s="5"/>
-      <c r="B138" s="36"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="5"/>
+    <row r="138" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A138" s="17"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="17"/>
       <c r="J138" s="17"/>
       <c r="K138" s="17"/>
       <c r="L138" s="17"/>
@@ -8464,15 +8577,15 @@
       <c r="BK138" s="17"/>
       <c r="BL138" s="17"/>
     </row>
-    <row r="139" spans="1:64">
-      <c r="A139" s="5"/>
-      <c r="B139" s="36"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="36"/>
-      <c r="G139" s="36"/>
-      <c r="H139" s="5"/>
+    <row r="139" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A139" s="17"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="17"/>
       <c r="J139" s="17"/>
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
@@ -8529,15 +8642,15 @@
       <c r="BK139" s="17"/>
       <c r="BL139" s="17"/>
     </row>
-    <row r="140" spans="1:64">
-      <c r="A140" s="5"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="5"/>
+    <row r="140" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A140" s="17"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="17"/>
       <c r="J140" s="17"/>
       <c r="K140" s="17"/>
       <c r="L140" s="17"/>
@@ -8594,15 +8707,15 @@
       <c r="BK140" s="17"/>
       <c r="BL140" s="17"/>
     </row>
-    <row r="141" spans="1:64">
-      <c r="A141" s="5"/>
-      <c r="B141" s="36"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="5"/>
+    <row r="141" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A141" s="17"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="17"/>
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17"/>
@@ -8659,15 +8772,15 @@
       <c r="BK141" s="17"/>
       <c r="BL141" s="17"/>
     </row>
-    <row r="142" spans="1:64">
-      <c r="A142" s="5"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="5"/>
+    <row r="142" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A142" s="17"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="17"/>
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17"/>
@@ -8724,15 +8837,15 @@
       <c r="BK142" s="17"/>
       <c r="BL142" s="17"/>
     </row>
-    <row r="143" spans="1:64">
-      <c r="A143" s="5"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="5"/>
+    <row r="143" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A143" s="17"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="17"/>
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17"/>
@@ -8789,15 +8902,15 @@
       <c r="BK143" s="17"/>
       <c r="BL143" s="17"/>
     </row>
-    <row r="144" spans="1:64">
-      <c r="A144" s="5"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="5"/>
+    <row r="144" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A144" s="17"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="17"/>
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
       <c r="L144" s="17"/>
@@ -8854,15 +8967,15 @@
       <c r="BK144" s="17"/>
       <c r="BL144" s="17"/>
     </row>
-    <row r="145" spans="1:64">
-      <c r="A145" s="5"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="5"/>
+    <row r="145" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A145" s="17"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="17"/>
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
       <c r="L145" s="17"/>
@@ -8919,15 +9032,15 @@
       <c r="BK145" s="17"/>
       <c r="BL145" s="17"/>
     </row>
-    <row r="146" spans="1:64">
-      <c r="A146" s="5"/>
-      <c r="B146" s="36"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="36"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="5"/>
+    <row r="146" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A146" s="17"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="17"/>
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
       <c r="L146" s="17"/>
@@ -8984,15 +9097,15 @@
       <c r="BK146" s="17"/>
       <c r="BL146" s="17"/>
     </row>
-    <row r="147" spans="1:64">
-      <c r="A147" s="5"/>
-      <c r="B147" s="36"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="5"/>
+    <row r="147" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A147" s="17"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="17"/>
       <c r="J147" s="17"/>
       <c r="K147" s="17"/>
       <c r="L147" s="17"/>
@@ -9049,15 +9162,15 @@
       <c r="BK147" s="17"/>
       <c r="BL147" s="17"/>
     </row>
-    <row r="148" spans="1:64">
-      <c r="A148" s="5"/>
-      <c r="B148" s="36"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="36"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="5"/>
+    <row r="148" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A148" s="17"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="17"/>
       <c r="J148" s="17"/>
       <c r="K148" s="17"/>
       <c r="L148" s="17"/>
@@ -9114,15 +9227,15 @@
       <c r="BK148" s="17"/>
       <c r="BL148" s="17"/>
     </row>
-    <row r="149" spans="1:64">
-      <c r="A149" s="5"/>
-      <c r="B149" s="36"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="36"/>
-      <c r="H149" s="5"/>
+    <row r="149" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A149" s="17"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="17"/>
       <c r="J149" s="17"/>
       <c r="K149" s="17"/>
       <c r="L149" s="17"/>
@@ -9179,15 +9292,15 @@
       <c r="BK149" s="17"/>
       <c r="BL149" s="17"/>
     </row>
-    <row r="150" spans="1:64">
-      <c r="A150" s="5"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="5"/>
+    <row r="150" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A150" s="17"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="17"/>
       <c r="J150" s="17"/>
       <c r="K150" s="17"/>
       <c r="L150" s="17"/>
@@ -9244,15 +9357,15 @@
       <c r="BK150" s="17"/>
       <c r="BL150" s="17"/>
     </row>
-    <row r="151" spans="1:64">
-      <c r="A151" s="5"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="36"/>
-      <c r="E151" s="36"/>
-      <c r="F151" s="36"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="5"/>
+    <row r="151" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A151" s="17"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="17"/>
       <c r="J151" s="17"/>
       <c r="K151" s="17"/>
       <c r="L151" s="17"/>
@@ -9309,15 +9422,15 @@
       <c r="BK151" s="17"/>
       <c r="BL151" s="17"/>
     </row>
-    <row r="152" spans="1:64">
-      <c r="A152" s="5"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="5"/>
+    <row r="152" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A152" s="17"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="17"/>
       <c r="J152" s="17"/>
       <c r="K152" s="17"/>
       <c r="L152" s="17"/>
@@ -9374,15 +9487,15 @@
       <c r="BK152" s="17"/>
       <c r="BL152" s="17"/>
     </row>
-    <row r="153" spans="1:64">
-      <c r="A153" s="5"/>
-      <c r="B153" s="36"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="36"/>
-      <c r="E153" s="36"/>
-      <c r="F153" s="36"/>
-      <c r="G153" s="36"/>
-      <c r="H153" s="5"/>
+    <row r="153" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A153" s="17"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="17"/>
       <c r="J153" s="17"/>
       <c r="K153" s="17"/>
       <c r="L153" s="17"/>
@@ -9439,15 +9552,15 @@
       <c r="BK153" s="17"/>
       <c r="BL153" s="17"/>
     </row>
-    <row r="154" spans="1:64">
-      <c r="A154" s="5"/>
-      <c r="B154" s="36"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="5"/>
+    <row r="154" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A154" s="17"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="17"/>
       <c r="J154" s="17"/>
       <c r="K154" s="17"/>
       <c r="L154" s="17"/>
@@ -9504,15 +9617,15 @@
       <c r="BK154" s="17"/>
       <c r="BL154" s="17"/>
     </row>
-    <row r="155" spans="1:64">
-      <c r="A155" s="5"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="36"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="5"/>
+    <row r="155" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A155" s="17"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="17"/>
       <c r="J155" s="17"/>
       <c r="K155" s="17"/>
       <c r="L155" s="17"/>
@@ -9569,15 +9682,15 @@
       <c r="BK155" s="17"/>
       <c r="BL155" s="17"/>
     </row>
-    <row r="156" spans="1:64">
-      <c r="A156" s="5"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="5"/>
+    <row r="156" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A156" s="17"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="17"/>
       <c r="J156" s="17"/>
       <c r="K156" s="17"/>
       <c r="L156" s="17"/>
@@ -9634,15 +9747,15 @@
       <c r="BK156" s="17"/>
       <c r="BL156" s="17"/>
     </row>
-    <row r="157" spans="1:64">
-      <c r="A157" s="5"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="36"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="5"/>
+    <row r="157" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A157" s="17"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="17"/>
       <c r="J157" s="17"/>
       <c r="K157" s="17"/>
       <c r="L157" s="17"/>
@@ -9699,15 +9812,15 @@
       <c r="BK157" s="17"/>
       <c r="BL157" s="17"/>
     </row>
-    <row r="158" spans="1:64">
-      <c r="A158" s="5"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="5"/>
+    <row r="158" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A158" s="17"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="17"/>
       <c r="J158" s="17"/>
       <c r="K158" s="17"/>
       <c r="L158" s="17"/>
@@ -9764,15 +9877,15 @@
       <c r="BK158" s="17"/>
       <c r="BL158" s="17"/>
     </row>
-    <row r="159" spans="1:64">
-      <c r="A159" s="5"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="36"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="5"/>
+    <row r="159" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A159" s="17"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="17"/>
       <c r="J159" s="17"/>
       <c r="K159" s="17"/>
       <c r="L159" s="17"/>
@@ -9829,15 +9942,15 @@
       <c r="BK159" s="17"/>
       <c r="BL159" s="17"/>
     </row>
-    <row r="160" spans="1:64">
-      <c r="A160" s="5"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="36"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="36"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="5"/>
+    <row r="160" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A160" s="17"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="17"/>
       <c r="J160" s="17"/>
       <c r="K160" s="17"/>
       <c r="L160" s="17"/>
@@ -9894,14 +10007,14 @@
       <c r="BK160" s="17"/>
       <c r="BL160" s="17"/>
     </row>
-    <row r="161" spans="1:64">
+    <row r="161" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="38"/>
-      <c r="E161" s="38"/>
-      <c r="F161" s="38"/>
-      <c r="G161" s="38"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
       <c r="H161" s="17"/>
       <c r="J161" s="17"/>
       <c r="K161" s="17"/>
@@ -9959,14 +10072,14 @@
       <c r="BK161" s="17"/>
       <c r="BL161" s="17"/>
     </row>
-    <row r="162" spans="1:64">
+    <row r="162" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="37"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="38"/>
-      <c r="E162" s="38"/>
-      <c r="F162" s="38"/>
-      <c r="G162" s="38"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23"/>
       <c r="H162" s="17"/>
       <c r="J162" s="17"/>
       <c r="K162" s="17"/>
@@ -10024,14 +10137,14 @@
       <c r="BK162" s="17"/>
       <c r="BL162" s="17"/>
     </row>
-    <row r="163" spans="1:64">
+    <row r="163" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
-      <c r="B163" s="37"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38"/>
-      <c r="F163" s="38"/>
-      <c r="G163" s="38"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
       <c r="H163" s="17"/>
       <c r="J163" s="17"/>
       <c r="K163" s="17"/>
@@ -10089,14 +10202,14 @@
       <c r="BK163" s="17"/>
       <c r="BL163" s="17"/>
     </row>
-    <row r="164" spans="1:64">
+    <row r="164" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="38"/>
-      <c r="E164" s="38"/>
-      <c r="F164" s="38"/>
-      <c r="G164" s="38"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
       <c r="H164" s="17"/>
       <c r="J164" s="17"/>
       <c r="K164" s="17"/>
@@ -10154,14 +10267,14 @@
       <c r="BK164" s="17"/>
       <c r="BL164" s="17"/>
     </row>
-    <row r="165" spans="1:64">
+    <row r="165" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
-      <c r="B165" s="37"/>
-      <c r="C165" s="37"/>
-      <c r="D165" s="38"/>
-      <c r="E165" s="38"/>
-      <c r="F165" s="38"/>
-      <c r="G165" s="38"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
       <c r="H165" s="17"/>
       <c r="J165" s="17"/>
       <c r="K165" s="17"/>
@@ -10219,14 +10332,14 @@
       <c r="BK165" s="17"/>
       <c r="BL165" s="17"/>
     </row>
-    <row r="166" spans="1:64">
+    <row r="166" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
-      <c r="B166" s="37"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="38"/>
-      <c r="E166" s="38"/>
-      <c r="F166" s="38"/>
-      <c r="G166" s="38"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="23"/>
       <c r="H166" s="17"/>
       <c r="J166" s="17"/>
       <c r="K166" s="17"/>
@@ -10284,14 +10397,14 @@
       <c r="BK166" s="17"/>
       <c r="BL166" s="17"/>
     </row>
-    <row r="167" spans="1:64">
+    <row r="167" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A167" s="17"/>
-      <c r="B167" s="37"/>
-      <c r="C167" s="37"/>
-      <c r="D167" s="38"/>
-      <c r="E167" s="38"/>
-      <c r="F167" s="38"/>
-      <c r="G167" s="38"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
       <c r="H167" s="17"/>
       <c r="J167" s="17"/>
       <c r="K167" s="17"/>
@@ -10349,14 +10462,14 @@
       <c r="BK167" s="17"/>
       <c r="BL167" s="17"/>
     </row>
-    <row r="168" spans="1:64">
+    <row r="168" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
-      <c r="B168" s="37"/>
-      <c r="C168" s="37"/>
-      <c r="D168" s="38"/>
-      <c r="E168" s="38"/>
-      <c r="F168" s="38"/>
-      <c r="G168" s="38"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
       <c r="H168" s="17"/>
       <c r="J168" s="17"/>
       <c r="K168" s="17"/>
@@ -10414,14 +10527,14 @@
       <c r="BK168" s="17"/>
       <c r="BL168" s="17"/>
     </row>
-    <row r="169" spans="1:64">
+    <row r="169" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="38"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
       <c r="H169" s="17"/>
       <c r="J169" s="17"/>
       <c r="K169" s="17"/>
@@ -10479,14 +10592,14 @@
       <c r="BK169" s="17"/>
       <c r="BL169" s="17"/>
     </row>
-    <row r="170" spans="1:64">
+    <row r="170" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
-      <c r="B170" s="37"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="38"/>
-      <c r="E170" s="38"/>
-      <c r="F170" s="38"/>
-      <c r="G170" s="38"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
       <c r="H170" s="17"/>
       <c r="J170" s="17"/>
       <c r="K170" s="17"/>
@@ -10544,14 +10657,14 @@
       <c r="BK170" s="17"/>
       <c r="BL170" s="17"/>
     </row>
-    <row r="171" spans="1:64">
+    <row r="171" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
-      <c r="B171" s="37"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="38"/>
-      <c r="E171" s="38"/>
-      <c r="F171" s="38"/>
-      <c r="G171" s="38"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
       <c r="H171" s="17"/>
       <c r="J171" s="17"/>
       <c r="K171" s="17"/>
@@ -10609,14 +10722,14 @@
       <c r="BK171" s="17"/>
       <c r="BL171" s="17"/>
     </row>
-    <row r="172" spans="1:64">
+    <row r="172" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
-      <c r="B172" s="37"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="38"/>
-      <c r="E172" s="38"/>
-      <c r="F172" s="38"/>
-      <c r="G172" s="38"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23"/>
       <c r="H172" s="17"/>
       <c r="J172" s="17"/>
       <c r="K172" s="17"/>
@@ -10674,14 +10787,14 @@
       <c r="BK172" s="17"/>
       <c r="BL172" s="17"/>
     </row>
-    <row r="173" spans="1:64">
+    <row r="173" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
-      <c r="B173" s="37"/>
-      <c r="C173" s="37"/>
-      <c r="D173" s="38"/>
-      <c r="E173" s="38"/>
-      <c r="F173" s="38"/>
-      <c r="G173" s="38"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="23"/>
       <c r="H173" s="17"/>
       <c r="J173" s="17"/>
       <c r="K173" s="17"/>
@@ -10739,14 +10852,14 @@
       <c r="BK173" s="17"/>
       <c r="BL173" s="17"/>
     </row>
-    <row r="174" spans="1:64">
+    <row r="174" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
-      <c r="B174" s="37"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="38"/>
-      <c r="E174" s="38"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="38"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
       <c r="H174" s="17"/>
       <c r="J174" s="17"/>
       <c r="K174" s="17"/>
@@ -10804,14 +10917,14 @@
       <c r="BK174" s="17"/>
       <c r="BL174" s="17"/>
     </row>
-    <row r="175" spans="1:64">
+    <row r="175" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
-      <c r="B175" s="37"/>
-      <c r="C175" s="37"/>
-      <c r="D175" s="38"/>
-      <c r="E175" s="38"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="38"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
       <c r="H175" s="17"/>
       <c r="J175" s="17"/>
       <c r="K175" s="17"/>
@@ -10869,14 +10982,14 @@
       <c r="BK175" s="17"/>
       <c r="BL175" s="17"/>
     </row>
-    <row r="176" spans="1:64">
+    <row r="176" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
-      <c r="B176" s="37"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="38"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="23"/>
       <c r="H176" s="17"/>
       <c r="J176" s="17"/>
       <c r="K176" s="17"/>
@@ -10934,14 +11047,14 @@
       <c r="BK176" s="17"/>
       <c r="BL176" s="17"/>
     </row>
-    <row r="177" spans="1:64">
+    <row r="177" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
-      <c r="B177" s="37"/>
-      <c r="C177" s="37"/>
-      <c r="D177" s="38"/>
-      <c r="E177" s="38"/>
-      <c r="F177" s="38"/>
-      <c r="G177" s="38"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="23"/>
       <c r="H177" s="17"/>
       <c r="J177" s="17"/>
       <c r="K177" s="17"/>
@@ -10999,14 +11112,14 @@
       <c r="BK177" s="17"/>
       <c r="BL177" s="17"/>
     </row>
-    <row r="178" spans="1:64">
+    <row r="178" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A178" s="17"/>
-      <c r="B178" s="37"/>
-      <c r="C178" s="37"/>
-      <c r="D178" s="38"/>
-      <c r="E178" s="38"/>
-      <c r="F178" s="38"/>
-      <c r="G178" s="38"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
       <c r="H178" s="17"/>
       <c r="J178" s="17"/>
       <c r="K178" s="17"/>
@@ -11064,14 +11177,14 @@
       <c r="BK178" s="17"/>
       <c r="BL178" s="17"/>
     </row>
-    <row r="179" spans="1:64">
+    <row r="179" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
-      <c r="B179" s="37"/>
-      <c r="C179" s="37"/>
-      <c r="D179" s="38"/>
-      <c r="E179" s="38"/>
-      <c r="F179" s="38"/>
-      <c r="G179" s="38"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="23"/>
       <c r="H179" s="17"/>
       <c r="J179" s="17"/>
       <c r="K179" s="17"/>
@@ -11129,14 +11242,14 @@
       <c r="BK179" s="17"/>
       <c r="BL179" s="17"/>
     </row>
-    <row r="180" spans="1:64">
+    <row r="180" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
-      <c r="B180" s="37"/>
-      <c r="C180" s="37"/>
-      <c r="D180" s="38"/>
-      <c r="E180" s="38"/>
-      <c r="F180" s="38"/>
-      <c r="G180" s="38"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
+      <c r="G180" s="23"/>
       <c r="H180" s="17"/>
       <c r="J180" s="17"/>
       <c r="K180" s="17"/>
@@ -11194,14 +11307,14 @@
       <c r="BK180" s="17"/>
       <c r="BL180" s="17"/>
     </row>
-    <row r="181" spans="1:64">
+    <row r="181" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="38"/>
-      <c r="E181" s="38"/>
-      <c r="F181" s="38"/>
-      <c r="G181" s="38"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="23"/>
       <c r="H181" s="17"/>
       <c r="J181" s="17"/>
       <c r="K181" s="17"/>
@@ -11259,14 +11372,14 @@
       <c r="BK181" s="17"/>
       <c r="BL181" s="17"/>
     </row>
-    <row r="182" spans="1:64">
+    <row r="182" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
-      <c r="B182" s="37"/>
-      <c r="C182" s="37"/>
-      <c r="D182" s="38"/>
-      <c r="E182" s="38"/>
-      <c r="F182" s="38"/>
-      <c r="G182" s="38"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="23"/>
+      <c r="G182" s="23"/>
       <c r="H182" s="17"/>
       <c r="J182" s="17"/>
       <c r="K182" s="17"/>
@@ -11324,14 +11437,14 @@
       <c r="BK182" s="17"/>
       <c r="BL182" s="17"/>
     </row>
-    <row r="183" spans="1:64">
+    <row r="183" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A183" s="17"/>
-      <c r="B183" s="37"/>
-      <c r="C183" s="37"/>
-      <c r="D183" s="38"/>
-      <c r="E183" s="38"/>
-      <c r="F183" s="38"/>
-      <c r="G183" s="38"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23"/>
+      <c r="G183" s="23"/>
       <c r="H183" s="17"/>
       <c r="J183" s="17"/>
       <c r="K183" s="17"/>
@@ -11389,14 +11502,14 @@
       <c r="BK183" s="17"/>
       <c r="BL183" s="17"/>
     </row>
-    <row r="184" spans="1:64">
+    <row r="184" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
-      <c r="B184" s="37"/>
-      <c r="C184" s="37"/>
-      <c r="D184" s="38"/>
-      <c r="E184" s="38"/>
-      <c r="F184" s="38"/>
-      <c r="G184" s="38"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="23"/>
       <c r="H184" s="17"/>
       <c r="J184" s="17"/>
       <c r="K184" s="17"/>
@@ -11454,14 +11567,14 @@
       <c r="BK184" s="17"/>
       <c r="BL184" s="17"/>
     </row>
-    <row r="185" spans="1:64">
+    <row r="185" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
-      <c r="B185" s="37"/>
-      <c r="C185" s="37"/>
-      <c r="D185" s="38"/>
-      <c r="E185" s="38"/>
-      <c r="F185" s="38"/>
-      <c r="G185" s="38"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="23"/>
+      <c r="G185" s="23"/>
       <c r="H185" s="17"/>
       <c r="J185" s="17"/>
       <c r="K185" s="17"/>
@@ -11519,14 +11632,14 @@
       <c r="BK185" s="17"/>
       <c r="BL185" s="17"/>
     </row>
-    <row r="186" spans="1:64">
+    <row r="186" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
-      <c r="B186" s="37"/>
-      <c r="C186" s="37"/>
-      <c r="D186" s="38"/>
-      <c r="E186" s="38"/>
-      <c r="F186" s="38"/>
-      <c r="G186" s="38"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="23"/>
+      <c r="G186" s="23"/>
       <c r="H186" s="17"/>
       <c r="J186" s="17"/>
       <c r="K186" s="17"/>
@@ -11584,14 +11697,14 @@
       <c r="BK186" s="17"/>
       <c r="BL186" s="17"/>
     </row>
-    <row r="187" spans="1:64">
+    <row r="187" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
-      <c r="B187" s="37"/>
-      <c r="C187" s="37"/>
-      <c r="D187" s="38"/>
-      <c r="E187" s="38"/>
-      <c r="F187" s="38"/>
-      <c r="G187" s="38"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="23"/>
+      <c r="G187" s="23"/>
       <c r="H187" s="17"/>
       <c r="J187" s="17"/>
       <c r="K187" s="17"/>
@@ -11649,14 +11762,14 @@
       <c r="BK187" s="17"/>
       <c r="BL187" s="17"/>
     </row>
-    <row r="188" spans="1:64">
+    <row r="188" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A188" s="17"/>
-      <c r="B188" s="37"/>
-      <c r="C188" s="37"/>
-      <c r="D188" s="38"/>
-      <c r="E188" s="38"/>
-      <c r="F188" s="38"/>
-      <c r="G188" s="38"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="23"/>
+      <c r="G188" s="23"/>
       <c r="H188" s="17"/>
       <c r="J188" s="17"/>
       <c r="K188" s="17"/>
@@ -11714,14 +11827,14 @@
       <c r="BK188" s="17"/>
       <c r="BL188" s="17"/>
     </row>
-    <row r="189" spans="1:64">
+    <row r="189" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
-      <c r="B189" s="37"/>
-      <c r="C189" s="37"/>
-      <c r="D189" s="38"/>
-      <c r="E189" s="38"/>
-      <c r="F189" s="38"/>
-      <c r="G189" s="38"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="23"/>
       <c r="H189" s="17"/>
       <c r="J189" s="17"/>
       <c r="K189" s="17"/>
@@ -11779,14 +11892,14 @@
       <c r="BK189" s="17"/>
       <c r="BL189" s="17"/>
     </row>
-    <row r="190" spans="1:64">
+    <row r="190" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
-      <c r="B190" s="37"/>
-      <c r="C190" s="37"/>
-      <c r="D190" s="38"/>
-      <c r="E190" s="38"/>
-      <c r="F190" s="38"/>
-      <c r="G190" s="38"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="23"/>
+      <c r="G190" s="23"/>
       <c r="H190" s="17"/>
       <c r="J190" s="17"/>
       <c r="K190" s="17"/>
@@ -11844,14 +11957,14 @@
       <c r="BK190" s="17"/>
       <c r="BL190" s="17"/>
     </row>
-    <row r="191" spans="1:64">
+    <row r="191" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A191" s="17"/>
-      <c r="B191" s="37"/>
-      <c r="C191" s="37"/>
-      <c r="D191" s="38"/>
-      <c r="E191" s="38"/>
-      <c r="F191" s="38"/>
-      <c r="G191" s="38"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="23"/>
+      <c r="F191" s="23"/>
+      <c r="G191" s="23"/>
       <c r="H191" s="17"/>
       <c r="J191" s="17"/>
       <c r="K191" s="17"/>
@@ -11909,14 +12022,14 @@
       <c r="BK191" s="17"/>
       <c r="BL191" s="17"/>
     </row>
-    <row r="192" spans="1:64">
+    <row r="192" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
-      <c r="B192" s="37"/>
-      <c r="C192" s="37"/>
-      <c r="D192" s="38"/>
-      <c r="E192" s="38"/>
-      <c r="F192" s="38"/>
-      <c r="G192" s="38"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="23"/>
+      <c r="F192" s="23"/>
+      <c r="G192" s="23"/>
       <c r="H192" s="17"/>
       <c r="J192" s="17"/>
       <c r="K192" s="17"/>
@@ -11974,14 +12087,14 @@
       <c r="BK192" s="17"/>
       <c r="BL192" s="17"/>
     </row>
-    <row r="193" spans="1:64">
+    <row r="193" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
-      <c r="B193" s="37"/>
-      <c r="C193" s="37"/>
-      <c r="D193" s="38"/>
-      <c r="E193" s="38"/>
-      <c r="F193" s="38"/>
-      <c r="G193" s="38"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="23"/>
+      <c r="G193" s="23"/>
       <c r="H193" s="17"/>
       <c r="J193" s="17"/>
       <c r="K193" s="17"/>
@@ -12039,14 +12152,14 @@
       <c r="BK193" s="17"/>
       <c r="BL193" s="17"/>
     </row>
-    <row r="194" spans="1:64">
+    <row r="194" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
-      <c r="B194" s="37"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="38"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="38"/>
-      <c r="G194" s="38"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="23"/>
       <c r="H194" s="17"/>
       <c r="J194" s="17"/>
       <c r="K194" s="17"/>
@@ -12104,14 +12217,14 @@
       <c r="BK194" s="17"/>
       <c r="BL194" s="17"/>
     </row>
-    <row r="195" spans="1:64">
+    <row r="195" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="38"/>
-      <c r="E195" s="38"/>
-      <c r="F195" s="38"/>
-      <c r="G195" s="38"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="23"/>
       <c r="H195" s="17"/>
       <c r="J195" s="17"/>
       <c r="K195" s="17"/>
@@ -12169,14 +12282,14 @@
       <c r="BK195" s="17"/>
       <c r="BL195" s="17"/>
     </row>
-    <row r="196" spans="1:64">
+    <row r="196" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
-      <c r="B196" s="37"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="38"/>
-      <c r="E196" s="38"/>
-      <c r="F196" s="38"/>
-      <c r="G196" s="38"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="23"/>
+      <c r="E196" s="23"/>
+      <c r="F196" s="23"/>
+      <c r="G196" s="23"/>
       <c r="H196" s="17"/>
       <c r="J196" s="17"/>
       <c r="K196" s="17"/>
@@ -12234,14 +12347,14 @@
       <c r="BK196" s="17"/>
       <c r="BL196" s="17"/>
     </row>
-    <row r="197" spans="1:64">
+    <row r="197" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A197" s="17"/>
-      <c r="B197" s="37"/>
-      <c r="C197" s="37"/>
-      <c r="D197" s="38"/>
-      <c r="E197" s="38"/>
-      <c r="F197" s="38"/>
-      <c r="G197" s="38"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="23"/>
+      <c r="F197" s="23"/>
+      <c r="G197" s="23"/>
       <c r="H197" s="17"/>
       <c r="J197" s="17"/>
       <c r="K197" s="17"/>
@@ -12299,14 +12412,14 @@
       <c r="BK197" s="17"/>
       <c r="BL197" s="17"/>
     </row>
-    <row r="198" spans="1:64">
+    <row r="198" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
-      <c r="B198" s="37"/>
-      <c r="C198" s="37"/>
-      <c r="D198" s="38"/>
-      <c r="E198" s="38"/>
-      <c r="F198" s="38"/>
-      <c r="G198" s="38"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="23"/>
+      <c r="E198" s="23"/>
+      <c r="F198" s="23"/>
+      <c r="G198" s="23"/>
       <c r="H198" s="17"/>
       <c r="J198" s="17"/>
       <c r="K198" s="17"/>
@@ -12364,14 +12477,14 @@
       <c r="BK198" s="17"/>
       <c r="BL198" s="17"/>
     </row>
-    <row r="199" spans="1:64">
+    <row r="199" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
-      <c r="B199" s="37"/>
-      <c r="C199" s="37"/>
-      <c r="D199" s="38"/>
-      <c r="E199" s="38"/>
-      <c r="F199" s="38"/>
-      <c r="G199" s="38"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="23"/>
+      <c r="G199" s="23"/>
       <c r="H199" s="17"/>
       <c r="J199" s="17"/>
       <c r="K199" s="17"/>
@@ -12429,14 +12542,14 @@
       <c r="BK199" s="17"/>
       <c r="BL199" s="17"/>
     </row>
-    <row r="200" spans="1:64">
+    <row r="200" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="37"/>
-      <c r="D200" s="38"/>
-      <c r="E200" s="38"/>
-      <c r="F200" s="38"/>
-      <c r="G200" s="38"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23"/>
       <c r="H200" s="17"/>
       <c r="J200" s="17"/>
       <c r="K200" s="17"/>
@@ -12494,14 +12607,14 @@
       <c r="BK200" s="17"/>
       <c r="BL200" s="17"/>
     </row>
-    <row r="201" spans="1:64">
+    <row r="201" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
-      <c r="B201" s="37"/>
-      <c r="C201" s="37"/>
-      <c r="D201" s="38"/>
-      <c r="E201" s="38"/>
-      <c r="F201" s="38"/>
-      <c r="G201" s="38"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23"/>
       <c r="H201" s="17"/>
       <c r="J201" s="17"/>
       <c r="K201" s="17"/>
@@ -12559,14 +12672,14 @@
       <c r="BK201" s="17"/>
       <c r="BL201" s="17"/>
     </row>
-    <row r="202" spans="1:64">
+    <row r="202" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
-      <c r="B202" s="37"/>
-      <c r="C202" s="37"/>
-      <c r="D202" s="38"/>
-      <c r="E202" s="38"/>
-      <c r="F202" s="38"/>
-      <c r="G202" s="38"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="23"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="23"/>
       <c r="H202" s="17"/>
       <c r="J202" s="17"/>
       <c r="K202" s="17"/>
@@ -12624,14 +12737,14 @@
       <c r="BK202" s="17"/>
       <c r="BL202" s="17"/>
     </row>
-    <row r="203" spans="1:64">
+    <row r="203" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="38"/>
-      <c r="E203" s="38"/>
-      <c r="F203" s="38"/>
-      <c r="G203" s="38"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
       <c r="H203" s="17"/>
       <c r="J203" s="17"/>
       <c r="K203" s="17"/>
@@ -12689,14 +12802,14 @@
       <c r="BK203" s="17"/>
       <c r="BL203" s="17"/>
     </row>
-    <row r="204" spans="1:64">
+    <row r="204" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
-      <c r="B204" s="37"/>
-      <c r="C204" s="37"/>
-      <c r="D204" s="38"/>
-      <c r="E204" s="38"/>
-      <c r="F204" s="38"/>
-      <c r="G204" s="38"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23"/>
       <c r="H204" s="17"/>
       <c r="J204" s="17"/>
       <c r="K204" s="17"/>
@@ -12754,14 +12867,14 @@
       <c r="BK204" s="17"/>
       <c r="BL204" s="17"/>
     </row>
-    <row r="205" spans="1:64">
+    <row r="205" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
-      <c r="B205" s="37"/>
-      <c r="C205" s="37"/>
-      <c r="D205" s="38"/>
-      <c r="E205" s="38"/>
-      <c r="F205" s="38"/>
-      <c r="G205" s="38"/>
+      <c r="B205" s="22"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="23"/>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="23"/>
       <c r="H205" s="17"/>
       <c r="J205" s="17"/>
       <c r="K205" s="17"/>
@@ -12819,14 +12932,14 @@
       <c r="BK205" s="17"/>
       <c r="BL205" s="17"/>
     </row>
-    <row r="206" spans="1:64">
+    <row r="206" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="38"/>
-      <c r="E206" s="38"/>
-      <c r="F206" s="38"/>
-      <c r="G206" s="38"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="23"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="23"/>
       <c r="H206" s="17"/>
       <c r="J206" s="17"/>
       <c r="K206" s="17"/>
@@ -12884,14 +12997,14 @@
       <c r="BK206" s="17"/>
       <c r="BL206" s="17"/>
     </row>
-    <row r="207" spans="1:64">
+    <row r="207" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A207" s="17"/>
-      <c r="B207" s="37"/>
-      <c r="C207" s="37"/>
-      <c r="D207" s="38"/>
-      <c r="E207" s="38"/>
-      <c r="F207" s="38"/>
-      <c r="G207" s="38"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="23"/>
       <c r="H207" s="17"/>
       <c r="J207" s="17"/>
       <c r="K207" s="17"/>
@@ -12949,14 +13062,14 @@
       <c r="BK207" s="17"/>
       <c r="BL207" s="17"/>
     </row>
-    <row r="208" spans="1:64">
+    <row r="208" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
-      <c r="B208" s="37"/>
-      <c r="C208" s="37"/>
-      <c r="D208" s="38"/>
-      <c r="E208" s="38"/>
-      <c r="F208" s="38"/>
-      <c r="G208" s="38"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="23"/>
+      <c r="G208" s="23"/>
       <c r="H208" s="17"/>
       <c r="J208" s="17"/>
       <c r="K208" s="17"/>
@@ -13014,14 +13127,14 @@
       <c r="BK208" s="17"/>
       <c r="BL208" s="17"/>
     </row>
-    <row r="209" spans="1:64">
+    <row r="209" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
-      <c r="B209" s="37"/>
-      <c r="C209" s="37"/>
-      <c r="D209" s="38"/>
-      <c r="E209" s="38"/>
-      <c r="F209" s="38"/>
-      <c r="G209" s="38"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="23"/>
       <c r="H209" s="17"/>
       <c r="J209" s="17"/>
       <c r="K209" s="17"/>
@@ -13079,14 +13192,14 @@
       <c r="BK209" s="17"/>
       <c r="BL209" s="17"/>
     </row>
-    <row r="210" spans="1:64">
+    <row r="210" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
-      <c r="B210" s="37"/>
-      <c r="C210" s="37"/>
-      <c r="D210" s="38"/>
-      <c r="E210" s="38"/>
-      <c r="F210" s="38"/>
-      <c r="G210" s="38"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="23"/>
+      <c r="G210" s="23"/>
       <c r="H210" s="17"/>
       <c r="J210" s="17"/>
       <c r="K210" s="17"/>
@@ -13144,14 +13257,14 @@
       <c r="BK210" s="17"/>
       <c r="BL210" s="17"/>
     </row>
-    <row r="211" spans="1:64">
+    <row r="211" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
-      <c r="B211" s="37"/>
-      <c r="C211" s="37"/>
-      <c r="D211" s="38"/>
-      <c r="E211" s="38"/>
-      <c r="F211" s="38"/>
-      <c r="G211" s="38"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="23"/>
       <c r="H211" s="17"/>
       <c r="J211" s="17"/>
       <c r="K211" s="17"/>
@@ -13209,14 +13322,14 @@
       <c r="BK211" s="17"/>
       <c r="BL211" s="17"/>
     </row>
-    <row r="212" spans="1:64">
+    <row r="212" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
-      <c r="B212" s="37"/>
-      <c r="C212" s="37"/>
-      <c r="D212" s="38"/>
-      <c r="E212" s="38"/>
-      <c r="F212" s="38"/>
-      <c r="G212" s="38"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="23"/>
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
       <c r="H212" s="17"/>
       <c r="J212" s="17"/>
       <c r="K212" s="17"/>
@@ -13274,14 +13387,14 @@
       <c r="BK212" s="17"/>
       <c r="BL212" s="17"/>
     </row>
-    <row r="213" spans="1:64">
+    <row r="213" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
-      <c r="B213" s="37"/>
-      <c r="C213" s="37"/>
-      <c r="D213" s="38"/>
-      <c r="E213" s="38"/>
-      <c r="F213" s="38"/>
-      <c r="G213" s="38"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
       <c r="H213" s="17"/>
       <c r="J213" s="17"/>
       <c r="K213" s="17"/>
@@ -13339,14 +13452,14 @@
       <c r="BK213" s="17"/>
       <c r="BL213" s="17"/>
     </row>
-    <row r="214" spans="1:64">
+    <row r="214" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="37"/>
-      <c r="C214" s="37"/>
-      <c r="D214" s="38"/>
-      <c r="E214" s="38"/>
-      <c r="F214" s="38"/>
-      <c r="G214" s="38"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="23"/>
       <c r="H214" s="17"/>
       <c r="J214" s="17"/>
       <c r="K214" s="17"/>
@@ -13404,14 +13517,14 @@
       <c r="BK214" s="17"/>
       <c r="BL214" s="17"/>
     </row>
-    <row r="215" spans="1:64">
+    <row r="215" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="38"/>
-      <c r="E215" s="38"/>
-      <c r="F215" s="38"/>
-      <c r="G215" s="38"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="23"/>
       <c r="H215" s="17"/>
       <c r="J215" s="17"/>
       <c r="K215" s="17"/>
@@ -13469,14 +13582,14 @@
       <c r="BK215" s="17"/>
       <c r="BL215" s="17"/>
     </row>
-    <row r="216" spans="1:64">
+    <row r="216" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="37"/>
-      <c r="C216" s="37"/>
-      <c r="D216" s="38"/>
-      <c r="E216" s="38"/>
-      <c r="F216" s="38"/>
-      <c r="G216" s="38"/>
+      <c r="B216" s="22"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="23"/>
       <c r="H216" s="17"/>
       <c r="J216" s="17"/>
       <c r="K216" s="17"/>
@@ -13534,14 +13647,14 @@
       <c r="BK216" s="17"/>
       <c r="BL216" s="17"/>
     </row>
-    <row r="217" spans="1:64">
+    <row r="217" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A217" s="17"/>
-      <c r="B217" s="37"/>
-      <c r="C217" s="37"/>
-      <c r="D217" s="38"/>
-      <c r="E217" s="38"/>
-      <c r="F217" s="38"/>
-      <c r="G217" s="38"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="23"/>
       <c r="H217" s="17"/>
       <c r="J217" s="17"/>
       <c r="K217" s="17"/>
@@ -13599,14 +13712,14 @@
       <c r="BK217" s="17"/>
       <c r="BL217" s="17"/>
     </row>
-    <row r="218" spans="1:64">
+    <row r="218" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
-      <c r="B218" s="37"/>
-      <c r="C218" s="37"/>
-      <c r="D218" s="38"/>
-      <c r="E218" s="38"/>
-      <c r="F218" s="38"/>
-      <c r="G218" s="38"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="23"/>
       <c r="H218" s="17"/>
       <c r="J218" s="17"/>
       <c r="K218" s="17"/>
@@ -13664,14 +13777,14 @@
       <c r="BK218" s="17"/>
       <c r="BL218" s="17"/>
     </row>
-    <row r="219" spans="1:64">
+    <row r="219" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="37"/>
-      <c r="C219" s="37"/>
-      <c r="D219" s="38"/>
-      <c r="E219" s="38"/>
-      <c r="F219" s="38"/>
-      <c r="G219" s="38"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23"/>
       <c r="H219" s="17"/>
       <c r="J219" s="17"/>
       <c r="K219" s="17"/>
@@ -13729,14 +13842,14 @@
       <c r="BK219" s="17"/>
       <c r="BL219" s="17"/>
     </row>
-    <row r="220" spans="1:64">
+    <row r="220" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
-      <c r="B220" s="37"/>
-      <c r="C220" s="37"/>
-      <c r="D220" s="38"/>
-      <c r="E220" s="38"/>
-      <c r="F220" s="38"/>
-      <c r="G220" s="38"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
       <c r="H220" s="17"/>
       <c r="J220" s="17"/>
       <c r="K220" s="17"/>
@@ -13794,14 +13907,14 @@
       <c r="BK220" s="17"/>
       <c r="BL220" s="17"/>
     </row>
-    <row r="221" spans="1:64">
+    <row r="221" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
-      <c r="B221" s="37"/>
-      <c r="C221" s="37"/>
-      <c r="D221" s="38"/>
-      <c r="E221" s="38"/>
-      <c r="F221" s="38"/>
-      <c r="G221" s="38"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="23"/>
+      <c r="E221" s="23"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="23"/>
       <c r="H221" s="17"/>
       <c r="J221" s="17"/>
       <c r="K221" s="17"/>
@@ -13859,14 +13972,14 @@
       <c r="BK221" s="17"/>
       <c r="BL221" s="17"/>
     </row>
-    <row r="222" spans="1:64">
+    <row r="222" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
-      <c r="B222" s="37"/>
-      <c r="C222" s="37"/>
-      <c r="D222" s="38"/>
-      <c r="E222" s="38"/>
-      <c r="F222" s="38"/>
-      <c r="G222" s="38"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="23"/>
       <c r="H222" s="17"/>
       <c r="J222" s="17"/>
       <c r="K222" s="17"/>
@@ -13924,14 +14037,14 @@
       <c r="BK222" s="17"/>
       <c r="BL222" s="17"/>
     </row>
-    <row r="223" spans="1:64">
+    <row r="223" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
-      <c r="B223" s="37"/>
-      <c r="C223" s="37"/>
-      <c r="D223" s="38"/>
-      <c r="E223" s="38"/>
-      <c r="F223" s="38"/>
-      <c r="G223" s="38"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="23"/>
       <c r="H223" s="17"/>
       <c r="J223" s="17"/>
       <c r="K223" s="17"/>
@@ -13989,14 +14102,14 @@
       <c r="BK223" s="17"/>
       <c r="BL223" s="17"/>
     </row>
-    <row r="224" spans="1:64">
+    <row r="224" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
-      <c r="B224" s="37"/>
-      <c r="C224" s="37"/>
-      <c r="D224" s="38"/>
-      <c r="E224" s="38"/>
-      <c r="F224" s="38"/>
-      <c r="G224" s="38"/>
+      <c r="B224" s="22"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="23"/>
+      <c r="E224" s="23"/>
+      <c r="F224" s="23"/>
+      <c r="G224" s="23"/>
       <c r="H224" s="17"/>
       <c r="J224" s="17"/>
       <c r="K224" s="17"/>
@@ -14054,14 +14167,14 @@
       <c r="BK224" s="17"/>
       <c r="BL224" s="17"/>
     </row>
-    <row r="225" spans="1:64">
+    <row r="225" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
-      <c r="B225" s="37"/>
-      <c r="C225" s="37"/>
-      <c r="D225" s="38"/>
-      <c r="E225" s="38"/>
-      <c r="F225" s="38"/>
-      <c r="G225" s="38"/>
+      <c r="B225" s="22"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="23"/>
+      <c r="E225" s="23"/>
+      <c r="F225" s="23"/>
+      <c r="G225" s="23"/>
       <c r="H225" s="17"/>
       <c r="J225" s="17"/>
       <c r="K225" s="17"/>
@@ -14119,14 +14232,14 @@
       <c r="BK225" s="17"/>
       <c r="BL225" s="17"/>
     </row>
-    <row r="226" spans="1:64">
+    <row r="226" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
-      <c r="B226" s="37"/>
-      <c r="C226" s="37"/>
-      <c r="D226" s="38"/>
-      <c r="E226" s="38"/>
-      <c r="F226" s="38"/>
-      <c r="G226" s="38"/>
+      <c r="B226" s="22"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="23"/>
+      <c r="G226" s="23"/>
       <c r="H226" s="17"/>
       <c r="J226" s="17"/>
       <c r="K226" s="17"/>
@@ -14184,14 +14297,14 @@
       <c r="BK226" s="17"/>
       <c r="BL226" s="17"/>
     </row>
-    <row r="227" spans="1:64">
+    <row r="227" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="37"/>
-      <c r="C227" s="37"/>
-      <c r="D227" s="38"/>
-      <c r="E227" s="38"/>
-      <c r="F227" s="38"/>
-      <c r="G227" s="38"/>
+      <c r="B227" s="22"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="23"/>
+      <c r="G227" s="23"/>
       <c r="H227" s="17"/>
       <c r="J227" s="17"/>
       <c r="K227" s="17"/>
@@ -14249,14 +14362,14 @@
       <c r="BK227" s="17"/>
       <c r="BL227" s="17"/>
     </row>
-    <row r="228" spans="1:64">
+    <row r="228" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
-      <c r="B228" s="37"/>
-      <c r="C228" s="37"/>
-      <c r="D228" s="38"/>
-      <c r="E228" s="38"/>
-      <c r="F228" s="38"/>
-      <c r="G228" s="38"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23"/>
+      <c r="G228" s="23"/>
       <c r="H228" s="17"/>
       <c r="J228" s="17"/>
       <c r="K228" s="17"/>
@@ -14314,14 +14427,14 @@
       <c r="BK228" s="17"/>
       <c r="BL228" s="17"/>
     </row>
-    <row r="229" spans="1:64">
+    <row r="229" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
-      <c r="B229" s="37"/>
-      <c r="C229" s="37"/>
-      <c r="D229" s="38"/>
-      <c r="E229" s="38"/>
-      <c r="F229" s="38"/>
-      <c r="G229" s="38"/>
+      <c r="B229" s="22"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23"/>
+      <c r="G229" s="23"/>
       <c r="H229" s="17"/>
       <c r="J229" s="17"/>
       <c r="K229" s="17"/>
@@ -14379,14 +14492,14 @@
       <c r="BK229" s="17"/>
       <c r="BL229" s="17"/>
     </row>
-    <row r="230" spans="1:64">
+    <row r="230" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
-      <c r="B230" s="37"/>
-      <c r="C230" s="37"/>
-      <c r="D230" s="38"/>
-      <c r="E230" s="38"/>
-      <c r="F230" s="38"/>
-      <c r="G230" s="38"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23"/>
+      <c r="G230" s="23"/>
       <c r="H230" s="17"/>
       <c r="J230" s="17"/>
       <c r="K230" s="17"/>
@@ -14444,14 +14557,14 @@
       <c r="BK230" s="17"/>
       <c r="BL230" s="17"/>
     </row>
-    <row r="231" spans="1:64">
+    <row r="231" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
-      <c r="B231" s="37"/>
-      <c r="C231" s="37"/>
-      <c r="D231" s="38"/>
-      <c r="E231" s="38"/>
-      <c r="F231" s="38"/>
-      <c r="G231" s="38"/>
+      <c r="B231" s="22"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="23"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="23"/>
+      <c r="G231" s="23"/>
       <c r="H231" s="17"/>
       <c r="J231" s="17"/>
       <c r="K231" s="17"/>
@@ -14509,14 +14622,14 @@
       <c r="BK231" s="17"/>
       <c r="BL231" s="17"/>
     </row>
-    <row r="232" spans="1:64">
+    <row r="232" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
-      <c r="B232" s="37"/>
-      <c r="C232" s="37"/>
-      <c r="D232" s="38"/>
-      <c r="E232" s="38"/>
-      <c r="F232" s="38"/>
-      <c r="G232" s="38"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23"/>
       <c r="H232" s="17"/>
       <c r="J232" s="17"/>
       <c r="K232" s="17"/>
@@ -14574,14 +14687,14 @@
       <c r="BK232" s="17"/>
       <c r="BL232" s="17"/>
     </row>
-    <row r="233" spans="1:64">
+    <row r="233" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
-      <c r="B233" s="37"/>
-      <c r="C233" s="37"/>
-      <c r="D233" s="38"/>
-      <c r="E233" s="38"/>
-      <c r="F233" s="38"/>
-      <c r="G233" s="38"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="23"/>
+      <c r="G233" s="23"/>
       <c r="H233" s="17"/>
       <c r="J233" s="17"/>
       <c r="K233" s="17"/>
@@ -14639,14 +14752,14 @@
       <c r="BK233" s="17"/>
       <c r="BL233" s="17"/>
     </row>
-    <row r="234" spans="1:64">
+    <row r="234" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A234" s="17"/>
-      <c r="B234" s="37"/>
-      <c r="C234" s="37"/>
-      <c r="D234" s="38"/>
-      <c r="E234" s="38"/>
-      <c r="F234" s="38"/>
-      <c r="G234" s="38"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="23"/>
+      <c r="G234" s="23"/>
       <c r="H234" s="17"/>
       <c r="J234" s="17"/>
       <c r="K234" s="17"/>
@@ -14704,14 +14817,14 @@
       <c r="BK234" s="17"/>
       <c r="BL234" s="17"/>
     </row>
-    <row r="235" spans="1:64">
+    <row r="235" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="37"/>
-      <c r="C235" s="37"/>
-      <c r="D235" s="38"/>
-      <c r="E235" s="38"/>
-      <c r="F235" s="38"/>
-      <c r="G235" s="38"/>
+      <c r="B235" s="22"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="23"/>
+      <c r="G235" s="23"/>
       <c r="H235" s="17"/>
       <c r="J235" s="17"/>
       <c r="K235" s="17"/>
@@ -14769,14 +14882,14 @@
       <c r="BK235" s="17"/>
       <c r="BL235" s="17"/>
     </row>
-    <row r="236" spans="1:64">
+    <row r="236" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="37"/>
-      <c r="C236" s="37"/>
-      <c r="D236" s="38"/>
-      <c r="E236" s="38"/>
-      <c r="F236" s="38"/>
-      <c r="G236" s="38"/>
+      <c r="B236" s="22"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="23"/>
+      <c r="E236" s="23"/>
+      <c r="F236" s="23"/>
+      <c r="G236" s="23"/>
       <c r="H236" s="17"/>
       <c r="J236" s="17"/>
       <c r="K236" s="17"/>
@@ -14834,14 +14947,14 @@
       <c r="BK236" s="17"/>
       <c r="BL236" s="17"/>
     </row>
-    <row r="237" spans="1:64">
+    <row r="237" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="37"/>
-      <c r="C237" s="37"/>
-      <c r="D237" s="38"/>
-      <c r="E237" s="38"/>
-      <c r="F237" s="38"/>
-      <c r="G237" s="38"/>
+      <c r="B237" s="22"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="23"/>
+      <c r="G237" s="23"/>
       <c r="H237" s="17"/>
       <c r="J237" s="17"/>
       <c r="K237" s="17"/>
@@ -14899,14 +15012,14 @@
       <c r="BK237" s="17"/>
       <c r="BL237" s="17"/>
     </row>
-    <row r="238" spans="1:64">
+    <row r="238" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
-      <c r="B238" s="37"/>
-      <c r="C238" s="37"/>
-      <c r="D238" s="38"/>
-      <c r="E238" s="38"/>
-      <c r="F238" s="38"/>
-      <c r="G238" s="38"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="23"/>
+      <c r="G238" s="23"/>
       <c r="H238" s="17"/>
       <c r="J238" s="17"/>
       <c r="K238" s="17"/>
@@ -14964,14 +15077,14 @@
       <c r="BK238" s="17"/>
       <c r="BL238" s="17"/>
     </row>
-    <row r="239" spans="1:64">
+    <row r="239" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
-      <c r="B239" s="37"/>
-      <c r="C239" s="37"/>
-      <c r="D239" s="38"/>
-      <c r="E239" s="38"/>
-      <c r="F239" s="38"/>
-      <c r="G239" s="38"/>
+      <c r="B239" s="22"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="23"/>
+      <c r="F239" s="23"/>
+      <c r="G239" s="23"/>
       <c r="H239" s="17"/>
       <c r="J239" s="17"/>
       <c r="K239" s="17"/>
@@ -15029,14 +15142,14 @@
       <c r="BK239" s="17"/>
       <c r="BL239" s="17"/>
     </row>
-    <row r="240" spans="1:64">
+    <row r="240" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
-      <c r="B240" s="37"/>
-      <c r="C240" s="37"/>
-      <c r="D240" s="38"/>
-      <c r="E240" s="38"/>
-      <c r="F240" s="38"/>
-      <c r="G240" s="38"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="23"/>
+      <c r="F240" s="23"/>
+      <c r="G240" s="23"/>
       <c r="H240" s="17"/>
       <c r="J240" s="17"/>
       <c r="K240" s="17"/>
@@ -15094,14 +15207,14 @@
       <c r="BK240" s="17"/>
       <c r="BL240" s="17"/>
     </row>
-    <row r="241" spans="1:64">
+    <row r="241" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
-      <c r="B241" s="37"/>
-      <c r="C241" s="37"/>
-      <c r="D241" s="38"/>
-      <c r="E241" s="38"/>
-      <c r="F241" s="38"/>
-      <c r="G241" s="38"/>
+      <c r="B241" s="22"/>
+      <c r="C241" s="22"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="23"/>
+      <c r="G241" s="23"/>
       <c r="H241" s="17"/>
       <c r="J241" s="17"/>
       <c r="K241" s="17"/>
@@ -15159,14 +15272,14 @@
       <c r="BK241" s="17"/>
       <c r="BL241" s="17"/>
     </row>
-    <row r="242" spans="1:64">
+    <row r="242" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
-      <c r="B242" s="37"/>
-      <c r="C242" s="37"/>
-      <c r="D242" s="38"/>
-      <c r="E242" s="38"/>
-      <c r="F242" s="38"/>
-      <c r="G242" s="38"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="22"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="23"/>
+      <c r="F242" s="23"/>
+      <c r="G242" s="23"/>
       <c r="H242" s="17"/>
       <c r="J242" s="17"/>
       <c r="K242" s="17"/>
@@ -15224,14 +15337,14 @@
       <c r="BK242" s="17"/>
       <c r="BL242" s="17"/>
     </row>
-    <row r="243" spans="1:64">
+    <row r="243" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
-      <c r="B243" s="37"/>
-      <c r="C243" s="37"/>
-      <c r="D243" s="38"/>
-      <c r="E243" s="38"/>
-      <c r="F243" s="38"/>
-      <c r="G243" s="38"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="23"/>
+      <c r="G243" s="23"/>
       <c r="H243" s="17"/>
       <c r="J243" s="17"/>
       <c r="K243" s="17"/>
@@ -15289,14 +15402,14 @@
       <c r="BK243" s="17"/>
       <c r="BL243" s="17"/>
     </row>
-    <row r="244" spans="1:64">
+    <row r="244" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
-      <c r="B244" s="37"/>
-      <c r="C244" s="37"/>
-      <c r="D244" s="38"/>
-      <c r="E244" s="38"/>
-      <c r="F244" s="38"/>
-      <c r="G244" s="38"/>
+      <c r="B244" s="22"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="23"/>
+      <c r="G244" s="23"/>
       <c r="H244" s="17"/>
       <c r="J244" s="17"/>
       <c r="K244" s="17"/>
@@ -15354,14 +15467,14 @@
       <c r="BK244" s="17"/>
       <c r="BL244" s="17"/>
     </row>
-    <row r="245" spans="1:64">
+    <row r="245" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="37"/>
-      <c r="C245" s="37"/>
-      <c r="D245" s="38"/>
-      <c r="E245" s="38"/>
-      <c r="F245" s="38"/>
-      <c r="G245" s="38"/>
+      <c r="B245" s="22"/>
+      <c r="C245" s="22"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23"/>
+      <c r="G245" s="23"/>
       <c r="H245" s="17"/>
       <c r="J245" s="17"/>
       <c r="K245" s="17"/>
@@ -15419,1631 +15532,6 @@
       <c r="BK245" s="17"/>
       <c r="BL245" s="17"/>
     </row>
-    <row r="246" spans="1:64">
-      <c r="A246" s="17"/>
-      <c r="B246" s="37"/>
-      <c r="C246" s="37"/>
-      <c r="D246" s="38"/>
-      <c r="E246" s="38"/>
-      <c r="F246" s="38"/>
-      <c r="G246" s="38"/>
-      <c r="H246" s="17"/>
-      <c r="J246" s="17"/>
-      <c r="K246" s="17"/>
-      <c r="L246" s="17"/>
-      <c r="M246" s="17"/>
-      <c r="N246" s="17"/>
-      <c r="O246" s="17"/>
-      <c r="P246" s="17"/>
-      <c r="Q246" s="17"/>
-      <c r="R246" s="17"/>
-      <c r="S246" s="17"/>
-      <c r="T246" s="17"/>
-      <c r="U246" s="17"/>
-      <c r="V246" s="17"/>
-      <c r="W246" s="17"/>
-      <c r="X246" s="17"/>
-      <c r="Y246" s="17"/>
-      <c r="Z246" s="17"/>
-      <c r="AA246" s="17"/>
-      <c r="AB246" s="17"/>
-      <c r="AC246" s="17"/>
-      <c r="AD246" s="17"/>
-      <c r="AE246" s="17"/>
-      <c r="AF246" s="17"/>
-      <c r="AG246" s="17"/>
-      <c r="AH246" s="17"/>
-      <c r="AI246" s="17"/>
-      <c r="AJ246" s="17"/>
-      <c r="AK246" s="17"/>
-      <c r="AL246" s="17"/>
-      <c r="AM246" s="17"/>
-      <c r="AN246" s="17"/>
-      <c r="AO246" s="17"/>
-      <c r="AP246" s="17"/>
-      <c r="AQ246" s="17"/>
-      <c r="AR246" s="17"/>
-      <c r="AS246" s="17"/>
-      <c r="AT246" s="17"/>
-      <c r="AU246" s="17"/>
-      <c r="AV246" s="17"/>
-      <c r="AW246" s="17"/>
-      <c r="AX246" s="17"/>
-      <c r="AY246" s="17"/>
-      <c r="AZ246" s="17"/>
-      <c r="BA246" s="17"/>
-      <c r="BB246" s="17"/>
-      <c r="BC246" s="17"/>
-      <c r="BD246" s="17"/>
-      <c r="BE246" s="17"/>
-      <c r="BF246" s="17"/>
-      <c r="BG246" s="17"/>
-      <c r="BH246" s="17"/>
-      <c r="BI246" s="17"/>
-      <c r="BJ246" s="17"/>
-      <c r="BK246" s="17"/>
-      <c r="BL246" s="17"/>
-    </row>
-    <row r="247" spans="1:64">
-      <c r="A247" s="17"/>
-      <c r="B247" s="37"/>
-      <c r="C247" s="37"/>
-      <c r="D247" s="38"/>
-      <c r="E247" s="38"/>
-      <c r="F247" s="38"/>
-      <c r="G247" s="38"/>
-      <c r="H247" s="17"/>
-      <c r="J247" s="17"/>
-      <c r="K247" s="17"/>
-      <c r="L247" s="17"/>
-      <c r="M247" s="17"/>
-      <c r="N247" s="17"/>
-      <c r="O247" s="17"/>
-      <c r="P247" s="17"/>
-      <c r="Q247" s="17"/>
-      <c r="R247" s="17"/>
-      <c r="S247" s="17"/>
-      <c r="T247" s="17"/>
-      <c r="U247" s="17"/>
-      <c r="V247" s="17"/>
-      <c r="W247" s="17"/>
-      <c r="X247" s="17"/>
-      <c r="Y247" s="17"/>
-      <c r="Z247" s="17"/>
-      <c r="AA247" s="17"/>
-      <c r="AB247" s="17"/>
-      <c r="AC247" s="17"/>
-      <c r="AD247" s="17"/>
-      <c r="AE247" s="17"/>
-      <c r="AF247" s="17"/>
-      <c r="AG247" s="17"/>
-      <c r="AH247" s="17"/>
-      <c r="AI247" s="17"/>
-      <c r="AJ247" s="17"/>
-      <c r="AK247" s="17"/>
-      <c r="AL247" s="17"/>
-      <c r="AM247" s="17"/>
-      <c r="AN247" s="17"/>
-      <c r="AO247" s="17"/>
-      <c r="AP247" s="17"/>
-      <c r="AQ247" s="17"/>
-      <c r="AR247" s="17"/>
-      <c r="AS247" s="17"/>
-      <c r="AT247" s="17"/>
-      <c r="AU247" s="17"/>
-      <c r="AV247" s="17"/>
-      <c r="AW247" s="17"/>
-      <c r="AX247" s="17"/>
-      <c r="AY247" s="17"/>
-      <c r="AZ247" s="17"/>
-      <c r="BA247" s="17"/>
-      <c r="BB247" s="17"/>
-      <c r="BC247" s="17"/>
-      <c r="BD247" s="17"/>
-      <c r="BE247" s="17"/>
-      <c r="BF247" s="17"/>
-      <c r="BG247" s="17"/>
-      <c r="BH247" s="17"/>
-      <c r="BI247" s="17"/>
-      <c r="BJ247" s="17"/>
-      <c r="BK247" s="17"/>
-      <c r="BL247" s="17"/>
-    </row>
-    <row r="248" spans="1:64">
-      <c r="A248" s="17"/>
-      <c r="B248" s="37"/>
-      <c r="C248" s="37"/>
-      <c r="D248" s="38"/>
-      <c r="E248" s="38"/>
-      <c r="F248" s="38"/>
-      <c r="G248" s="38"/>
-      <c r="H248" s="17"/>
-      <c r="J248" s="17"/>
-      <c r="K248" s="17"/>
-      <c r="L248" s="17"/>
-      <c r="M248" s="17"/>
-      <c r="N248" s="17"/>
-      <c r="O248" s="17"/>
-      <c r="P248" s="17"/>
-      <c r="Q248" s="17"/>
-      <c r="R248" s="17"/>
-      <c r="S248" s="17"/>
-      <c r="T248" s="17"/>
-      <c r="U248" s="17"/>
-      <c r="V248" s="17"/>
-      <c r="W248" s="17"/>
-      <c r="X248" s="17"/>
-      <c r="Y248" s="17"/>
-      <c r="Z248" s="17"/>
-      <c r="AA248" s="17"/>
-      <c r="AB248" s="17"/>
-      <c r="AC248" s="17"/>
-      <c r="AD248" s="17"/>
-      <c r="AE248" s="17"/>
-      <c r="AF248" s="17"/>
-      <c r="AG248" s="17"/>
-      <c r="AH248" s="17"/>
-      <c r="AI248" s="17"/>
-      <c r="AJ248" s="17"/>
-      <c r="AK248" s="17"/>
-      <c r="AL248" s="17"/>
-      <c r="AM248" s="17"/>
-      <c r="AN248" s="17"/>
-      <c r="AO248" s="17"/>
-      <c r="AP248" s="17"/>
-      <c r="AQ248" s="17"/>
-      <c r="AR248" s="17"/>
-      <c r="AS248" s="17"/>
-      <c r="AT248" s="17"/>
-      <c r="AU248" s="17"/>
-      <c r="AV248" s="17"/>
-      <c r="AW248" s="17"/>
-      <c r="AX248" s="17"/>
-      <c r="AY248" s="17"/>
-      <c r="AZ248" s="17"/>
-      <c r="BA248" s="17"/>
-      <c r="BB248" s="17"/>
-      <c r="BC248" s="17"/>
-      <c r="BD248" s="17"/>
-      <c r="BE248" s="17"/>
-      <c r="BF248" s="17"/>
-      <c r="BG248" s="17"/>
-      <c r="BH248" s="17"/>
-      <c r="BI248" s="17"/>
-      <c r="BJ248" s="17"/>
-      <c r="BK248" s="17"/>
-      <c r="BL248" s="17"/>
-    </row>
-    <row r="249" spans="1:64">
-      <c r="A249" s="17"/>
-      <c r="B249" s="37"/>
-      <c r="C249" s="37"/>
-      <c r="D249" s="38"/>
-      <c r="E249" s="38"/>
-      <c r="F249" s="38"/>
-      <c r="G249" s="38"/>
-      <c r="H249" s="17"/>
-      <c r="J249" s="17"/>
-      <c r="K249" s="17"/>
-      <c r="L249" s="17"/>
-      <c r="M249" s="17"/>
-      <c r="N249" s="17"/>
-      <c r="O249" s="17"/>
-      <c r="P249" s="17"/>
-      <c r="Q249" s="17"/>
-      <c r="R249" s="17"/>
-      <c r="S249" s="17"/>
-      <c r="T249" s="17"/>
-      <c r="U249" s="17"/>
-      <c r="V249" s="17"/>
-      <c r="W249" s="17"/>
-      <c r="X249" s="17"/>
-      <c r="Y249" s="17"/>
-      <c r="Z249" s="17"/>
-      <c r="AA249" s="17"/>
-      <c r="AB249" s="17"/>
-      <c r="AC249" s="17"/>
-      <c r="AD249" s="17"/>
-      <c r="AE249" s="17"/>
-      <c r="AF249" s="17"/>
-      <c r="AG249" s="17"/>
-      <c r="AH249" s="17"/>
-      <c r="AI249" s="17"/>
-      <c r="AJ249" s="17"/>
-      <c r="AK249" s="17"/>
-      <c r="AL249" s="17"/>
-      <c r="AM249" s="17"/>
-      <c r="AN249" s="17"/>
-      <c r="AO249" s="17"/>
-      <c r="AP249" s="17"/>
-      <c r="AQ249" s="17"/>
-      <c r="AR249" s="17"/>
-      <c r="AS249" s="17"/>
-      <c r="AT249" s="17"/>
-      <c r="AU249" s="17"/>
-      <c r="AV249" s="17"/>
-      <c r="AW249" s="17"/>
-      <c r="AX249" s="17"/>
-      <c r="AY249" s="17"/>
-      <c r="AZ249" s="17"/>
-      <c r="BA249" s="17"/>
-      <c r="BB249" s="17"/>
-      <c r="BC249" s="17"/>
-      <c r="BD249" s="17"/>
-      <c r="BE249" s="17"/>
-      <c r="BF249" s="17"/>
-      <c r="BG249" s="17"/>
-      <c r="BH249" s="17"/>
-      <c r="BI249" s="17"/>
-      <c r="BJ249" s="17"/>
-      <c r="BK249" s="17"/>
-      <c r="BL249" s="17"/>
-    </row>
-    <row r="250" spans="1:64">
-      <c r="A250" s="17"/>
-      <c r="B250" s="37"/>
-      <c r="C250" s="37"/>
-      <c r="D250" s="38"/>
-      <c r="E250" s="38"/>
-      <c r="F250" s="38"/>
-      <c r="G250" s="38"/>
-      <c r="H250" s="17"/>
-      <c r="J250" s="17"/>
-      <c r="K250" s="17"/>
-      <c r="L250" s="17"/>
-      <c r="M250" s="17"/>
-      <c r="N250" s="17"/>
-      <c r="O250" s="17"/>
-      <c r="P250" s="17"/>
-      <c r="Q250" s="17"/>
-      <c r="R250" s="17"/>
-      <c r="S250" s="17"/>
-      <c r="T250" s="17"/>
-      <c r="U250" s="17"/>
-      <c r="V250" s="17"/>
-      <c r="W250" s="17"/>
-      <c r="X250" s="17"/>
-      <c r="Y250" s="17"/>
-      <c r="Z250" s="17"/>
-      <c r="AA250" s="17"/>
-      <c r="AB250" s="17"/>
-      <c r="AC250" s="17"/>
-      <c r="AD250" s="17"/>
-      <c r="AE250" s="17"/>
-      <c r="AF250" s="17"/>
-      <c r="AG250" s="17"/>
-      <c r="AH250" s="17"/>
-      <c r="AI250" s="17"/>
-      <c r="AJ250" s="17"/>
-      <c r="AK250" s="17"/>
-      <c r="AL250" s="17"/>
-      <c r="AM250" s="17"/>
-      <c r="AN250" s="17"/>
-      <c r="AO250" s="17"/>
-      <c r="AP250" s="17"/>
-      <c r="AQ250" s="17"/>
-      <c r="AR250" s="17"/>
-      <c r="AS250" s="17"/>
-      <c r="AT250" s="17"/>
-      <c r="AU250" s="17"/>
-      <c r="AV250" s="17"/>
-      <c r="AW250" s="17"/>
-      <c r="AX250" s="17"/>
-      <c r="AY250" s="17"/>
-      <c r="AZ250" s="17"/>
-      <c r="BA250" s="17"/>
-      <c r="BB250" s="17"/>
-      <c r="BC250" s="17"/>
-      <c r="BD250" s="17"/>
-      <c r="BE250" s="17"/>
-      <c r="BF250" s="17"/>
-      <c r="BG250" s="17"/>
-      <c r="BH250" s="17"/>
-      <c r="BI250" s="17"/>
-      <c r="BJ250" s="17"/>
-      <c r="BK250" s="17"/>
-      <c r="BL250" s="17"/>
-    </row>
-    <row r="251" spans="1:64">
-      <c r="A251" s="17"/>
-      <c r="B251" s="37"/>
-      <c r="C251" s="37"/>
-      <c r="D251" s="38"/>
-      <c r="E251" s="38"/>
-      <c r="F251" s="38"/>
-      <c r="G251" s="38"/>
-      <c r="H251" s="17"/>
-      <c r="J251" s="17"/>
-      <c r="K251" s="17"/>
-      <c r="L251" s="17"/>
-      <c r="M251" s="17"/>
-      <c r="N251" s="17"/>
-      <c r="O251" s="17"/>
-      <c r="P251" s="17"/>
-      <c r="Q251" s="17"/>
-      <c r="R251" s="17"/>
-      <c r="S251" s="17"/>
-      <c r="T251" s="17"/>
-      <c r="U251" s="17"/>
-      <c r="V251" s="17"/>
-      <c r="W251" s="17"/>
-      <c r="X251" s="17"/>
-      <c r="Y251" s="17"/>
-      <c r="Z251" s="17"/>
-      <c r="AA251" s="17"/>
-      <c r="AB251" s="17"/>
-      <c r="AC251" s="17"/>
-      <c r="AD251" s="17"/>
-      <c r="AE251" s="17"/>
-      <c r="AF251" s="17"/>
-      <c r="AG251" s="17"/>
-      <c r="AH251" s="17"/>
-      <c r="AI251" s="17"/>
-      <c r="AJ251" s="17"/>
-      <c r="AK251" s="17"/>
-      <c r="AL251" s="17"/>
-      <c r="AM251" s="17"/>
-      <c r="AN251" s="17"/>
-      <c r="AO251" s="17"/>
-      <c r="AP251" s="17"/>
-      <c r="AQ251" s="17"/>
-      <c r="AR251" s="17"/>
-      <c r="AS251" s="17"/>
-      <c r="AT251" s="17"/>
-      <c r="AU251" s="17"/>
-      <c r="AV251" s="17"/>
-      <c r="AW251" s="17"/>
-      <c r="AX251" s="17"/>
-      <c r="AY251" s="17"/>
-      <c r="AZ251" s="17"/>
-      <c r="BA251" s="17"/>
-      <c r="BB251" s="17"/>
-      <c r="BC251" s="17"/>
-      <c r="BD251" s="17"/>
-      <c r="BE251" s="17"/>
-      <c r="BF251" s="17"/>
-      <c r="BG251" s="17"/>
-      <c r="BH251" s="17"/>
-      <c r="BI251" s="17"/>
-      <c r="BJ251" s="17"/>
-      <c r="BK251" s="17"/>
-      <c r="BL251" s="17"/>
-    </row>
-    <row r="252" spans="1:64">
-      <c r="A252" s="17"/>
-      <c r="B252" s="37"/>
-      <c r="C252" s="37"/>
-      <c r="D252" s="38"/>
-      <c r="E252" s="38"/>
-      <c r="F252" s="38"/>
-      <c r="G252" s="38"/>
-      <c r="H252" s="17"/>
-      <c r="J252" s="17"/>
-      <c r="K252" s="17"/>
-      <c r="L252" s="17"/>
-      <c r="M252" s="17"/>
-      <c r="N252" s="17"/>
-      <c r="O252" s="17"/>
-      <c r="P252" s="17"/>
-      <c r="Q252" s="17"/>
-      <c r="R252" s="17"/>
-      <c r="S252" s="17"/>
-      <c r="T252" s="17"/>
-      <c r="U252" s="17"/>
-      <c r="V252" s="17"/>
-      <c r="W252" s="17"/>
-      <c r="X252" s="17"/>
-      <c r="Y252" s="17"/>
-      <c r="Z252" s="17"/>
-      <c r="AA252" s="17"/>
-      <c r="AB252" s="17"/>
-      <c r="AC252" s="17"/>
-      <c r="AD252" s="17"/>
-      <c r="AE252" s="17"/>
-      <c r="AF252" s="17"/>
-      <c r="AG252" s="17"/>
-      <c r="AH252" s="17"/>
-      <c r="AI252" s="17"/>
-      <c r="AJ252" s="17"/>
-      <c r="AK252" s="17"/>
-      <c r="AL252" s="17"/>
-      <c r="AM252" s="17"/>
-      <c r="AN252" s="17"/>
-      <c r="AO252" s="17"/>
-      <c r="AP252" s="17"/>
-      <c r="AQ252" s="17"/>
-      <c r="AR252" s="17"/>
-      <c r="AS252" s="17"/>
-      <c r="AT252" s="17"/>
-      <c r="AU252" s="17"/>
-      <c r="AV252" s="17"/>
-      <c r="AW252" s="17"/>
-      <c r="AX252" s="17"/>
-      <c r="AY252" s="17"/>
-      <c r="AZ252" s="17"/>
-      <c r="BA252" s="17"/>
-      <c r="BB252" s="17"/>
-      <c r="BC252" s="17"/>
-      <c r="BD252" s="17"/>
-      <c r="BE252" s="17"/>
-      <c r="BF252" s="17"/>
-      <c r="BG252" s="17"/>
-      <c r="BH252" s="17"/>
-      <c r="BI252" s="17"/>
-      <c r="BJ252" s="17"/>
-      <c r="BK252" s="17"/>
-      <c r="BL252" s="17"/>
-    </row>
-    <row r="253" spans="1:64">
-      <c r="A253" s="17"/>
-      <c r="B253" s="37"/>
-      <c r="C253" s="37"/>
-      <c r="D253" s="38"/>
-      <c r="E253" s="38"/>
-      <c r="F253" s="38"/>
-      <c r="G253" s="38"/>
-      <c r="H253" s="17"/>
-      <c r="J253" s="17"/>
-      <c r="K253" s="17"/>
-      <c r="L253" s="17"/>
-      <c r="M253" s="17"/>
-      <c r="N253" s="17"/>
-      <c r="O253" s="17"/>
-      <c r="P253" s="17"/>
-      <c r="Q253" s="17"/>
-      <c r="R253" s="17"/>
-      <c r="S253" s="17"/>
-      <c r="T253" s="17"/>
-      <c r="U253" s="17"/>
-      <c r="V253" s="17"/>
-      <c r="W253" s="17"/>
-      <c r="X253" s="17"/>
-      <c r="Y253" s="17"/>
-      <c r="Z253" s="17"/>
-      <c r="AA253" s="17"/>
-      <c r="AB253" s="17"/>
-      <c r="AC253" s="17"/>
-      <c r="AD253" s="17"/>
-      <c r="AE253" s="17"/>
-      <c r="AF253" s="17"/>
-      <c r="AG253" s="17"/>
-      <c r="AH253" s="17"/>
-      <c r="AI253" s="17"/>
-      <c r="AJ253" s="17"/>
-      <c r="AK253" s="17"/>
-      <c r="AL253" s="17"/>
-      <c r="AM253" s="17"/>
-      <c r="AN253" s="17"/>
-      <c r="AO253" s="17"/>
-      <c r="AP253" s="17"/>
-      <c r="AQ253" s="17"/>
-      <c r="AR253" s="17"/>
-      <c r="AS253" s="17"/>
-      <c r="AT253" s="17"/>
-      <c r="AU253" s="17"/>
-      <c r="AV253" s="17"/>
-      <c r="AW253" s="17"/>
-      <c r="AX253" s="17"/>
-      <c r="AY253" s="17"/>
-      <c r="AZ253" s="17"/>
-      <c r="BA253" s="17"/>
-      <c r="BB253" s="17"/>
-      <c r="BC253" s="17"/>
-      <c r="BD253" s="17"/>
-      <c r="BE253" s="17"/>
-      <c r="BF253" s="17"/>
-      <c r="BG253" s="17"/>
-      <c r="BH253" s="17"/>
-      <c r="BI253" s="17"/>
-      <c r="BJ253" s="17"/>
-      <c r="BK253" s="17"/>
-      <c r="BL253" s="17"/>
-    </row>
-    <row r="254" spans="1:64">
-      <c r="A254" s="17"/>
-      <c r="B254" s="37"/>
-      <c r="C254" s="37"/>
-      <c r="D254" s="38"/>
-      <c r="E254" s="38"/>
-      <c r="F254" s="38"/>
-      <c r="G254" s="38"/>
-      <c r="H254" s="17"/>
-      <c r="J254" s="17"/>
-      <c r="K254" s="17"/>
-      <c r="L254" s="17"/>
-      <c r="M254" s="17"/>
-      <c r="N254" s="17"/>
-      <c r="O254" s="17"/>
-      <c r="P254" s="17"/>
-      <c r="Q254" s="17"/>
-      <c r="R254" s="17"/>
-      <c r="S254" s="17"/>
-      <c r="T254" s="17"/>
-      <c r="U254" s="17"/>
-      <c r="V254" s="17"/>
-      <c r="W254" s="17"/>
-      <c r="X254" s="17"/>
-      <c r="Y254" s="17"/>
-      <c r="Z254" s="17"/>
-      <c r="AA254" s="17"/>
-      <c r="AB254" s="17"/>
-      <c r="AC254" s="17"/>
-      <c r="AD254" s="17"/>
-      <c r="AE254" s="17"/>
-      <c r="AF254" s="17"/>
-      <c r="AG254" s="17"/>
-      <c r="AH254" s="17"/>
-      <c r="AI254" s="17"/>
-      <c r="AJ254" s="17"/>
-      <c r="AK254" s="17"/>
-      <c r="AL254" s="17"/>
-      <c r="AM254" s="17"/>
-      <c r="AN254" s="17"/>
-      <c r="AO254" s="17"/>
-      <c r="AP254" s="17"/>
-      <c r="AQ254" s="17"/>
-      <c r="AR254" s="17"/>
-      <c r="AS254" s="17"/>
-      <c r="AT254" s="17"/>
-      <c r="AU254" s="17"/>
-      <c r="AV254" s="17"/>
-      <c r="AW254" s="17"/>
-      <c r="AX254" s="17"/>
-      <c r="AY254" s="17"/>
-      <c r="AZ254" s="17"/>
-      <c r="BA254" s="17"/>
-      <c r="BB254" s="17"/>
-      <c r="BC254" s="17"/>
-      <c r="BD254" s="17"/>
-      <c r="BE254" s="17"/>
-      <c r="BF254" s="17"/>
-      <c r="BG254" s="17"/>
-      <c r="BH254" s="17"/>
-      <c r="BI254" s="17"/>
-      <c r="BJ254" s="17"/>
-      <c r="BK254" s="17"/>
-      <c r="BL254" s="17"/>
-    </row>
-    <row r="255" spans="1:64">
-      <c r="A255" s="17"/>
-      <c r="B255" s="37"/>
-      <c r="C255" s="37"/>
-      <c r="D255" s="38"/>
-      <c r="E255" s="38"/>
-      <c r="F255" s="38"/>
-      <c r="G255" s="38"/>
-      <c r="H255" s="17"/>
-      <c r="J255" s="17"/>
-      <c r="K255" s="17"/>
-      <c r="L255" s="17"/>
-      <c r="M255" s="17"/>
-      <c r="N255" s="17"/>
-      <c r="O255" s="17"/>
-      <c r="P255" s="17"/>
-      <c r="Q255" s="17"/>
-      <c r="R255" s="17"/>
-      <c r="S255" s="17"/>
-      <c r="T255" s="17"/>
-      <c r="U255" s="17"/>
-      <c r="V255" s="17"/>
-      <c r="W255" s="17"/>
-      <c r="X255" s="17"/>
-      <c r="Y255" s="17"/>
-      <c r="Z255" s="17"/>
-      <c r="AA255" s="17"/>
-      <c r="AB255" s="17"/>
-      <c r="AC255" s="17"/>
-      <c r="AD255" s="17"/>
-      <c r="AE255" s="17"/>
-      <c r="AF255" s="17"/>
-      <c r="AG255" s="17"/>
-      <c r="AH255" s="17"/>
-      <c r="AI255" s="17"/>
-      <c r="AJ255" s="17"/>
-      <c r="AK255" s="17"/>
-      <c r="AL255" s="17"/>
-      <c r="AM255" s="17"/>
-      <c r="AN255" s="17"/>
-      <c r="AO255" s="17"/>
-      <c r="AP255" s="17"/>
-      <c r="AQ255" s="17"/>
-      <c r="AR255" s="17"/>
-      <c r="AS255" s="17"/>
-      <c r="AT255" s="17"/>
-      <c r="AU255" s="17"/>
-      <c r="AV255" s="17"/>
-      <c r="AW255" s="17"/>
-      <c r="AX255" s="17"/>
-      <c r="AY255" s="17"/>
-      <c r="AZ255" s="17"/>
-      <c r="BA255" s="17"/>
-      <c r="BB255" s="17"/>
-      <c r="BC255" s="17"/>
-      <c r="BD255" s="17"/>
-      <c r="BE255" s="17"/>
-      <c r="BF255" s="17"/>
-      <c r="BG255" s="17"/>
-      <c r="BH255" s="17"/>
-      <c r="BI255" s="17"/>
-      <c r="BJ255" s="17"/>
-      <c r="BK255" s="17"/>
-      <c r="BL255" s="17"/>
-    </row>
-    <row r="256" spans="1:64">
-      <c r="A256" s="17"/>
-      <c r="B256" s="37"/>
-      <c r="C256" s="37"/>
-      <c r="D256" s="38"/>
-      <c r="E256" s="38"/>
-      <c r="F256" s="38"/>
-      <c r="G256" s="38"/>
-      <c r="H256" s="17"/>
-      <c r="J256" s="17"/>
-      <c r="K256" s="17"/>
-      <c r="L256" s="17"/>
-      <c r="M256" s="17"/>
-      <c r="N256" s="17"/>
-      <c r="O256" s="17"/>
-      <c r="P256" s="17"/>
-      <c r="Q256" s="17"/>
-      <c r="R256" s="17"/>
-      <c r="S256" s="17"/>
-      <c r="T256" s="17"/>
-      <c r="U256" s="17"/>
-      <c r="V256" s="17"/>
-      <c r="W256" s="17"/>
-      <c r="X256" s="17"/>
-      <c r="Y256" s="17"/>
-      <c r="Z256" s="17"/>
-      <c r="AA256" s="17"/>
-      <c r="AB256" s="17"/>
-      <c r="AC256" s="17"/>
-      <c r="AD256" s="17"/>
-      <c r="AE256" s="17"/>
-      <c r="AF256" s="17"/>
-      <c r="AG256" s="17"/>
-      <c r="AH256" s="17"/>
-      <c r="AI256" s="17"/>
-      <c r="AJ256" s="17"/>
-      <c r="AK256" s="17"/>
-      <c r="AL256" s="17"/>
-      <c r="AM256" s="17"/>
-      <c r="AN256" s="17"/>
-      <c r="AO256" s="17"/>
-      <c r="AP256" s="17"/>
-      <c r="AQ256" s="17"/>
-      <c r="AR256" s="17"/>
-      <c r="AS256" s="17"/>
-      <c r="AT256" s="17"/>
-      <c r="AU256" s="17"/>
-      <c r="AV256" s="17"/>
-      <c r="AW256" s="17"/>
-      <c r="AX256" s="17"/>
-      <c r="AY256" s="17"/>
-      <c r="AZ256" s="17"/>
-      <c r="BA256" s="17"/>
-      <c r="BB256" s="17"/>
-      <c r="BC256" s="17"/>
-      <c r="BD256" s="17"/>
-      <c r="BE256" s="17"/>
-      <c r="BF256" s="17"/>
-      <c r="BG256" s="17"/>
-      <c r="BH256" s="17"/>
-      <c r="BI256" s="17"/>
-      <c r="BJ256" s="17"/>
-      <c r="BK256" s="17"/>
-      <c r="BL256" s="17"/>
-    </row>
-    <row r="257" spans="1:64">
-      <c r="A257" s="17"/>
-      <c r="B257" s="37"/>
-      <c r="C257" s="37"/>
-      <c r="D257" s="38"/>
-      <c r="E257" s="38"/>
-      <c r="F257" s="38"/>
-      <c r="G257" s="38"/>
-      <c r="H257" s="17"/>
-      <c r="J257" s="17"/>
-      <c r="K257" s="17"/>
-      <c r="L257" s="17"/>
-      <c r="M257" s="17"/>
-      <c r="N257" s="17"/>
-      <c r="O257" s="17"/>
-      <c r="P257" s="17"/>
-      <c r="Q257" s="17"/>
-      <c r="R257" s="17"/>
-      <c r="S257" s="17"/>
-      <c r="T257" s="17"/>
-      <c r="U257" s="17"/>
-      <c r="V257" s="17"/>
-      <c r="W257" s="17"/>
-      <c r="X257" s="17"/>
-      <c r="Y257" s="17"/>
-      <c r="Z257" s="17"/>
-      <c r="AA257" s="17"/>
-      <c r="AB257" s="17"/>
-      <c r="AC257" s="17"/>
-      <c r="AD257" s="17"/>
-      <c r="AE257" s="17"/>
-      <c r="AF257" s="17"/>
-      <c r="AG257" s="17"/>
-      <c r="AH257" s="17"/>
-      <c r="AI257" s="17"/>
-      <c r="AJ257" s="17"/>
-      <c r="AK257" s="17"/>
-      <c r="AL257" s="17"/>
-      <c r="AM257" s="17"/>
-      <c r="AN257" s="17"/>
-      <c r="AO257" s="17"/>
-      <c r="AP257" s="17"/>
-      <c r="AQ257" s="17"/>
-      <c r="AR257" s="17"/>
-      <c r="AS257" s="17"/>
-      <c r="AT257" s="17"/>
-      <c r="AU257" s="17"/>
-      <c r="AV257" s="17"/>
-      <c r="AW257" s="17"/>
-      <c r="AX257" s="17"/>
-      <c r="AY257" s="17"/>
-      <c r="AZ257" s="17"/>
-      <c r="BA257" s="17"/>
-      <c r="BB257" s="17"/>
-      <c r="BC257" s="17"/>
-      <c r="BD257" s="17"/>
-      <c r="BE257" s="17"/>
-      <c r="BF257" s="17"/>
-      <c r="BG257" s="17"/>
-      <c r="BH257" s="17"/>
-      <c r="BI257" s="17"/>
-      <c r="BJ257" s="17"/>
-      <c r="BK257" s="17"/>
-      <c r="BL257" s="17"/>
-    </row>
-    <row r="258" spans="1:64">
-      <c r="A258" s="17"/>
-      <c r="B258" s="37"/>
-      <c r="C258" s="37"/>
-      <c r="D258" s="38"/>
-      <c r="E258" s="38"/>
-      <c r="F258" s="38"/>
-      <c r="G258" s="38"/>
-      <c r="H258" s="17"/>
-      <c r="J258" s="17"/>
-      <c r="K258" s="17"/>
-      <c r="L258" s="17"/>
-      <c r="M258" s="17"/>
-      <c r="N258" s="17"/>
-      <c r="O258" s="17"/>
-      <c r="P258" s="17"/>
-      <c r="Q258" s="17"/>
-      <c r="R258" s="17"/>
-      <c r="S258" s="17"/>
-      <c r="T258" s="17"/>
-      <c r="U258" s="17"/>
-      <c r="V258" s="17"/>
-      <c r="W258" s="17"/>
-      <c r="X258" s="17"/>
-      <c r="Y258" s="17"/>
-      <c r="Z258" s="17"/>
-      <c r="AA258" s="17"/>
-      <c r="AB258" s="17"/>
-      <c r="AC258" s="17"/>
-      <c r="AD258" s="17"/>
-      <c r="AE258" s="17"/>
-      <c r="AF258" s="17"/>
-      <c r="AG258" s="17"/>
-      <c r="AH258" s="17"/>
-      <c r="AI258" s="17"/>
-      <c r="AJ258" s="17"/>
-      <c r="AK258" s="17"/>
-      <c r="AL258" s="17"/>
-      <c r="AM258" s="17"/>
-      <c r="AN258" s="17"/>
-      <c r="AO258" s="17"/>
-      <c r="AP258" s="17"/>
-      <c r="AQ258" s="17"/>
-      <c r="AR258" s="17"/>
-      <c r="AS258" s="17"/>
-      <c r="AT258" s="17"/>
-      <c r="AU258" s="17"/>
-      <c r="AV258" s="17"/>
-      <c r="AW258" s="17"/>
-      <c r="AX258" s="17"/>
-      <c r="AY258" s="17"/>
-      <c r="AZ258" s="17"/>
-      <c r="BA258" s="17"/>
-      <c r="BB258" s="17"/>
-      <c r="BC258" s="17"/>
-      <c r="BD258" s="17"/>
-      <c r="BE258" s="17"/>
-      <c r="BF258" s="17"/>
-      <c r="BG258" s="17"/>
-      <c r="BH258" s="17"/>
-      <c r="BI258" s="17"/>
-      <c r="BJ258" s="17"/>
-      <c r="BK258" s="17"/>
-      <c r="BL258" s="17"/>
-    </row>
-    <row r="259" spans="1:64">
-      <c r="A259" s="17"/>
-      <c r="B259" s="37"/>
-      <c r="C259" s="37"/>
-      <c r="D259" s="38"/>
-      <c r="E259" s="38"/>
-      <c r="F259" s="38"/>
-      <c r="G259" s="38"/>
-      <c r="H259" s="17"/>
-      <c r="J259" s="17"/>
-      <c r="K259" s="17"/>
-      <c r="L259" s="17"/>
-      <c r="M259" s="17"/>
-      <c r="N259" s="17"/>
-      <c r="O259" s="17"/>
-      <c r="P259" s="17"/>
-      <c r="Q259" s="17"/>
-      <c r="R259" s="17"/>
-      <c r="S259" s="17"/>
-      <c r="T259" s="17"/>
-      <c r="U259" s="17"/>
-      <c r="V259" s="17"/>
-      <c r="W259" s="17"/>
-      <c r="X259" s="17"/>
-      <c r="Y259" s="17"/>
-      <c r="Z259" s="17"/>
-      <c r="AA259" s="17"/>
-      <c r="AB259" s="17"/>
-      <c r="AC259" s="17"/>
-      <c r="AD259" s="17"/>
-      <c r="AE259" s="17"/>
-      <c r="AF259" s="17"/>
-      <c r="AG259" s="17"/>
-      <c r="AH259" s="17"/>
-      <c r="AI259" s="17"/>
-      <c r="AJ259" s="17"/>
-      <c r="AK259" s="17"/>
-      <c r="AL259" s="17"/>
-      <c r="AM259" s="17"/>
-      <c r="AN259" s="17"/>
-      <c r="AO259" s="17"/>
-      <c r="AP259" s="17"/>
-      <c r="AQ259" s="17"/>
-      <c r="AR259" s="17"/>
-      <c r="AS259" s="17"/>
-      <c r="AT259" s="17"/>
-      <c r="AU259" s="17"/>
-      <c r="AV259" s="17"/>
-      <c r="AW259" s="17"/>
-      <c r="AX259" s="17"/>
-      <c r="AY259" s="17"/>
-      <c r="AZ259" s="17"/>
-      <c r="BA259" s="17"/>
-      <c r="BB259" s="17"/>
-      <c r="BC259" s="17"/>
-      <c r="BD259" s="17"/>
-      <c r="BE259" s="17"/>
-      <c r="BF259" s="17"/>
-      <c r="BG259" s="17"/>
-      <c r="BH259" s="17"/>
-      <c r="BI259" s="17"/>
-      <c r="BJ259" s="17"/>
-      <c r="BK259" s="17"/>
-      <c r="BL259" s="17"/>
-    </row>
-    <row r="260" spans="1:64">
-      <c r="A260" s="17"/>
-      <c r="B260" s="37"/>
-      <c r="C260" s="37"/>
-      <c r="D260" s="38"/>
-      <c r="E260" s="38"/>
-      <c r="F260" s="38"/>
-      <c r="G260" s="38"/>
-      <c r="H260" s="17"/>
-      <c r="J260" s="17"/>
-      <c r="K260" s="17"/>
-      <c r="L260" s="17"/>
-      <c r="M260" s="17"/>
-      <c r="N260" s="17"/>
-      <c r="O260" s="17"/>
-      <c r="P260" s="17"/>
-      <c r="Q260" s="17"/>
-      <c r="R260" s="17"/>
-      <c r="S260" s="17"/>
-      <c r="T260" s="17"/>
-      <c r="U260" s="17"/>
-      <c r="V260" s="17"/>
-      <c r="W260" s="17"/>
-      <c r="X260" s="17"/>
-      <c r="Y260" s="17"/>
-      <c r="Z260" s="17"/>
-      <c r="AA260" s="17"/>
-      <c r="AB260" s="17"/>
-      <c r="AC260" s="17"/>
-      <c r="AD260" s="17"/>
-      <c r="AE260" s="17"/>
-      <c r="AF260" s="17"/>
-      <c r="AG260" s="17"/>
-      <c r="AH260" s="17"/>
-      <c r="AI260" s="17"/>
-      <c r="AJ260" s="17"/>
-      <c r="AK260" s="17"/>
-      <c r="AL260" s="17"/>
-      <c r="AM260" s="17"/>
-      <c r="AN260" s="17"/>
-      <c r="AO260" s="17"/>
-      <c r="AP260" s="17"/>
-      <c r="AQ260" s="17"/>
-      <c r="AR260" s="17"/>
-      <c r="AS260" s="17"/>
-      <c r="AT260" s="17"/>
-      <c r="AU260" s="17"/>
-      <c r="AV260" s="17"/>
-      <c r="AW260" s="17"/>
-      <c r="AX260" s="17"/>
-      <c r="AY260" s="17"/>
-      <c r="AZ260" s="17"/>
-      <c r="BA260" s="17"/>
-      <c r="BB260" s="17"/>
-      <c r="BC260" s="17"/>
-      <c r="BD260" s="17"/>
-      <c r="BE260" s="17"/>
-      <c r="BF260" s="17"/>
-      <c r="BG260" s="17"/>
-      <c r="BH260" s="17"/>
-      <c r="BI260" s="17"/>
-      <c r="BJ260" s="17"/>
-      <c r="BK260" s="17"/>
-      <c r="BL260" s="17"/>
-    </row>
-    <row r="261" spans="1:64">
-      <c r="A261" s="17"/>
-      <c r="B261" s="37"/>
-      <c r="C261" s="37"/>
-      <c r="D261" s="38"/>
-      <c r="E261" s="38"/>
-      <c r="F261" s="38"/>
-      <c r="G261" s="38"/>
-      <c r="H261" s="17"/>
-      <c r="J261" s="17"/>
-      <c r="K261" s="17"/>
-      <c r="L261" s="17"/>
-      <c r="M261" s="17"/>
-      <c r="N261" s="17"/>
-      <c r="O261" s="17"/>
-      <c r="P261" s="17"/>
-      <c r="Q261" s="17"/>
-      <c r="R261" s="17"/>
-      <c r="S261" s="17"/>
-      <c r="T261" s="17"/>
-      <c r="U261" s="17"/>
-      <c r="V261" s="17"/>
-      <c r="W261" s="17"/>
-      <c r="X261" s="17"/>
-      <c r="Y261" s="17"/>
-      <c r="Z261" s="17"/>
-      <c r="AA261" s="17"/>
-      <c r="AB261" s="17"/>
-      <c r="AC261" s="17"/>
-      <c r="AD261" s="17"/>
-      <c r="AE261" s="17"/>
-      <c r="AF261" s="17"/>
-      <c r="AG261" s="17"/>
-      <c r="AH261" s="17"/>
-      <c r="AI261" s="17"/>
-      <c r="AJ261" s="17"/>
-      <c r="AK261" s="17"/>
-      <c r="AL261" s="17"/>
-      <c r="AM261" s="17"/>
-      <c r="AN261" s="17"/>
-      <c r="AO261" s="17"/>
-      <c r="AP261" s="17"/>
-      <c r="AQ261" s="17"/>
-      <c r="AR261" s="17"/>
-      <c r="AS261" s="17"/>
-      <c r="AT261" s="17"/>
-      <c r="AU261" s="17"/>
-      <c r="AV261" s="17"/>
-      <c r="AW261" s="17"/>
-      <c r="AX261" s="17"/>
-      <c r="AY261" s="17"/>
-      <c r="AZ261" s="17"/>
-      <c r="BA261" s="17"/>
-      <c r="BB261" s="17"/>
-      <c r="BC261" s="17"/>
-      <c r="BD261" s="17"/>
-      <c r="BE261" s="17"/>
-      <c r="BF261" s="17"/>
-      <c r="BG261" s="17"/>
-      <c r="BH261" s="17"/>
-      <c r="BI261" s="17"/>
-      <c r="BJ261" s="17"/>
-      <c r="BK261" s="17"/>
-      <c r="BL261" s="17"/>
-    </row>
-    <row r="262" spans="1:64">
-      <c r="A262" s="17"/>
-      <c r="B262" s="37"/>
-      <c r="C262" s="37"/>
-      <c r="D262" s="38"/>
-      <c r="E262" s="38"/>
-      <c r="F262" s="38"/>
-      <c r="G262" s="38"/>
-      <c r="H262" s="17"/>
-      <c r="J262" s="17"/>
-      <c r="K262" s="17"/>
-      <c r="L262" s="17"/>
-      <c r="M262" s="17"/>
-      <c r="N262" s="17"/>
-      <c r="O262" s="17"/>
-      <c r="P262" s="17"/>
-      <c r="Q262" s="17"/>
-      <c r="R262" s="17"/>
-      <c r="S262" s="17"/>
-      <c r="T262" s="17"/>
-      <c r="U262" s="17"/>
-      <c r="V262" s="17"/>
-      <c r="W262" s="17"/>
-      <c r="X262" s="17"/>
-      <c r="Y262" s="17"/>
-      <c r="Z262" s="17"/>
-      <c r="AA262" s="17"/>
-      <c r="AB262" s="17"/>
-      <c r="AC262" s="17"/>
-      <c r="AD262" s="17"/>
-      <c r="AE262" s="17"/>
-      <c r="AF262" s="17"/>
-      <c r="AG262" s="17"/>
-      <c r="AH262" s="17"/>
-      <c r="AI262" s="17"/>
-      <c r="AJ262" s="17"/>
-      <c r="AK262" s="17"/>
-      <c r="AL262" s="17"/>
-      <c r="AM262" s="17"/>
-      <c r="AN262" s="17"/>
-      <c r="AO262" s="17"/>
-      <c r="AP262" s="17"/>
-      <c r="AQ262" s="17"/>
-      <c r="AR262" s="17"/>
-      <c r="AS262" s="17"/>
-      <c r="AT262" s="17"/>
-      <c r="AU262" s="17"/>
-      <c r="AV262" s="17"/>
-      <c r="AW262" s="17"/>
-      <c r="AX262" s="17"/>
-      <c r="AY262" s="17"/>
-      <c r="AZ262" s="17"/>
-      <c r="BA262" s="17"/>
-      <c r="BB262" s="17"/>
-      <c r="BC262" s="17"/>
-      <c r="BD262" s="17"/>
-      <c r="BE262" s="17"/>
-      <c r="BF262" s="17"/>
-      <c r="BG262" s="17"/>
-      <c r="BH262" s="17"/>
-      <c r="BI262" s="17"/>
-      <c r="BJ262" s="17"/>
-      <c r="BK262" s="17"/>
-      <c r="BL262" s="17"/>
-    </row>
-    <row r="263" spans="1:64">
-      <c r="A263" s="17"/>
-      <c r="B263" s="37"/>
-      <c r="C263" s="37"/>
-      <c r="D263" s="38"/>
-      <c r="E263" s="38"/>
-      <c r="F263" s="38"/>
-      <c r="G263" s="38"/>
-      <c r="H263" s="17"/>
-      <c r="J263" s="17"/>
-      <c r="K263" s="17"/>
-      <c r="L263" s="17"/>
-      <c r="M263" s="17"/>
-      <c r="N263" s="17"/>
-      <c r="O263" s="17"/>
-      <c r="P263" s="17"/>
-      <c r="Q263" s="17"/>
-      <c r="R263" s="17"/>
-      <c r="S263" s="17"/>
-      <c r="T263" s="17"/>
-      <c r="U263" s="17"/>
-      <c r="V263" s="17"/>
-      <c r="W263" s="17"/>
-      <c r="X263" s="17"/>
-      <c r="Y263" s="17"/>
-      <c r="Z263" s="17"/>
-      <c r="AA263" s="17"/>
-      <c r="AB263" s="17"/>
-      <c r="AC263" s="17"/>
-      <c r="AD263" s="17"/>
-      <c r="AE263" s="17"/>
-      <c r="AF263" s="17"/>
-      <c r="AG263" s="17"/>
-      <c r="AH263" s="17"/>
-      <c r="AI263" s="17"/>
-      <c r="AJ263" s="17"/>
-      <c r="AK263" s="17"/>
-      <c r="AL263" s="17"/>
-      <c r="AM263" s="17"/>
-      <c r="AN263" s="17"/>
-      <c r="AO263" s="17"/>
-      <c r="AP263" s="17"/>
-      <c r="AQ263" s="17"/>
-      <c r="AR263" s="17"/>
-      <c r="AS263" s="17"/>
-      <c r="AT263" s="17"/>
-      <c r="AU263" s="17"/>
-      <c r="AV263" s="17"/>
-      <c r="AW263" s="17"/>
-      <c r="AX263" s="17"/>
-      <c r="AY263" s="17"/>
-      <c r="AZ263" s="17"/>
-      <c r="BA263" s="17"/>
-      <c r="BB263" s="17"/>
-      <c r="BC263" s="17"/>
-      <c r="BD263" s="17"/>
-      <c r="BE263" s="17"/>
-      <c r="BF263" s="17"/>
-      <c r="BG263" s="17"/>
-      <c r="BH263" s="17"/>
-      <c r="BI263" s="17"/>
-      <c r="BJ263" s="17"/>
-      <c r="BK263" s="17"/>
-      <c r="BL263" s="17"/>
-    </row>
-    <row r="264" spans="1:64">
-      <c r="A264" s="17"/>
-      <c r="B264" s="37"/>
-      <c r="C264" s="37"/>
-      <c r="D264" s="38"/>
-      <c r="E264" s="38"/>
-      <c r="F264" s="38"/>
-      <c r="G264" s="38"/>
-      <c r="H264" s="17"/>
-      <c r="J264" s="17"/>
-      <c r="K264" s="17"/>
-      <c r="L264" s="17"/>
-      <c r="M264" s="17"/>
-      <c r="N264" s="17"/>
-      <c r="O264" s="17"/>
-      <c r="P264" s="17"/>
-      <c r="Q264" s="17"/>
-      <c r="R264" s="17"/>
-      <c r="S264" s="17"/>
-      <c r="T264" s="17"/>
-      <c r="U264" s="17"/>
-      <c r="V264" s="17"/>
-      <c r="W264" s="17"/>
-      <c r="X264" s="17"/>
-      <c r="Y264" s="17"/>
-      <c r="Z264" s="17"/>
-      <c r="AA264" s="17"/>
-      <c r="AB264" s="17"/>
-      <c r="AC264" s="17"/>
-      <c r="AD264" s="17"/>
-      <c r="AE264" s="17"/>
-      <c r="AF264" s="17"/>
-      <c r="AG264" s="17"/>
-      <c r="AH264" s="17"/>
-      <c r="AI264" s="17"/>
-      <c r="AJ264" s="17"/>
-      <c r="AK264" s="17"/>
-      <c r="AL264" s="17"/>
-      <c r="AM264" s="17"/>
-      <c r="AN264" s="17"/>
-      <c r="AO264" s="17"/>
-      <c r="AP264" s="17"/>
-      <c r="AQ264" s="17"/>
-      <c r="AR264" s="17"/>
-      <c r="AS264" s="17"/>
-      <c r="AT264" s="17"/>
-      <c r="AU264" s="17"/>
-      <c r="AV264" s="17"/>
-      <c r="AW264" s="17"/>
-      <c r="AX264" s="17"/>
-      <c r="AY264" s="17"/>
-      <c r="AZ264" s="17"/>
-      <c r="BA264" s="17"/>
-      <c r="BB264" s="17"/>
-      <c r="BC264" s="17"/>
-      <c r="BD264" s="17"/>
-      <c r="BE264" s="17"/>
-      <c r="BF264" s="17"/>
-      <c r="BG264" s="17"/>
-      <c r="BH264" s="17"/>
-      <c r="BI264" s="17"/>
-      <c r="BJ264" s="17"/>
-      <c r="BK264" s="17"/>
-      <c r="BL264" s="17"/>
-    </row>
-    <row r="265" spans="1:64">
-      <c r="A265" s="17"/>
-      <c r="B265" s="37"/>
-      <c r="C265" s="37"/>
-      <c r="D265" s="38"/>
-      <c r="E265" s="38"/>
-      <c r="F265" s="38"/>
-      <c r="G265" s="38"/>
-      <c r="H265" s="17"/>
-      <c r="J265" s="17"/>
-      <c r="K265" s="17"/>
-      <c r="L265" s="17"/>
-      <c r="M265" s="17"/>
-      <c r="N265" s="17"/>
-      <c r="O265" s="17"/>
-      <c r="P265" s="17"/>
-      <c r="Q265" s="17"/>
-      <c r="R265" s="17"/>
-      <c r="S265" s="17"/>
-      <c r="T265" s="17"/>
-      <c r="U265" s="17"/>
-      <c r="V265" s="17"/>
-      <c r="W265" s="17"/>
-      <c r="X265" s="17"/>
-      <c r="Y265" s="17"/>
-      <c r="Z265" s="17"/>
-      <c r="AA265" s="17"/>
-      <c r="AB265" s="17"/>
-      <c r="AC265" s="17"/>
-      <c r="AD265" s="17"/>
-      <c r="AE265" s="17"/>
-      <c r="AF265" s="17"/>
-      <c r="AG265" s="17"/>
-      <c r="AH265" s="17"/>
-      <c r="AI265" s="17"/>
-      <c r="AJ265" s="17"/>
-      <c r="AK265" s="17"/>
-      <c r="AL265" s="17"/>
-      <c r="AM265" s="17"/>
-      <c r="AN265" s="17"/>
-      <c r="AO265" s="17"/>
-      <c r="AP265" s="17"/>
-      <c r="AQ265" s="17"/>
-      <c r="AR265" s="17"/>
-      <c r="AS265" s="17"/>
-      <c r="AT265" s="17"/>
-      <c r="AU265" s="17"/>
-      <c r="AV265" s="17"/>
-      <c r="AW265" s="17"/>
-      <c r="AX265" s="17"/>
-      <c r="AY265" s="17"/>
-      <c r="AZ265" s="17"/>
-      <c r="BA265" s="17"/>
-      <c r="BB265" s="17"/>
-      <c r="BC265" s="17"/>
-      <c r="BD265" s="17"/>
-      <c r="BE265" s="17"/>
-      <c r="BF265" s="17"/>
-      <c r="BG265" s="17"/>
-      <c r="BH265" s="17"/>
-      <c r="BI265" s="17"/>
-      <c r="BJ265" s="17"/>
-      <c r="BK265" s="17"/>
-      <c r="BL265" s="17"/>
-    </row>
-    <row r="266" spans="1:64">
-      <c r="A266" s="17"/>
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-      <c r="D266" s="38"/>
-      <c r="E266" s="38"/>
-      <c r="F266" s="38"/>
-      <c r="G266" s="38"/>
-      <c r="H266" s="17"/>
-      <c r="J266" s="17"/>
-      <c r="K266" s="17"/>
-      <c r="L266" s="17"/>
-      <c r="M266" s="17"/>
-      <c r="N266" s="17"/>
-      <c r="O266" s="17"/>
-      <c r="P266" s="17"/>
-      <c r="Q266" s="17"/>
-      <c r="R266" s="17"/>
-      <c r="S266" s="17"/>
-      <c r="T266" s="17"/>
-      <c r="U266" s="17"/>
-      <c r="V266" s="17"/>
-      <c r="W266" s="17"/>
-      <c r="X266" s="17"/>
-      <c r="Y266" s="17"/>
-      <c r="Z266" s="17"/>
-      <c r="AA266" s="17"/>
-      <c r="AB266" s="17"/>
-      <c r="AC266" s="17"/>
-      <c r="AD266" s="17"/>
-      <c r="AE266" s="17"/>
-      <c r="AF266" s="17"/>
-      <c r="AG266" s="17"/>
-      <c r="AH266" s="17"/>
-      <c r="AI266" s="17"/>
-      <c r="AJ266" s="17"/>
-      <c r="AK266" s="17"/>
-      <c r="AL266" s="17"/>
-      <c r="AM266" s="17"/>
-      <c r="AN266" s="17"/>
-      <c r="AO266" s="17"/>
-      <c r="AP266" s="17"/>
-      <c r="AQ266" s="17"/>
-      <c r="AR266" s="17"/>
-      <c r="AS266" s="17"/>
-      <c r="AT266" s="17"/>
-      <c r="AU266" s="17"/>
-      <c r="AV266" s="17"/>
-      <c r="AW266" s="17"/>
-      <c r="AX266" s="17"/>
-      <c r="AY266" s="17"/>
-      <c r="AZ266" s="17"/>
-      <c r="BA266" s="17"/>
-      <c r="BB266" s="17"/>
-      <c r="BC266" s="17"/>
-      <c r="BD266" s="17"/>
-      <c r="BE266" s="17"/>
-      <c r="BF266" s="17"/>
-      <c r="BG266" s="17"/>
-      <c r="BH266" s="17"/>
-      <c r="BI266" s="17"/>
-      <c r="BJ266" s="17"/>
-      <c r="BK266" s="17"/>
-      <c r="BL266" s="17"/>
-    </row>
-    <row r="267" spans="1:64">
-      <c r="A267" s="17"/>
-      <c r="B267" s="37"/>
-      <c r="C267" s="37"/>
-      <c r="D267" s="38"/>
-      <c r="E267" s="38"/>
-      <c r="F267" s="38"/>
-      <c r="G267" s="38"/>
-      <c r="H267" s="17"/>
-      <c r="J267" s="17"/>
-      <c r="K267" s="17"/>
-      <c r="L267" s="17"/>
-      <c r="M267" s="17"/>
-      <c r="N267" s="17"/>
-      <c r="O267" s="17"/>
-      <c r="P267" s="17"/>
-      <c r="Q267" s="17"/>
-      <c r="R267" s="17"/>
-      <c r="S267" s="17"/>
-      <c r="T267" s="17"/>
-      <c r="U267" s="17"/>
-      <c r="V267" s="17"/>
-      <c r="W267" s="17"/>
-      <c r="X267" s="17"/>
-      <c r="Y267" s="17"/>
-      <c r="Z267" s="17"/>
-      <c r="AA267" s="17"/>
-      <c r="AB267" s="17"/>
-      <c r="AC267" s="17"/>
-      <c r="AD267" s="17"/>
-      <c r="AE267" s="17"/>
-      <c r="AF267" s="17"/>
-      <c r="AG267" s="17"/>
-      <c r="AH267" s="17"/>
-      <c r="AI267" s="17"/>
-      <c r="AJ267" s="17"/>
-      <c r="AK267" s="17"/>
-      <c r="AL267" s="17"/>
-      <c r="AM267" s="17"/>
-      <c r="AN267" s="17"/>
-      <c r="AO267" s="17"/>
-      <c r="AP267" s="17"/>
-      <c r="AQ267" s="17"/>
-      <c r="AR267" s="17"/>
-      <c r="AS267" s="17"/>
-      <c r="AT267" s="17"/>
-      <c r="AU267" s="17"/>
-      <c r="AV267" s="17"/>
-      <c r="AW267" s="17"/>
-      <c r="AX267" s="17"/>
-      <c r="AY267" s="17"/>
-      <c r="AZ267" s="17"/>
-      <c r="BA267" s="17"/>
-      <c r="BB267" s="17"/>
-      <c r="BC267" s="17"/>
-      <c r="BD267" s="17"/>
-      <c r="BE267" s="17"/>
-      <c r="BF267" s="17"/>
-      <c r="BG267" s="17"/>
-      <c r="BH267" s="17"/>
-      <c r="BI267" s="17"/>
-      <c r="BJ267" s="17"/>
-      <c r="BK267" s="17"/>
-      <c r="BL267" s="17"/>
-    </row>
-    <row r="268" spans="1:64">
-      <c r="A268" s="17"/>
-      <c r="B268" s="37"/>
-      <c r="C268" s="37"/>
-      <c r="D268" s="38"/>
-      <c r="E268" s="38"/>
-      <c r="F268" s="38"/>
-      <c r="G268" s="38"/>
-      <c r="H268" s="17"/>
-      <c r="J268" s="17"/>
-      <c r="K268" s="17"/>
-      <c r="L268" s="17"/>
-      <c r="M268" s="17"/>
-      <c r="N268" s="17"/>
-      <c r="O268" s="17"/>
-      <c r="P268" s="17"/>
-      <c r="Q268" s="17"/>
-      <c r="R268" s="17"/>
-      <c r="S268" s="17"/>
-      <c r="T268" s="17"/>
-      <c r="U268" s="17"/>
-      <c r="V268" s="17"/>
-      <c r="W268" s="17"/>
-      <c r="X268" s="17"/>
-      <c r="Y268" s="17"/>
-      <c r="Z268" s="17"/>
-      <c r="AA268" s="17"/>
-      <c r="AB268" s="17"/>
-      <c r="AC268" s="17"/>
-      <c r="AD268" s="17"/>
-      <c r="AE268" s="17"/>
-      <c r="AF268" s="17"/>
-      <c r="AG268" s="17"/>
-      <c r="AH268" s="17"/>
-      <c r="AI268" s="17"/>
-      <c r="AJ268" s="17"/>
-      <c r="AK268" s="17"/>
-      <c r="AL268" s="17"/>
-      <c r="AM268" s="17"/>
-      <c r="AN268" s="17"/>
-      <c r="AO268" s="17"/>
-      <c r="AP268" s="17"/>
-      <c r="AQ268" s="17"/>
-      <c r="AR268" s="17"/>
-      <c r="AS268" s="17"/>
-      <c r="AT268" s="17"/>
-      <c r="AU268" s="17"/>
-      <c r="AV268" s="17"/>
-      <c r="AW268" s="17"/>
-      <c r="AX268" s="17"/>
-      <c r="AY268" s="17"/>
-      <c r="AZ268" s="17"/>
-      <c r="BA268" s="17"/>
-      <c r="BB268" s="17"/>
-      <c r="BC268" s="17"/>
-      <c r="BD268" s="17"/>
-      <c r="BE268" s="17"/>
-      <c r="BF268" s="17"/>
-      <c r="BG268" s="17"/>
-      <c r="BH268" s="17"/>
-      <c r="BI268" s="17"/>
-      <c r="BJ268" s="17"/>
-      <c r="BK268" s="17"/>
-      <c r="BL268" s="17"/>
-    </row>
-    <row r="269" spans="1:64">
-      <c r="A269" s="17"/>
-      <c r="B269" s="37"/>
-      <c r="C269" s="37"/>
-      <c r="D269" s="38"/>
-      <c r="E269" s="38"/>
-      <c r="F269" s="38"/>
-      <c r="G269" s="38"/>
-      <c r="H269" s="17"/>
-      <c r="J269" s="17"/>
-      <c r="K269" s="17"/>
-      <c r="L269" s="17"/>
-      <c r="M269" s="17"/>
-      <c r="N269" s="17"/>
-      <c r="O269" s="17"/>
-      <c r="P269" s="17"/>
-      <c r="Q269" s="17"/>
-      <c r="R269" s="17"/>
-      <c r="S269" s="17"/>
-      <c r="T269" s="17"/>
-      <c r="U269" s="17"/>
-      <c r="V269" s="17"/>
-      <c r="W269" s="17"/>
-      <c r="X269" s="17"/>
-      <c r="Y269" s="17"/>
-      <c r="Z269" s="17"/>
-      <c r="AA269" s="17"/>
-      <c r="AB269" s="17"/>
-      <c r="AC269" s="17"/>
-      <c r="AD269" s="17"/>
-      <c r="AE269" s="17"/>
-      <c r="AF269" s="17"/>
-      <c r="AG269" s="17"/>
-      <c r="AH269" s="17"/>
-      <c r="AI269" s="17"/>
-      <c r="AJ269" s="17"/>
-      <c r="AK269" s="17"/>
-      <c r="AL269" s="17"/>
-      <c r="AM269" s="17"/>
-      <c r="AN269" s="17"/>
-      <c r="AO269" s="17"/>
-      <c r="AP269" s="17"/>
-      <c r="AQ269" s="17"/>
-      <c r="AR269" s="17"/>
-      <c r="AS269" s="17"/>
-      <c r="AT269" s="17"/>
-      <c r="AU269" s="17"/>
-      <c r="AV269" s="17"/>
-      <c r="AW269" s="17"/>
-      <c r="AX269" s="17"/>
-      <c r="AY269" s="17"/>
-      <c r="AZ269" s="17"/>
-      <c r="BA269" s="17"/>
-      <c r="BB269" s="17"/>
-      <c r="BC269" s="17"/>
-      <c r="BD269" s="17"/>
-      <c r="BE269" s="17"/>
-      <c r="BF269" s="17"/>
-      <c r="BG269" s="17"/>
-      <c r="BH269" s="17"/>
-      <c r="BI269" s="17"/>
-      <c r="BJ269" s="17"/>
-      <c r="BK269" s="17"/>
-      <c r="BL269" s="17"/>
-    </row>
-    <row r="270" spans="1:64">
-      <c r="A270" s="17"/>
-      <c r="B270" s="37"/>
-      <c r="C270" s="37"/>
-      <c r="D270" s="38"/>
-      <c r="E270" s="38"/>
-      <c r="F270" s="38"/>
-      <c r="G270" s="38"/>
-      <c r="H270" s="17"/>
-      <c r="J270" s="17"/>
-      <c r="K270" s="17"/>
-      <c r="L270" s="17"/>
-      <c r="M270" s="17"/>
-      <c r="N270" s="17"/>
-      <c r="O270" s="17"/>
-      <c r="P270" s="17"/>
-      <c r="Q270" s="17"/>
-      <c r="R270" s="17"/>
-      <c r="S270" s="17"/>
-      <c r="T270" s="17"/>
-      <c r="U270" s="17"/>
-      <c r="V270" s="17"/>
-      <c r="W270" s="17"/>
-      <c r="X270" s="17"/>
-      <c r="Y270" s="17"/>
-      <c r="Z270" s="17"/>
-      <c r="AA270" s="17"/>
-      <c r="AB270" s="17"/>
-      <c r="AC270" s="17"/>
-      <c r="AD270" s="17"/>
-      <c r="AE270" s="17"/>
-      <c r="AF270" s="17"/>
-      <c r="AG270" s="17"/>
-      <c r="AH270" s="17"/>
-      <c r="AI270" s="17"/>
-      <c r="AJ270" s="17"/>
-      <c r="AK270" s="17"/>
-      <c r="AL270" s="17"/>
-      <c r="AM270" s="17"/>
-      <c r="AN270" s="17"/>
-      <c r="AO270" s="17"/>
-      <c r="AP270" s="17"/>
-      <c r="AQ270" s="17"/>
-      <c r="AR270" s="17"/>
-      <c r="AS270" s="17"/>
-      <c r="AT270" s="17"/>
-      <c r="AU270" s="17"/>
-      <c r="AV270" s="17"/>
-      <c r="AW270" s="17"/>
-      <c r="AX270" s="17"/>
-      <c r="AY270" s="17"/>
-      <c r="AZ270" s="17"/>
-      <c r="BA270" s="17"/>
-      <c r="BB270" s="17"/>
-      <c r="BC270" s="17"/>
-      <c r="BD270" s="17"/>
-      <c r="BE270" s="17"/>
-      <c r="BF270" s="17"/>
-      <c r="BG270" s="17"/>
-      <c r="BH270" s="17"/>
-      <c r="BI270" s="17"/>
-      <c r="BJ270" s="17"/>
-      <c r="BK270" s="17"/>
-      <c r="BL270" s="17"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
